--- a/materials/ct81seg_runtime_stats.xlsx
+++ b/materials/ct81seg_runtime_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\projects\CT81SegApp\materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB34A38-C678-4814-836C-69C0015BE110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C476F20C-406D-4827-8526-BCE5E57A213F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CC17635D-67C6-4E2B-BF5C-757E9F68CB22}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="66">
   <si>
     <t>OS</t>
     <phoneticPr fontId="2"/>
@@ -685,6 +685,9 @@
   </si>
   <si>
     <t>&lt;-</t>
+  </si>
+  <si>
+    <t>2016/6</t>
   </si>
 </sst>
 </file>
@@ -1320,7 +1323,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1466,7 +1469,9 @@
       <c r="C9" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1">
+        <v>621</v>
+      </c>
       <c r="E9" s="1" t="s">
         <v>64</v>
       </c>
@@ -1480,7 +1485,10 @@
       <c r="C10" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1">
+        <f>D9*155.9</f>
+        <v>96813.900000000009</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>64</v>
       </c>
@@ -1495,7 +1503,9 @@
       <c r="C11" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="E11" s="1" t="s">
         <v>64</v>
       </c>
@@ -1509,7 +1519,9 @@
       <c r="C12" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1">
+        <v>6</v>
+      </c>
       <c r="E12" s="1" t="s">
         <v>64</v>
       </c>
@@ -1539,7 +1551,9 @@
       <c r="C14" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="12"/>
+      <c r="D14" s="12">
+        <v>4</v>
+      </c>
       <c r="E14" s="12" t="s">
         <v>64</v>
       </c>

--- a/materials/ct81seg_runtime_stats.xlsx
+++ b/materials/ct81seg_runtime_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\projects\CT81SegApp\materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C476F20C-406D-4827-8526-BCE5E57A213F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DA96D0-5121-4164-A973-C3A4DA4409A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CC17635D-67C6-4E2B-BF5C-757E9F68CB22}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="67">
   <si>
     <t>OS</t>
     <phoneticPr fontId="2"/>
@@ -688,6 +688,9 @@
   </si>
   <si>
     <t>2016/6</t>
+  </si>
+  <si>
+    <t>OOM</t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1326,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1941,7 +1944,9 @@
       <c r="D38" s="17">
         <v>0.27939464314840701</v>
       </c>
-      <c r="E38" s="17"/>
+      <c r="E38" s="17" t="s">
+        <v>66</v>
+      </c>
       <c r="F38" s="17">
         <v>2.4821481420076399</v>
       </c>
@@ -1955,7 +1960,9 @@
       <c r="D39" s="17">
         <v>0.40067043597809898</v>
       </c>
-      <c r="E39" s="17"/>
+      <c r="E39" s="17" t="s">
+        <v>66</v>
+      </c>
       <c r="F39" s="17">
         <v>21.510927819996098</v>
       </c>
@@ -1969,7 +1976,9 @@
       <c r="D40" s="18">
         <v>6.1337697948329097</v>
       </c>
-      <c r="E40" s="18"/>
+      <c r="E40" s="18" t="s">
+        <v>66</v>
+      </c>
       <c r="F40" s="18">
         <v>7.7748009330243804</v>
       </c>
@@ -1985,7 +1994,9 @@
       <c r="D41" s="17">
         <v>76.358046629000398</v>
       </c>
-      <c r="E41" s="17"/>
+      <c r="E41" s="17" t="s">
+        <v>66</v>
+      </c>
       <c r="F41" s="17">
         <v>61.7896196870133</v>
       </c>
@@ -1999,7 +2010,9 @@
       <c r="D42" s="17">
         <v>37.570265477057497</v>
       </c>
-      <c r="E42" s="17"/>
+      <c r="E42" s="17" t="s">
+        <v>66</v>
+      </c>
       <c r="F42" s="17">
         <v>40.060987550008498</v>
       </c>
@@ -2013,7 +2026,9 @@
       <c r="D43" s="18">
         <v>92.053681011078794</v>
       </c>
-      <c r="E43" s="18"/>
+      <c r="E43" s="18" t="s">
+        <v>66</v>
+      </c>
       <c r="F43" s="18">
         <v>53.267810357035998</v>
       </c>
@@ -2029,7 +2044,9 @@
       <c r="D44" s="17">
         <v>2.9507247160654502</v>
       </c>
-      <c r="E44" s="17"/>
+      <c r="E44" s="17" t="s">
+        <v>66</v>
+      </c>
       <c r="F44" s="17">
         <v>3.1344263299833899</v>
       </c>
@@ -2043,7 +2060,9 @@
       <c r="D45" s="17">
         <v>4.6331230551004401E-3</v>
       </c>
-      <c r="E45" s="17"/>
+      <c r="E45" s="17" t="s">
+        <v>66</v>
+      </c>
       <c r="F45" s="17">
         <v>0.15347997099161101</v>
       </c>
@@ -2057,7 +2076,9 @@
       <c r="D46" s="18">
         <v>4.6424048559274498</v>
       </c>
-      <c r="E46" s="18"/>
+      <c r="E46" s="18" t="s">
+        <v>66</v>
+      </c>
       <c r="F46" s="18">
         <v>13.794507298967799</v>
       </c>
@@ -2073,7 +2094,9 @@
       <c r="D47" s="17">
         <v>222.24066521413599</v>
       </c>
-      <c r="E47" s="17"/>
+      <c r="E47" s="17" t="s">
+        <v>66</v>
+      </c>
       <c r="F47" s="17">
         <v>206.98031143296899</v>
       </c>
@@ -2087,7 +2110,9 @@
       <c r="D48" s="17">
         <v>242</v>
       </c>
-      <c r="E48" s="17"/>
+      <c r="E48" s="17" t="s">
+        <v>66</v>
+      </c>
       <c r="F48" s="17">
         <v>286</v>
       </c>

--- a/materials/ct81seg_runtime_stats.xlsx
+++ b/materials/ct81seg_runtime_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\projects\CT81SegApp\materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DA96D0-5121-4164-A973-C3A4DA4409A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D049E05-8F52-4562-8EB5-75856F9FC3BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CC17635D-67C6-4E2B-BF5C-757E9F68CB22}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="68">
   <si>
     <t>OS</t>
     <phoneticPr fontId="2"/>
@@ -691,6 +691,9 @@
   </si>
   <si>
     <t>OOM</t>
+  </si>
+  <si>
+    <t>/</t>
   </si>
 </sst>
 </file>
@@ -1323,10 +1326,10 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1334,7 +1337,7 @@
     <col min="1" max="1" width="13.125" style="23" customWidth="1"/>
     <col min="2" max="2" width="8.375" style="23" customWidth="1"/>
     <col min="3" max="3" width="24.25" style="23" customWidth="1"/>
-    <col min="4" max="4" width="24.25" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
     <col min="5" max="5" width="14.75" customWidth="1"/>
     <col min="6" max="6" width="18.75" customWidth="1"/>
     <col min="7" max="9" width="21" customWidth="1"/>
@@ -1944,8 +1947,8 @@
       <c r="D38" s="17">
         <v>0.27939464314840701</v>
       </c>
-      <c r="E38" s="17" t="s">
-        <v>66</v>
+      <c r="E38" s="17">
+        <v>0.33114081807434498</v>
       </c>
       <c r="F38" s="17">
         <v>2.4821481420076399</v>
@@ -1960,8 +1963,8 @@
       <c r="D39" s="17">
         <v>0.40067043597809898</v>
       </c>
-      <c r="E39" s="17" t="s">
-        <v>66</v>
+      <c r="E39" s="17">
+        <v>0.421997356927022</v>
       </c>
       <c r="F39" s="17">
         <v>21.510927819996098</v>
@@ -1976,8 +1979,8 @@
       <c r="D40" s="18">
         <v>6.1337697948329097</v>
       </c>
-      <c r="E40" s="18" t="s">
-        <v>66</v>
+      <c r="E40" s="18">
+        <v>14.634373983135401</v>
       </c>
       <c r="F40" s="18">
         <v>7.7748009330243804</v>
@@ -1994,8 +1997,8 @@
       <c r="D41" s="17">
         <v>76.358046629000398</v>
       </c>
-      <c r="E41" s="17" t="s">
-        <v>66</v>
+      <c r="E41" s="17">
+        <v>45.789344378048497</v>
       </c>
       <c r="F41" s="17">
         <v>61.7896196870133</v>
@@ -2027,7 +2030,7 @@
         <v>92.053681011078794</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F43" s="18">
         <v>53.267810357035998</v>
@@ -2045,7 +2048,7 @@
         <v>2.9507247160654502</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F44" s="17">
         <v>3.1344263299833899</v>
@@ -2061,7 +2064,7 @@
         <v>4.6331230551004401E-3</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F45" s="17">
         <v>0.15347997099161101</v>
@@ -2077,7 +2080,7 @@
         <v>4.6424048559274498</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F46" s="18">
         <v>13.794507298967799</v>
@@ -2095,7 +2098,7 @@
         <v>222.24066521413599</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F47" s="17">
         <v>206.98031143296899</v>
@@ -2111,7 +2114,7 @@
         <v>242</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F48" s="17">
         <v>286</v>

--- a/materials/ct81seg_runtime_stats.xlsx
+++ b/materials/ct81seg_runtime_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\projects\CT81SegApp\materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D049E05-8F52-4562-8EB5-75856F9FC3BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BD571D-50D0-4817-9494-CB25BFD71A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CC17635D-67C6-4E2B-BF5C-757E9F68CB22}"/>
+    <workbookView xWindow="-17055" yWindow="2475" windowWidth="16350" windowHeight="9075" xr2:uid="{CC17635D-67C6-4E2B-BF5C-757E9F68CB22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="69">
   <si>
     <t>OS</t>
     <phoneticPr fontId="2"/>
@@ -694,6 +694,9 @@
   </si>
   <si>
     <t>/</t>
+  </si>
+  <si>
+    <t>2017/2</t>
   </si>
 </sst>
 </file>
@@ -1326,10 +1329,10 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1475,7 +1478,7 @@
       <c r="C9" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="7">
         <v>621</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -1491,7 +1494,7 @@
       <c r="C10" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="8">
         <f>D9*155.9</f>
         <v>96813.900000000009</v>
       </c>
@@ -1591,7 +1594,9 @@
       <c r="C16" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="7">
+        <v>699</v>
+      </c>
       <c r="E16" s="1" t="s">
         <v>64</v>
       </c>
@@ -1605,7 +1610,10 @@
       <c r="C17" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="8">
+        <f>D16*155.9</f>
+        <v>108974.1</v>
+      </c>
       <c r="E17" s="1" t="s">
         <v>64</v>
       </c>
@@ -1620,7 +1628,9 @@
       <c r="C18" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E18" s="1" t="s">
         <v>64</v>
       </c>
@@ -1634,7 +1644,9 @@
       <c r="C19" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1">
+        <v>6.1</v>
+      </c>
       <c r="E19" s="1" t="s">
         <v>64</v>
       </c>
@@ -1762,7 +1774,7 @@
         <v>0.28715244401246298</v>
       </c>
       <c r="E27" s="17">
-        <v>0.29374233097769298</v>
+        <v>0.36979355197399799</v>
       </c>
       <c r="F27" s="17">
         <v>2.4038511489634402</v>
@@ -1778,7 +1790,7 @@
         <v>0.38627594592981002</v>
       </c>
       <c r="E28" s="17">
-        <v>0.41108131106011497</v>
+        <v>0.40499129984527799</v>
       </c>
       <c r="F28" s="17">
         <v>29.7253813539864</v>
@@ -1794,7 +1806,7 @@
         <v>1.7493289359845201</v>
       </c>
       <c r="E29" s="18">
-        <v>3.7218914208933702</v>
+        <v>1.79529665410518</v>
       </c>
       <c r="F29" s="18">
         <v>2.1576455130125298</v>
@@ -1812,7 +1824,7 @@
         <v>21.473149617901001</v>
       </c>
       <c r="E30" s="17">
-        <v>12.375974343856701</v>
+        <v>12.7102299910038</v>
       </c>
       <c r="F30" s="17">
         <v>21.6080634089885</v>
@@ -1828,7 +1840,7 @@
         <v>9.1307565479073602</v>
       </c>
       <c r="E31" s="17">
-        <v>5.0524217239581004</v>
+        <v>5.0690915461163897</v>
       </c>
       <c r="F31" s="17">
         <v>10.5006086740177</v>
@@ -1844,7 +1856,7 @@
         <v>44.075891631888197</v>
       </c>
       <c r="E32" s="18">
-        <v>33.902424344094399</v>
+        <v>34.475361129036102</v>
       </c>
       <c r="F32" s="18">
         <v>24.461745104985301</v>
@@ -1862,7 +1874,7 @@
         <v>0.72870961297303405</v>
       </c>
       <c r="E33" s="17">
-        <v>0.74369219085201599</v>
+        <v>0.76541896420530897</v>
       </c>
       <c r="F33" s="17">
         <v>0.78889504598919302</v>
@@ -1878,7 +1890,7 @@
         <v>1.28428710158914E-2</v>
       </c>
       <c r="E34" s="17">
-        <v>4.9256070051342197E-3</v>
+        <v>3.4289411269128301E-3</v>
       </c>
       <c r="F34" s="17">
         <v>0.21750033501302801</v>
@@ -1894,7 +1906,7 @@
         <v>4.5695638048928204</v>
       </c>
       <c r="E35" s="18">
-        <v>4.6572331739589501</v>
+        <v>4.7691064779646597</v>
       </c>
       <c r="F35" s="18">
         <v>13.952500746003301</v>
@@ -1948,7 +1960,7 @@
         <v>0.27939464314840701</v>
       </c>
       <c r="E38" s="17">
-        <v>0.33114081807434498</v>
+        <v>0.30758150294423098</v>
       </c>
       <c r="F38" s="17">
         <v>2.4821481420076399</v>
@@ -1964,7 +1976,7 @@
         <v>0.40067043597809898</v>
       </c>
       <c r="E39" s="17">
-        <v>0.421997356927022</v>
+        <v>0.40792634687386398</v>
       </c>
       <c r="F39" s="17">
         <v>21.510927819996098</v>
@@ -1980,7 +1992,7 @@
         <v>6.1337697948329097</v>
       </c>
       <c r="E40" s="18">
-        <v>14.634373983135401</v>
+        <v>5.8587893838994196</v>
       </c>
       <c r="F40" s="18">
         <v>7.7748009330243804</v>
@@ -1998,7 +2010,7 @@
         <v>76.358046629000398</v>
       </c>
       <c r="E41" s="17">
-        <v>45.789344378048497</v>
+        <v>45.899578189942901</v>
       </c>
       <c r="F41" s="17">
         <v>61.7896196870133</v>
@@ -2143,7 +2155,7 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="F9">
-    <cfRule type="dataBar" priority="64">
+    <cfRule type="dataBar" priority="70">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2157,7 +2169,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="dataBar" priority="65">
+    <cfRule type="dataBar" priority="71">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2171,7 +2183,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="dataBar" priority="66">
+    <cfRule type="dataBar" priority="72">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2185,7 +2197,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:F14">
-    <cfRule type="dataBar" priority="67">
+    <cfRule type="dataBar" priority="73">
       <dataBar>
         <cfvo type="num" val="2"/>
         <cfvo type="max"/>
@@ -2199,7 +2211,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="dataBar" priority="68">
+    <cfRule type="dataBar" priority="74">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2213,7 +2225,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="dataBar" priority="69">
+    <cfRule type="dataBar" priority="75">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2227,7 +2239,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="dataBar" priority="70">
+    <cfRule type="dataBar" priority="76">
       <dataBar>
         <cfvo type="num" val="7"/>
         <cfvo type="max"/>
@@ -2241,7 +2253,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="dataBar" priority="71">
+    <cfRule type="dataBar" priority="77">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2255,7 +2267,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="dataBar" priority="72">
+    <cfRule type="dataBar" priority="78">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2269,7 +2281,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="dataBar" priority="73">
+    <cfRule type="dataBar" priority="79">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2283,7 +2295,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="dataBar" priority="74">
+    <cfRule type="dataBar" priority="80">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2297,6 +2309,90 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:XFD27 A38:XFD38">
+    <cfRule type="dataBar" priority="31">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0BDA52D8-3E7E-4C70-91EE-300C4C30AA93}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:XFD28 A39:XFD39">
+    <cfRule type="dataBar" priority="30">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9E678109-7150-49BE-B221-A3CFAA416250}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:XFD29 A40:XFD40">
+    <cfRule type="dataBar" priority="29">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ED7249C0-7851-4FAB-A8B3-ECD1D8B07ED7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:XFD30 A41:XFD41">
+    <cfRule type="dataBar" priority="28">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{17182307-9233-4527-A092-39A2AC7598BF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:XFD31 A42:XFD42">
+    <cfRule type="dataBar" priority="27">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7C48002B-3911-4813-A50C-7ECF9C19EF64}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32:XFD32 A43:XFD43">
+    <cfRule type="dataBar" priority="26">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7FCA8C0A-0AB4-40CA-BFDA-384E8E98208C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33:XFD33 A44:XFD44">
     <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="min"/>
@@ -2305,12 +2401,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0BDA52D8-3E7E-4C70-91EE-300C4C30AA93}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28:XFD28 A39:XFD39">
+          <x14:id>{BE90834B-BCE9-4D8B-94C3-8DF5CA7B319C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:XFD34 A45:XFD45">
     <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="min"/>
@@ -2319,12 +2415,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9E678109-7150-49BE-B221-A3CFAA416250}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29:XFD29 A40:XFD40">
+          <x14:id>{34C9D91D-6812-4B52-B085-D4926ED94F46}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:XFD35 A46:XFD46">
     <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="min"/>
@@ -2333,27 +2429,83 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ED7249C0-7851-4FAB-A8B3-ECD1D8B07ED7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30:XFD30 A41:XFD41">
+          <x14:id>{C4B37561-E21A-469F-9264-28F346513E2D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36:XFD36 A47:XFD47">
     <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A795A94A-D359-4C20-8F8C-4E6E44939444}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:XFD37 A48:XFD48">
+    <cfRule type="dataBar" priority="21">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ED0BF0BD-0D7F-4B28-A5CF-75980B2566B9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:XFD23">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{185488EA-EF2F-484D-9735-35F3064F04C6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36:XFD37 A47:XFD48">
+    <cfRule type="dataBar" priority="19">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BEB72EB6-2FCA-4E6B-A21F-E30D0356FAF7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:XFD9 A9:D9">
+    <cfRule type="dataBar" priority="18">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{17182307-9233-4527-A092-39A2AC7598BF}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31:XFD31 A42:XFD42">
-    <cfRule type="dataBar" priority="21">
+          <x14:id>{55209318-E838-45D7-997A-AE33FDFF309F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10:XFD10 A10:D10">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2361,13 +2513,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7C48002B-3911-4813-A50C-7ECF9C19EF64}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32:XFD32 A43:XFD43">
-    <cfRule type="dataBar" priority="20">
+          <x14:id>{FF35AB45-1B56-4C79-838D-8C6C45297D4C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:D12 F12:XFD12">
+    <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2375,13 +2527,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7FCA8C0A-0AB4-40CA-BFDA-384E8E98208C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33:XFD33 A44:XFD44">
-    <cfRule type="dataBar" priority="19">
+          <x14:id>{5709ABDC-9BD0-48E9-A6AB-106C154A8CEB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:D14 F13:XFD14">
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2389,13 +2541,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BE90834B-BCE9-4D8B-94C3-8DF5CA7B319C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34:XFD34 A45:XFD45">
-    <cfRule type="dataBar" priority="18">
+          <x14:id>{9786495F-8BC4-419E-9CB8-5224A93AE4AE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16:XFD16 F9:XFD9 A9:D9 A16:D16">
+    <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2403,13 +2555,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{34C9D91D-6812-4B52-B085-D4926ED94F46}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35:XFD35 A46:XFD46">
-    <cfRule type="dataBar" priority="17">
+          <x14:id>{8F84E390-EA54-4044-A0D1-BD858D211D1C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:XFD17 F10:XFD10 A10:D10 A17:D17">
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2417,40 +2569,124 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C4B37561-E21A-469F-9264-28F346513E2D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36:XFD36 A47:XFD47">
-    <cfRule type="dataBar" priority="16">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A795A94A-D359-4C20-8F8C-4E6E44939444}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:XFD37 A48:XFD48">
-    <cfRule type="dataBar" priority="15">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFD6007B"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ED0BF0BD-0D7F-4B28-A5CF-75980B2566B9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23:XFD23">
+          <x14:id>{2648E629-B128-40E0-9430-3910149B879A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:D19 F19:XFD19">
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9EC12AEF-9FE7-4A07-8127-10331FB9F457}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:D20 F20:XFD20">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F8E4DB01-292B-4098-852F-53E74F090B09}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:D21 F21:XFD21">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{610D2D63-4D68-49B7-8423-BF90A16E1825}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24:D24 F24:XFD24">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4D97FA75-76F6-4FF5-894D-D8F085836ADA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:D25 F25:XFD25">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D52F8789-0951-42AE-89B8-918393A72370}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BE08D743-5C31-4682-92FD-D0ED74A6E081}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{99553375-C4C7-4A45-B837-00F75118B134}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7096564D-29E1-4746-9C3E-E960D69055F1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -2459,27 +2695,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{185488EA-EF2F-484D-9735-35F3064F04C6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36:XFD37 A47:XFD48">
-    <cfRule type="dataBar" priority="13">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BEB72EB6-2FCA-4E6B-A21F-E30D0356FAF7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:D9 F9:XFD9">
-    <cfRule type="dataBar" priority="12">
+          <x14:id>{1A1BFC80-804B-4A95-BF78-1A64F9AB28A3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:XFD16 A9:XFD9">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2487,13 +2709,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{55209318-E838-45D7-997A-AE33FDFF309F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10:D10 F10:XFD10">
-    <cfRule type="dataBar" priority="11">
+          <x14:id>{14196676-A144-43A1-A7A4-3EF4D4E423B3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:XFD10 A17:XFD17">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2501,133 +2723,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FF35AB45-1B56-4C79-838D-8C6C45297D4C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12:D12 F12:XFD12">
-    <cfRule type="dataBar" priority="10">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5709ABDC-9BD0-48E9-A6AB-106C154A8CEB}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:D14 F13:XFD14">
-    <cfRule type="dataBar" priority="9">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9786495F-8BC4-419E-9CB8-5224A93AE4AE}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:D9 A16:D16 F16:XFD16 F9:XFD9">
-    <cfRule type="dataBar" priority="8">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8F84E390-EA54-4044-A0D1-BD858D211D1C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10:D10 A17:D17 F17:XFD17 F10:XFD10">
-    <cfRule type="dataBar" priority="7">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2648E629-B128-40E0-9430-3910149B879A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:D19 F19:XFD19">
-    <cfRule type="dataBar" priority="6">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9EC12AEF-9FE7-4A07-8127-10331FB9F457}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20:D20 F20:XFD20">
-    <cfRule type="dataBar" priority="5">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F8E4DB01-292B-4098-852F-53E74F090B09}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21:D21 F21:XFD21">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{610D2D63-4D68-49B7-8423-BF90A16E1825}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24:D24 F24:XFD24">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4D97FA75-76F6-4FF5-894D-D8F085836ADA}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:D25 F25:XFD25">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D52F8789-0951-42AE-89B8-918393A72370}</x14:id>
+          <x14:id>{3F5EDDE1-556F-4C3A-B908-6C709C91A635}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2963,7 +3059,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A9:D9 F9:XFD9</xm:sqref>
+          <xm:sqref>F9:XFD9 A9:D9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FF35AB45-1B56-4C79-838D-8C6C45297D4C}">
@@ -2976,7 +3072,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A10:D10 F10:XFD10</xm:sqref>
+          <xm:sqref>F10:XFD10 A10:D10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5709ABDC-9BD0-48E9-A6AB-106C154A8CEB}">
@@ -3015,7 +3111,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A9:D9 A16:D16 F16:XFD16 F9:XFD9</xm:sqref>
+          <xm:sqref>F16:XFD16 F9:XFD9 A9:D9 A16:D16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2648E629-B128-40E0-9430-3910149B879A}">
@@ -3028,7 +3124,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A10:D10 A17:D17 F17:XFD17 F10:XFD10</xm:sqref>
+          <xm:sqref>F17:XFD17 F10:XFD10 A10:D10 A17:D17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9EC12AEF-9FE7-4A07-8127-10331FB9F457}">
@@ -3094,6 +3190,84 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>A25:D25 F25:XFD25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BE08D743-5C31-4682-92FD-D0ED74A6E081}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{99553375-C4C7-4A45-B837-00F75118B134}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7096564D-29E1-4746-9C3E-E960D69055F1}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1A1BFC80-804B-4A95-BF78-1A64F9AB28A3}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{14196676-A144-43A1-A7A4-3EF4D4E423B3}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A16:XFD16 A9:XFD9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3F5EDDE1-556F-4C3A-B908-6C709C91A635}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A10:XFD10 A17:XFD17</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/materials/ct81seg_runtime_stats.xlsx
+++ b/materials/ct81seg_runtime_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\projects\CT81SegApp\materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BD571D-50D0-4817-9494-CB25BFD71A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6709A53-5DA9-4223-81C2-A225621BF4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17055" yWindow="2475" windowWidth="16350" windowHeight="9075" xr2:uid="{CC17635D-67C6-4E2B-BF5C-757E9F68CB22}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CC17635D-67C6-4E2B-BF5C-757E9F68CB22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="73">
   <si>
     <t>OS</t>
     <phoneticPr fontId="2"/>
@@ -147,9 +147,6 @@
     <t>SATA HDD</t>
   </si>
   <si>
-    <t>Machine (devonrex)</t>
-  </si>
-  <si>
     <t>NVMe SSD</t>
   </si>
   <si>
@@ -697,6 +694,21 @@
   </si>
   <si>
     <t>2017/2</t>
+  </si>
+  <si>
+    <t>Machine 3 (devonrex)</t>
+  </si>
+  <si>
+    <t>Machine 4 (toyger)</t>
+  </si>
+  <si>
+    <t>Intel Xeon w5-2455X</t>
+  </si>
+  <si>
+    <t>NVIDIA RTX A4500 Ada</t>
+  </si>
+  <si>
+    <t>2023/9</t>
   </si>
 </sst>
 </file>
@@ -1326,13 +1338,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C0C41F-649F-411D-8D32-F880ADA04FFA}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomRight" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1346,21 +1358,24 @@
     <col min="7" max="9" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="21"/>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
       <c r="D1" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="22" t="s">
-        <v>40</v>
-      </c>
       <c r="F1" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
         <v>2</v>
       </c>
@@ -1375,8 +1390,11 @@
       <c r="F2" s="22" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G2" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>8</v>
       </c>
@@ -1386,7 +1404,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="26" t="s">
         <v>23</v>
       </c>
@@ -1398,13 +1416,19 @@
         <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G4" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="28"/>
       <c r="B5" s="28"/>
       <c r="C5" s="23" t="s">
@@ -1414,47 +1438,63 @@
         <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G5" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="28"/>
       <c r="B6" s="28"/>
       <c r="C6" s="23" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G6" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
       <c r="C7" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G7" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="31" t="s">
         <v>9</v>
       </c>
@@ -1463,114 +1503,157 @@
         <v>5</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="7">
         <v>621</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F9" s="7">
         <v>1399</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G9" s="7">
+        <v>1039</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="21"/>
       <c r="B10" s="21"/>
       <c r="C10" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="8">
         <f>D9*155.9</f>
         <v>96813.900000000009</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F10" s="8">
         <f>F9*155.9</f>
         <v>218104.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G10" s="8">
+        <f>G9*155.9</f>
+        <v>161980.1</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="21"/>
       <c r="B11" s="21"/>
       <c r="C11" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="21"/>
       <c r="B12" s="21"/>
       <c r="C12" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1">
         <v>6</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F12" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G12" s="1">
+        <v>24</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="21"/>
       <c r="B13" s="21"/>
       <c r="C13" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="1">
         <v>3.6</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F13" s="2">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G13" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="33"/>
       <c r="B14" s="33"/>
       <c r="C14" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="12">
         <v>4</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F14" s="10">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G14" s="12">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="31" t="s">
         <v>10</v>
       </c>
@@ -1579,112 +1662,157 @@
         <v>1</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="7">
         <v>699</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F16" s="7">
         <v>999</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G16" s="7">
+        <v>2250</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8">
         <f>D16*155.9</f>
         <v>108974.1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F17" s="8">
         <f>F16*155.9</f>
         <v>155744.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G17" s="8">
+        <f>G16*155.9</f>
+        <v>350775</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="21"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="1">
         <v>6.1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F19" s="2">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G19" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="21"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" s="1">
         <v>11</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F20" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G20" s="1">
+        <v>24</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="33"/>
       <c r="B21" s="33"/>
       <c r="C21" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="12"/>
+        <v>52</v>
+      </c>
+      <c r="D21" s="12">
+        <v>3584</v>
+      </c>
       <c r="E21" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F21" s="10">
         <v>4352</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G21" s="12">
+        <v>7680</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="28" t="s">
         <v>22</v>
       </c>
@@ -1693,20 +1821,26 @@
         <v>6</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G22" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="28"/>
       <c r="B23" s="28"/>
       <c r="C23" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
@@ -1717,40 +1851,58 @@
       <c r="F23" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="28"/>
       <c r="B24" s="28"/>
       <c r="C24" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D24" s="1">
         <v>6</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F24" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G24" s="1">
+        <v>8</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="34"/>
       <c r="B25" s="34"/>
       <c r="C25" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" s="1">
         <v>2</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F25" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G25" s="1">
+        <v>2</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="25" t="s">
         <v>4</v>
       </c>
@@ -1760,7 +1912,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A27" s="26" t="s">
         <v>17</v>
       </c>
@@ -1774,45 +1926,45 @@
         <v>0.28715244401246298</v>
       </c>
       <c r="E27" s="17">
-        <v>0.36979355197399799</v>
+        <v>0.32168344408273603</v>
       </c>
       <c r="F27" s="17">
-        <v>2.4038511489634402</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+        <v>2.0486975759849799</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="21"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D28" s="17">
         <v>0.38627594592981002</v>
       </c>
       <c r="E28" s="17">
-        <v>0.40499129984527799</v>
+        <v>0.429837140953168</v>
       </c>
       <c r="F28" s="17">
-        <v>29.7253813539864</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
+        <v>25.178262497007299</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="21"/>
       <c r="B29" s="33"/>
       <c r="C29" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D29" s="18">
         <v>1.7493289359845201</v>
       </c>
       <c r="E29" s="18">
-        <v>1.79529665410518</v>
+        <v>1.81356537993997</v>
       </c>
       <c r="F29" s="18">
-        <v>2.1576455130125298</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+        <v>2.1901975200162198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="21"/>
       <c r="B30" s="31" t="s">
         <v>20</v>
@@ -1824,13 +1976,13 @@
         <v>21.473149617901001</v>
       </c>
       <c r="E30" s="17">
-        <v>12.7102299910038</v>
+        <v>12.4680417219642</v>
       </c>
       <c r="F30" s="17">
-        <v>21.6080634089885</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+        <v>19.721532533003401</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="23" t="s">
@@ -1840,13 +1992,13 @@
         <v>9.1307565479073602</v>
       </c>
       <c r="E31" s="17">
-        <v>5.0690915461163897</v>
+        <v>5.0531151550821898</v>
       </c>
       <c r="F31" s="17">
-        <v>10.5006086740177</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
+        <v>10.7624927630531</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="21"/>
       <c r="B32" s="33"/>
       <c r="C32" s="30" t="s">
@@ -1856,10 +2008,10 @@
         <v>44.075891631888197</v>
       </c>
       <c r="E32" s="18">
-        <v>34.475361129036102</v>
+        <v>33.519158737035397</v>
       </c>
       <c r="F32" s="18">
-        <v>24.461745104985301</v>
+        <v>23.506159127980901</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
@@ -1874,42 +2026,42 @@
         <v>0.72870961297303405</v>
       </c>
       <c r="E33" s="17">
-        <v>0.76541896420530897</v>
+        <v>0.771500790026038</v>
       </c>
       <c r="F33" s="17">
-        <v>0.78889504598919302</v>
+        <v>0.78369250602554497</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="21"/>
       <c r="B34" s="21"/>
       <c r="C34" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D34" s="17">
         <v>1.28428710158914E-2</v>
       </c>
       <c r="E34" s="17">
-        <v>3.4289411269128301E-3</v>
+        <v>3.9459390100091696E-3</v>
       </c>
       <c r="F34" s="17">
-        <v>0.21750033501302801</v>
+        <v>5.6897229980677297E-2</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="21"/>
       <c r="B35" s="33"/>
       <c r="C35" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D35" s="18">
         <v>4.5695638048928204</v>
       </c>
       <c r="E35" s="18">
-        <v>4.7691064779646597</v>
+        <v>4.7829728780779899</v>
       </c>
       <c r="F35" s="18">
-        <v>13.952500746003301</v>
+        <v>7.9536300579784402</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
@@ -1924,17 +2076,17 @@
         <v>82.896310266107307</v>
       </c>
       <c r="E36" s="17">
-        <v>64.886986307101296</v>
+        <v>65.328087496804002</v>
       </c>
       <c r="F36" s="17">
-        <v>107.392583422013</v>
+        <v>93.196820167009705</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="33"/>
       <c r="B37" s="33"/>
       <c r="C37" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D37" s="18">
         <v>101</v>
@@ -1943,7 +2095,7 @@
         <v>89</v>
       </c>
       <c r="F37" s="18">
-        <v>186</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
@@ -1970,7 +2122,7 @@
       <c r="A39" s="21"/>
       <c r="B39" s="21"/>
       <c r="C39" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D39" s="17">
         <v>0.40067043597809898</v>
@@ -1986,7 +2138,7 @@
       <c r="A40" s="21"/>
       <c r="B40" s="33"/>
       <c r="C40" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D40" s="18">
         <v>6.1337697948329097</v>
@@ -2026,7 +2178,7 @@
         <v>37.570265477057497</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F42" s="17">
         <v>40.060987550008498</v>
@@ -2042,7 +2194,7 @@
         <v>92.053681011078794</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F43" s="18">
         <v>53.267810357035998</v>
@@ -2060,7 +2212,7 @@
         <v>2.9507247160654502</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F44" s="17">
         <v>3.1344263299833899</v>
@@ -2070,13 +2222,13 @@
       <c r="A45" s="21"/>
       <c r="B45" s="21"/>
       <c r="C45" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D45" s="17">
         <v>4.6331230551004401E-3</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F45" s="17">
         <v>0.15347997099161101</v>
@@ -2086,13 +2238,13 @@
       <c r="A46" s="21"/>
       <c r="B46" s="33"/>
       <c r="C46" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D46" s="18">
         <v>4.6424048559274498</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F46" s="18">
         <v>13.794507298967799</v>
@@ -2110,7 +2262,7 @@
         <v>222.24066521413599</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F47" s="17">
         <v>206.98031143296899</v>
@@ -2120,13 +2272,13 @@
       <c r="A48" s="21"/>
       <c r="B48" s="21"/>
       <c r="C48" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D48" s="17">
         <v>242</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F48" s="17">
         <v>286</v>
@@ -2154,7 +2306,7 @@
     <mergeCell ref="A27:A37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="F9">
+  <conditionalFormatting sqref="F9:G9">
     <cfRule type="dataBar" priority="70">
       <dataBar>
         <cfvo type="min"/>
@@ -2168,7 +2320,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
+  <conditionalFormatting sqref="F10:G10">
     <cfRule type="dataBar" priority="71">
       <dataBar>
         <cfvo type="min"/>
@@ -2210,7 +2362,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
+  <conditionalFormatting sqref="F16:G16">
     <cfRule type="dataBar" priority="74">
       <dataBar>
         <cfvo type="min"/>
@@ -2224,7 +2376,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
+  <conditionalFormatting sqref="F17:G17">
     <cfRule type="dataBar" priority="75">
       <dataBar>
         <cfvo type="min"/>
@@ -2490,7 +2642,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9:XFD9 A9:D9">
+  <conditionalFormatting sqref="A9:D9 F9:G9 I9:XFD9">
     <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="min"/>
@@ -2504,7 +2656,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10:XFD10 A10:D10">
+  <conditionalFormatting sqref="A10:D10 F10:G10 I10:XFD10">
     <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
@@ -2518,7 +2670,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:D12 F12:XFD12">
+  <conditionalFormatting sqref="A12:D12 F12:G12 I12:XFD12">
     <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
@@ -2532,7 +2684,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:D14 F13:XFD14">
+  <conditionalFormatting sqref="A13:D14 F13:G14 I13:XFD14">
     <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="min"/>
@@ -2546,7 +2698,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16:XFD16 F9:XFD9 A9:D9 A16:D16">
+  <conditionalFormatting sqref="A9:D9 A16:D16 F9:G9 F16:G16 I16:XFD16 I9:XFD9">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="min"/>
@@ -2560,7 +2712,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17:XFD17 F10:XFD10 A10:D10 A17:D17">
+  <conditionalFormatting sqref="A10:D10 A17:D17 F10:G10 F17:G17 I17:XFD17 I10:XFD10">
     <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="min"/>
@@ -2574,7 +2726,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19:D19 F19:XFD19">
+  <conditionalFormatting sqref="A19:D19 F19:G19 I19:XFD19">
     <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
@@ -2588,7 +2740,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:D20 F20:XFD20">
+  <conditionalFormatting sqref="A20:D20 F20:G20 I20:XFD20">
     <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
@@ -2602,7 +2754,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21:D21 F21:XFD21">
+  <conditionalFormatting sqref="A21:D21 F21:G21 I21:XFD21">
     <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
@@ -2616,7 +2768,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24:D24 F24:XFD24">
+  <conditionalFormatting sqref="A24:D24 F24:G24 I24:XFD24">
     <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
@@ -2630,7 +2782,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25:D25 F25:XFD25">
+  <conditionalFormatting sqref="A25:D25 F25:G25 I25:XFD25">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
@@ -2700,7 +2852,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16:XFD16 A9:XFD9">
+  <conditionalFormatting sqref="A9:XFD9 A16:XFD16">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -2743,7 +2895,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F9</xm:sqref>
+          <xm:sqref>F9:G9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A486E733-45FB-5745-BC12-5681A8C96E8B}">
@@ -2756,7 +2908,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F10</xm:sqref>
+          <xm:sqref>F10:G10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AA69FEEE-5CC1-B446-88AE-AA0DCEE32669}">
@@ -2797,7 +2949,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F16</xm:sqref>
+          <xm:sqref>F16:G16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FDE0D191-AB43-2A4B-AAED-204602D73121}">
@@ -2810,7 +2962,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F17</xm:sqref>
+          <xm:sqref>F17:G17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E2DEF3AB-15D6-E248-822C-F35EA5D25BC2}">
@@ -3059,7 +3211,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F9:XFD9 A9:D9</xm:sqref>
+          <xm:sqref>A9:D9 F9:G9 I9:XFD9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FF35AB45-1B56-4C79-838D-8C6C45297D4C}">
@@ -3072,7 +3224,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F10:XFD10 A10:D10</xm:sqref>
+          <xm:sqref>A10:D10 F10:G10 I10:XFD10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5709ABDC-9BD0-48E9-A6AB-106C154A8CEB}">
@@ -3085,7 +3237,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A12:D12 F12:XFD12</xm:sqref>
+          <xm:sqref>A12:D12 F12:G12 I12:XFD12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9786495F-8BC4-419E-9CB8-5224A93AE4AE}">
@@ -3098,7 +3250,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A13:D14 F13:XFD14</xm:sqref>
+          <xm:sqref>A13:D14 F13:G14 I13:XFD14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8F84E390-EA54-4044-A0D1-BD858D211D1C}">
@@ -3111,7 +3263,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F16:XFD16 F9:XFD9 A9:D9 A16:D16</xm:sqref>
+          <xm:sqref>A9:D9 A16:D16 F9:G9 F16:G16 I16:XFD16 I9:XFD9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2648E629-B128-40E0-9430-3910149B879A}">
@@ -3124,7 +3276,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F17:XFD17 F10:XFD10 A10:D10 A17:D17</xm:sqref>
+          <xm:sqref>A10:D10 A17:D17 F10:G10 F17:G17 I17:XFD17 I10:XFD10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9EC12AEF-9FE7-4A07-8127-10331FB9F457}">
@@ -3137,7 +3289,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A19:D19 F19:XFD19</xm:sqref>
+          <xm:sqref>A19:D19 F19:G19 I19:XFD19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F8E4DB01-292B-4098-852F-53E74F090B09}">
@@ -3150,7 +3302,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A20:D20 F20:XFD20</xm:sqref>
+          <xm:sqref>A20:D20 F20:G20 I20:XFD20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{610D2D63-4D68-49B7-8423-BF90A16E1825}">
@@ -3163,7 +3315,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A21:D21 F21:XFD21</xm:sqref>
+          <xm:sqref>A21:D21 F21:G21 I21:XFD21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4D97FA75-76F6-4FF5-894D-D8F085836ADA}">
@@ -3176,7 +3328,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A24:D24 F24:XFD24</xm:sqref>
+          <xm:sqref>A24:D24 F24:G24 I24:XFD24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D52F8789-0951-42AE-89B8-918393A72370}">
@@ -3189,7 +3341,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A25:D25 F25:XFD25</xm:sqref>
+          <xm:sqref>A25:D25 F25:G25 I25:XFD25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BE08D743-5C31-4682-92FD-D0ED74A6E081}">
@@ -3254,7 +3406,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A16:XFD16 A9:XFD9</xm:sqref>
+          <xm:sqref>A9:XFD9 A16:XFD16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3F5EDDE1-556F-4C3A-B908-6C709C91A635}">

--- a/materials/ct81seg_runtime_stats.xlsx
+++ b/materials/ct81seg_runtime_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\projects\CT81SegApp\materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6709A53-5DA9-4223-81C2-A225621BF4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0BC312-65CE-43C8-A53E-FD77DE01117F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CC17635D-67C6-4E2B-BF5C-757E9F68CB22}"/>
   </bookViews>
@@ -1344,7 +1344,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomRight" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.15"/>

--- a/materials/ct81seg_runtime_stats.xlsx
+++ b/materials/ct81seg_runtime_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\projects\CT81SegApp\materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0BC312-65CE-43C8-A53E-FD77DE01117F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191EAD83-B51E-46EC-B676-765A978456A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CC17635D-67C6-4E2B-BF5C-757E9F68CB22}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="74">
   <si>
     <t>OS</t>
     <phoneticPr fontId="2"/>
@@ -709,6 +709,9 @@
   </si>
   <si>
     <t>2023/9</t>
+  </si>
+  <si>
+    <t>Machine 5 (toyger)</t>
   </si>
 </sst>
 </file>
@@ -889,7 +892,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1000,6 +1003,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1341,10 +1350,10 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I31" sqref="I31"/>
+      <selection pane="bottomRight" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1374,6 +1383,9 @@
       <c r="G1" s="22" t="s">
         <v>69</v>
       </c>
+      <c r="H1" s="22" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="2" spans="1:8" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
@@ -1391,6 +1403,9 @@
         <v>3</v>
       </c>
       <c r="G2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1931,6 +1946,12 @@
       <c r="F27" s="17">
         <v>2.0486975759849799</v>
       </c>
+      <c r="G27" s="17">
+        <v>0.23301382999989001</v>
+      </c>
+      <c r="H27" s="38">
+        <v>0.28126544699989597</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="21"/>
@@ -1947,6 +1968,12 @@
       <c r="F28" s="17">
         <v>25.178262497007299</v>
       </c>
+      <c r="G28" s="17">
+        <v>0.518444739999949</v>
+      </c>
+      <c r="H28" s="38">
+        <v>0.38957777400014398</v>
+      </c>
     </row>
     <row r="29" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="21"/>
@@ -1963,6 +1990,12 @@
       <c r="F29" s="18">
         <v>2.1901975200162198</v>
       </c>
+      <c r="G29" s="18">
+        <v>1.1407079950001799</v>
+      </c>
+      <c r="H29" s="37">
+        <v>2.9315335070000401</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="21"/>
@@ -1980,6 +2013,12 @@
       </c>
       <c r="F30" s="17">
         <v>19.721532533003401</v>
+      </c>
+      <c r="G30" s="17">
+        <v>10.034744810999801</v>
+      </c>
+      <c r="H30" s="38">
+        <v>6.0135008770000598</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
@@ -1997,6 +2036,12 @@
       <c r="F31" s="17">
         <v>10.7624927630531</v>
       </c>
+      <c r="G31" s="17">
+        <v>9.8556633959999491</v>
+      </c>
+      <c r="H31" s="38">
+        <v>5.4243278760000004</v>
+      </c>
     </row>
     <row r="32" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="21"/>
@@ -2013,8 +2058,14 @@
       <c r="F32" s="18">
         <v>23.506159127980901</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G32" s="18">
+        <v>22.931974768999901</v>
+      </c>
+      <c r="H32" s="37">
+        <v>16.787593501999901</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="21"/>
       <c r="B33" s="31" t="s">
         <v>21</v>
@@ -2031,8 +2082,14 @@
       <c r="F33" s="17">
         <v>0.78369250602554497</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G33" s="17">
+        <v>0.58345454599998403</v>
+      </c>
+      <c r="H33" s="38">
+        <v>0.59869754700002797</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="21"/>
       <c r="B34" s="21"/>
       <c r="C34" s="23" t="s">
@@ -2047,8 +2104,14 @@
       <c r="F34" s="17">
         <v>5.6897229980677297E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G34" s="17">
+        <v>9.2414979999375594E-3</v>
+      </c>
+      <c r="H34" s="38">
+        <v>3.55592999994769E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="21"/>
       <c r="B35" s="33"/>
       <c r="C35" s="30" t="s">
@@ -2063,8 +2126,14 @@
       <c r="F35" s="18">
         <v>7.9536300579784402</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G35" s="37">
+        <v>3.1686970600001101</v>
+      </c>
+      <c r="H35" s="37">
+        <v>3.4625165180000201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="21"/>
       <c r="B36" s="21" t="s">
         <v>16</v>
@@ -2081,8 +2150,14 @@
       <c r="F36" s="17">
         <v>93.196820167009705</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G36" s="38">
+        <v>48.861804079999899</v>
+      </c>
+      <c r="H36" s="38">
+        <v>38.9200909179999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="33"/>
       <c r="B37" s="33"/>
       <c r="C37" s="30" t="s">
@@ -2097,8 +2172,14 @@
       <c r="F37" s="18">
         <v>156</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G37" s="37">
+        <v>69</v>
+      </c>
+      <c r="H37" s="37">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="28" t="s">
         <v>18</v>
       </c>
@@ -2117,8 +2198,14 @@
       <c r="F38" s="17">
         <v>2.4821481420076399</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G38" s="38">
+        <v>0.24432433499987299</v>
+      </c>
+      <c r="H38" s="38">
+        <v>0.26874214000008501</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="21"/>
       <c r="B39" s="21"/>
       <c r="C39" s="23" t="s">
@@ -2133,8 +2220,14 @@
       <c r="F39" s="17">
         <v>21.510927819996098</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G39" s="38">
+        <v>0.334881112999937</v>
+      </c>
+      <c r="H39" s="38">
+        <v>0.38824399999998599</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="21"/>
       <c r="B40" s="33"/>
       <c r="C40" s="30" t="s">
@@ -2149,8 +2242,14 @@
       <c r="F40" s="18">
         <v>7.7748009330243804</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G40" s="37">
+        <v>4.1336264210001401</v>
+      </c>
+      <c r="H40" s="37">
+        <v>10.6227323959999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="21"/>
       <c r="B41" s="31" t="s">
         <v>20</v>
@@ -2167,8 +2266,14 @@
       <c r="F41" s="17">
         <v>61.7896196870133</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G41" s="38">
+        <v>37.088173383000097</v>
+      </c>
+      <c r="H41" s="38">
+        <v>22.972990943999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="21"/>
       <c r="B42" s="21"/>
       <c r="C42" s="23" t="s">
@@ -2183,8 +2288,14 @@
       <c r="F42" s="17">
         <v>40.060987550008498</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G42" s="38">
+        <v>40.0024498350001</v>
+      </c>
+      <c r="H42" s="38">
+        <v>22.139800107000099</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="21"/>
       <c r="B43" s="33"/>
       <c r="C43" s="30" t="s">
@@ -2199,8 +2310,14 @@
       <c r="F43" s="18">
         <v>53.267810357035998</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G43" s="37">
+        <v>49.044152588000003</v>
+      </c>
+      <c r="H43" s="37">
+        <v>33.081466564999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="21"/>
       <c r="B44" s="31" t="s">
         <v>21</v>
@@ -2217,8 +2334,14 @@
       <c r="F44" s="17">
         <v>3.1344263299833899</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G44" s="38">
+        <v>2.3789881560001001</v>
+      </c>
+      <c r="H44" s="38">
+        <v>2.36179190200005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="21"/>
       <c r="B45" s="21"/>
       <c r="C45" s="23" t="s">
@@ -2233,8 +2356,14 @@
       <c r="F45" s="17">
         <v>0.15347997099161101</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G45" s="38">
+        <v>1.11080839999431E-2</v>
+      </c>
+      <c r="H45" s="38">
+        <v>5.4511599998932E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="21"/>
       <c r="B46" s="33"/>
       <c r="C46" s="30" t="s">
@@ -2249,8 +2378,14 @@
       <c r="F46" s="18">
         <v>13.794507298967799</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G46" s="37">
+        <v>3.2355862370000001</v>
+      </c>
+      <c r="H46" s="37">
+        <v>3.6373237749999099</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="21"/>
       <c r="B47" s="21" t="s">
         <v>16</v>
@@ -2267,8 +2402,14 @@
       <c r="F47" s="17">
         <v>206.98031143296899</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G47" s="38">
+        <v>137.993835856</v>
+      </c>
+      <c r="H47">
+        <v>107.56924044599999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="21"/>
       <c r="B48" s="21"/>
       <c r="C48" s="23" t="s">
@@ -2282,6 +2423,12 @@
       </c>
       <c r="F48" s="17">
         <v>286</v>
+      </c>
+      <c r="G48" s="38">
+        <v>157</v>
+      </c>
+      <c r="H48">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2474,7 +2621,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28:XFD28 A39:XFD39">
+  <conditionalFormatting sqref="A39:XFD39 A28:XFD28">
     <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="min"/>
@@ -2488,7 +2635,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29:XFD29 A40:XFD40">
+  <conditionalFormatting sqref="A40:XFD40 A29:XFD29">
     <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="min"/>
@@ -2502,7 +2649,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30:XFD30 A41:XFD41">
+  <conditionalFormatting sqref="A41:XFD41 A30:XFD30">
     <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="min"/>
@@ -2516,7 +2663,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31:XFD31 A42:XFD42">
+  <conditionalFormatting sqref="A42:XFD42 A31:XFD31">
     <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="min"/>
@@ -2530,7 +2677,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32:XFD32 A43:XFD43">
+  <conditionalFormatting sqref="A43:XFD43 A32:XFD32">
     <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="min"/>
@@ -2544,7 +2691,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33:XFD33 A44:XFD44">
+  <conditionalFormatting sqref="A44:XFD44 A33:XFD33">
     <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="min"/>
@@ -2558,7 +2705,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34:XFD34 A45:XFD45">
+  <conditionalFormatting sqref="A45:XFD45 A34:XFD34">
     <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="min"/>
@@ -3055,7 +3202,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A28:XFD28 A39:XFD39</xm:sqref>
+          <xm:sqref>A39:XFD39 A28:XFD28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{ED7249C0-7851-4FAB-A8B3-ECD1D8B07ED7}">
@@ -3068,7 +3215,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A29:XFD29 A40:XFD40</xm:sqref>
+          <xm:sqref>A40:XFD40 A29:XFD29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{17182307-9233-4527-A092-39A2AC7598BF}">
@@ -3081,7 +3228,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A30:XFD30 A41:XFD41</xm:sqref>
+          <xm:sqref>A41:XFD41 A30:XFD30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7C48002B-3911-4813-A50C-7ECF9C19EF64}">
@@ -3094,7 +3241,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A31:XFD31 A42:XFD42</xm:sqref>
+          <xm:sqref>A42:XFD42 A31:XFD31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7FCA8C0A-0AB4-40CA-BFDA-384E8E98208C}">
@@ -3107,7 +3254,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A32:XFD32 A43:XFD43</xm:sqref>
+          <xm:sqref>A43:XFD43 A32:XFD32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BE90834B-BCE9-4D8B-94C3-8DF5CA7B319C}">
@@ -3120,7 +3267,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A33:XFD33 A44:XFD44</xm:sqref>
+          <xm:sqref>A44:XFD44 A33:XFD33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{34C9D91D-6812-4B52-B085-D4926ED94F46}">
@@ -3133,7 +3280,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A34:XFD34 A45:XFD45</xm:sqref>
+          <xm:sqref>A45:XFD45 A34:XFD34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C4B37561-E21A-469F-9264-28F346513E2D}">

--- a/materials/ct81seg_runtime_stats.xlsx
+++ b/materials/ct81seg_runtime_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\projects\CT81SegApp\materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191EAD83-B51E-46EC-B676-765A978456A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F512A375-9493-48A1-BA94-A62CD20EDED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CC17635D-67C6-4E2B-BF5C-757E9F68CB22}"/>
+    <workbookView xWindow="-29890" yWindow="2000" windowWidth="26410" windowHeight="18090" xr2:uid="{CC17635D-67C6-4E2B-BF5C-757E9F68CB22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="77">
   <si>
     <t>OS</t>
     <phoneticPr fontId="2"/>
@@ -712,6 +712,15 @@
   </si>
   <si>
     <t>Machine 5 (toyger)</t>
+  </si>
+  <si>
+    <t>Sever</t>
+  </si>
+  <si>
+    <t>SATA SSD</t>
+  </si>
+  <si>
+    <t>Machine 6 (pampascat)</t>
   </si>
 </sst>
 </file>
@@ -892,7 +901,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -935,9 +944,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -959,47 +965,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1009,6 +982,36 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1347,131 +1350,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C0C41F-649F-411D-8D32-F880ADA04FFA}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I36" sqref="I36"/>
+      <selection pane="bottomRight" activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="8.375" style="23" customWidth="1"/>
-    <col min="3" max="3" width="24.25" style="23" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="18.75" customWidth="1"/>
-    <col min="7" max="9" width="21" customWidth="1"/>
+    <col min="1" max="1" width="13.08984375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="8.36328125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="22.26953125" style="21" customWidth="1"/>
+    <col min="4" max="27" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="21"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22" t="s">
+    <row r="1" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="20" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="I1" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="20" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="22" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="20" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="I2" s="20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="27" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>24</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="23" t="s">
+      <c r="I4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="15" t="s">
         <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="23" t="s">
+      <c r="I5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>35</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -1480,44 +1498,56 @@
       <c r="F6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="15" t="s">
         <v>35</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="30" t="s">
+      <c r="I6" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="19" t="s">
         <v>26</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="31" t="s">
+      <c r="I7" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="32" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1532,11 +1562,14 @@
       <c r="H8" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="23" t="s">
+      <c r="J8" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="21" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="7">
@@ -1554,11 +1587,15 @@
       <c r="H9" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="23" t="s">
+      <c r="I9" s="7"/>
+      <c r="J9" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="21" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="8">
@@ -1579,11 +1616,15 @@
       <c r="H10" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="23" t="s">
+      <c r="I10" s="8"/>
+      <c r="J10" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="21" t="s">
         <v>43</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1601,11 +1642,14 @@
       <c r="H11" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="23" t="s">
+      <c r="J11" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="21" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="1">
@@ -1623,11 +1667,14 @@
       <c r="H12" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="23" t="s">
+      <c r="J12" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D13" s="1">
@@ -1645,11 +1692,14 @@
       <c r="H13" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="30" t="s">
+      <c r="J13" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="23" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="12">
@@ -1667,16 +1717,19 @@
       <c r="H14" s="12" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="31" t="s">
+      <c r="J14" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="32" t="s">
+      <c r="B15" s="33"/>
+      <c r="C15" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -1691,11 +1744,14 @@
       <c r="H15" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="23" t="s">
+      <c r="J15" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="21" t="s">
         <v>47</v>
       </c>
       <c r="D16" s="7">
@@ -1713,11 +1769,15 @@
       <c r="H16" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="23" t="s">
+      <c r="I16" s="7"/>
+      <c r="J16" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D17" s="8">
@@ -1738,11 +1798,15 @@
       <c r="H17" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="23" t="s">
+      <c r="I17" s="8"/>
+      <c r="J17" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -1760,11 +1824,14 @@
       <c r="H18" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="23" t="s">
+      <c r="J18" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="21" t="s">
         <v>50</v>
       </c>
       <c r="D19" s="1">
@@ -1782,11 +1849,14 @@
       <c r="H19" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="23" t="s">
+      <c r="J19" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="21" t="s">
         <v>51</v>
       </c>
       <c r="D20" s="1">
@@ -1804,11 +1874,14 @@
       <c r="H20" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="30" t="s">
+      <c r="J20" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="23" t="s">
         <v>52</v>
       </c>
       <c r="D21" s="12">
@@ -1826,41 +1899,50 @@
       <c r="H21" s="12" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="28" t="s">
+      <c r="J21" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="23" t="s">
+      <c r="B22" s="30"/>
+      <c r="C22" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="15" t="s">
         <v>34</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="15" t="s">
         <v>34</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="23" t="s">
+      <c r="I22" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="21" t="s">
         <v>53</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
       </c>
-      <c r="E23" s="36">
+      <c r="E23" s="24">
         <v>2</v>
       </c>
       <c r="F23" s="2">
@@ -1869,14 +1951,20 @@
       <c r="G23" s="1">
         <v>1</v>
       </c>
-      <c r="H23" s="36">
+      <c r="H23" s="24">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="23" t="s">
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="21" t="s">
         <v>54</v>
       </c>
       <c r="D24" s="1">
@@ -1894,11 +1982,17 @@
       <c r="H24" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="23" t="s">
+      <c r="I24" s="1">
+        <v>8</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="21" t="s">
         <v>55</v>
       </c>
       <c r="D25" s="1">
@@ -1916,523 +2010,595 @@
       <c r="H25" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="25" t="s">
+      <c r="I25" s="1">
+        <v>2</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="26" t="s">
+    <row r="27" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="16">
         <v>0.28715244401246298</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="16">
         <v>0.32168344408273603</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="16">
         <v>2.0486975759849799</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="16">
         <v>0.23301382999989001</v>
       </c>
-      <c r="H27" s="38">
-        <v>0.28126544699989597</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="23" t="s">
+      <c r="H27" s="26"/>
+      <c r="I27" s="16">
+        <v>0.31610422115772902</v>
+      </c>
+      <c r="J27" s="16">
+        <v>0.41444922098889903</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="16">
         <v>0.38627594592981002</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="16">
         <v>0.429837140953168</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="16">
         <v>25.178262497007299</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="16">
         <v>0.518444739999949</v>
       </c>
-      <c r="H28" s="38">
-        <v>0.38957777400014398</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="21"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="30" t="s">
+      <c r="H28" s="26"/>
+      <c r="I28" s="16">
+        <v>0.57055419590324097</v>
+      </c>
+      <c r="J28" s="16">
+        <v>0.60328622302040402</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="27"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="17">
         <v>1.7493289359845201</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="17">
         <v>1.81356537993997</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="17">
         <v>2.1901975200162198</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="17">
         <v>1.1407079950001799</v>
       </c>
-      <c r="H29" s="37">
-        <v>2.9315335070000401</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="21"/>
-      <c r="B30" s="31" t="s">
+      <c r="H29" s="25"/>
+      <c r="I29" s="17">
+        <v>1.0127084976993499</v>
+      </c>
+      <c r="J29" s="17">
+        <v>1.15350922569632</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="27"/>
+      <c r="B30" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="16">
         <v>21.473149617901001</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="16">
         <v>12.4680417219642</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F30" s="16">
         <v>19.721532533003401</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="16">
         <v>10.034744810999801</v>
       </c>
-      <c r="H30" s="38">
-        <v>6.0135008770000598</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="23" t="s">
+      <c r="H30" s="26"/>
+      <c r="I30" s="16">
+        <v>5.2080871178768504</v>
+      </c>
+      <c r="J30" s="16">
+        <v>2.85766694881021</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="16">
         <v>9.1307565479073602</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="16">
         <v>5.0531151550821898</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="16">
         <v>10.7624927630531</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="16">
         <v>9.8556633959999491</v>
       </c>
-      <c r="H31" s="38">
-        <v>5.4243278760000004</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="21"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="30" t="s">
+      <c r="H31" s="26"/>
+      <c r="I31" s="16">
+        <v>8.6579211601056105</v>
+      </c>
+      <c r="J31" s="16">
+        <v>1.40789865097031</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="27"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="17">
         <v>44.075891631888197</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="17">
         <v>33.519158737035397</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="17">
         <v>23.506159127980901</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="17">
         <v>22.931974768999901</v>
       </c>
-      <c r="H32" s="37">
-        <v>16.787593501999901</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="21"/>
-      <c r="B33" s="31" t="s">
+      <c r="H32" s="25"/>
+      <c r="I32" s="17">
+        <v>20.784936324227601</v>
+      </c>
+      <c r="J32" s="17">
+        <v>12.7054263222962</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="27"/>
+      <c r="B33" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D33" s="16">
         <v>0.72870961297303405</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="16">
         <v>0.771500790026038</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F33" s="16">
         <v>0.78369250602554497</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G33" s="16">
         <v>0.58345454599998403</v>
       </c>
-      <c r="H33" s="38">
-        <v>0.59869754700002797</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="23" t="s">
+      <c r="H33" s="26"/>
+      <c r="I33" s="16">
+        <v>0.59730354510247696</v>
+      </c>
+      <c r="J33" s="16">
+        <v>0.61815207917243198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="16">
         <v>1.28428710158914E-2</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="16">
         <v>3.9459390100091696E-3</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="16">
         <v>5.6897229980677297E-2</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="16">
         <v>9.2414979999375594E-3</v>
       </c>
-      <c r="H34" s="38">
-        <v>3.55592999994769E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="21"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="30" t="s">
+      <c r="H34" s="26"/>
+      <c r="I34" s="16">
+        <v>1.15347979590296E-2</v>
+      </c>
+      <c r="J34" s="16">
+        <v>1.1178801767528E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="27"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="17">
         <v>4.5695638048928204</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="17">
         <v>4.7829728780779899</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="17">
         <v>7.9536300579784402</v>
       </c>
-      <c r="G35" s="37">
+      <c r="G35" s="25">
         <v>3.1686970600001101</v>
       </c>
-      <c r="H35" s="37">
-        <v>3.4625165180000201</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21" t="s">
+      <c r="H35" s="25"/>
+      <c r="I35" s="25">
+        <v>4.6407184293493602</v>
+      </c>
+      <c r="J35" s="25">
+        <v>5.25130391772836</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="27"/>
+      <c r="B36" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D36" s="16">
         <v>82.896310266107307</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="16">
         <v>65.328087496804002</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F36" s="16">
         <v>93.196820167009705</v>
       </c>
-      <c r="G36" s="38">
+      <c r="G36" s="26">
         <v>48.861804079999899</v>
       </c>
-      <c r="H36" s="38">
-        <v>38.9200909179999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="33"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="30" t="s">
+      <c r="H36" s="26"/>
+      <c r="I36" s="26">
+        <v>42.3111072923056</v>
+      </c>
+      <c r="J36" s="26">
+        <v>30.5611869953572</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="32"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="17">
         <v>101</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="17">
         <v>89</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="17">
         <v>156</v>
       </c>
-      <c r="G37" s="37">
+      <c r="G37" s="25">
         <v>69</v>
       </c>
-      <c r="H37" s="37">
+      <c r="H37" s="25"/>
+      <c r="I37" s="25">
+        <v>66</v>
+      </c>
+      <c r="J37" s="25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="16">
+        <v>0.27939464314840701</v>
+      </c>
+      <c r="E38" s="16">
+        <v>0.30758150294423098</v>
+      </c>
+      <c r="F38" s="16">
+        <v>2.4821481420076399</v>
+      </c>
+      <c r="G38" s="26">
+        <v>0.24432433499987299</v>
+      </c>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26">
+        <v>0.33686538273468603</v>
+      </c>
+      <c r="J38" s="26"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="21" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="17">
-        <v>0.27939464314840701</v>
-      </c>
-      <c r="E38" s="17">
-        <v>0.30758150294423098</v>
-      </c>
-      <c r="F38" s="17">
-        <v>2.4821481420076399</v>
-      </c>
-      <c r="G38" s="38">
-        <v>0.24432433499987299</v>
-      </c>
-      <c r="H38" s="38">
-        <v>0.26874214000008501</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D39" s="17">
+      <c r="D39" s="16">
         <v>0.40067043597809898</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E39" s="16">
         <v>0.40792634687386398</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F39" s="16">
         <v>21.510927819996098</v>
       </c>
-      <c r="G39" s="38">
+      <c r="G39" s="26">
         <v>0.334881112999937</v>
       </c>
-      <c r="H39" s="38">
-        <v>0.38824399999998599</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="21"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="30" t="s">
+      <c r="H39" s="26"/>
+      <c r="I39" s="26">
+        <v>0.42489168141037198</v>
+      </c>
+      <c r="J39" s="26"/>
+    </row>
+    <row r="40" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="27"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="18">
+      <c r="D40" s="17">
         <v>6.1337697948329097</v>
       </c>
-      <c r="E40" s="18">
+      <c r="E40" s="17">
         <v>5.8587893838994196</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="17">
         <v>7.7748009330243804</v>
       </c>
-      <c r="G40" s="37">
+      <c r="G40" s="25">
         <v>4.1336264210001401</v>
       </c>
-      <c r="H40" s="37">
-        <v>10.6227323959999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="21"/>
-      <c r="B41" s="31" t="s">
+      <c r="H40" s="25"/>
+      <c r="I40" s="25">
+        <v>3.5394482137635301</v>
+      </c>
+      <c r="J40" s="25"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="27"/>
+      <c r="B41" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="32" t="s">
+      <c r="C41" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D41" s="16">
         <v>76.358046629000398</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E41" s="16">
         <v>45.899578189942901</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F41" s="16">
         <v>61.7896196870133</v>
       </c>
-      <c r="G41" s="38">
+      <c r="G41" s="26">
         <v>37.088173383000097</v>
       </c>
-      <c r="H41" s="38">
-        <v>22.972990943999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="23" t="s">
+      <c r="H41" s="26"/>
+      <c r="I41" s="26">
+        <v>16.821868348401001</v>
+      </c>
+      <c r="J41" s="26"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="27"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D42" s="16">
         <v>37.570265477057497</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F42" s="16">
         <v>40.060987550008498</v>
       </c>
-      <c r="G42" s="38">
+      <c r="G42" s="26">
         <v>40.0024498350001</v>
       </c>
-      <c r="H42" s="38">
-        <v>22.139800107000099</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="21"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="30" t="s">
+      <c r="H42" s="26"/>
+      <c r="I42" s="26">
+        <v>35.343566601164603</v>
+      </c>
+      <c r="J42" s="26"/>
+    </row>
+    <row r="43" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="27"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="18">
+      <c r="D43" s="17">
         <v>92.053681011078794</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="17">
         <v>53.267810357035998</v>
       </c>
-      <c r="G43" s="37">
+      <c r="G43" s="25">
         <v>49.044152588000003</v>
       </c>
-      <c r="H43" s="37">
-        <v>33.081466564999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="21"/>
-      <c r="B44" s="31" t="s">
+      <c r="H43" s="25"/>
+      <c r="I43" s="25">
+        <v>45.686132457572903</v>
+      </c>
+      <c r="J43" s="25"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="27"/>
+      <c r="B44" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="32" t="s">
+      <c r="C44" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D44" s="16">
         <v>2.9507247160654502</v>
       </c>
-      <c r="E44" s="17" t="s">
+      <c r="E44" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F44" s="16">
         <v>3.1344263299833899</v>
       </c>
-      <c r="G44" s="38">
+      <c r="G44" s="26">
         <v>2.3789881560001001</v>
       </c>
-      <c r="H44" s="38">
-        <v>2.36179190200005</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="23" t="s">
+      <c r="H44" s="26"/>
+      <c r="I44" s="26">
+        <v>2.46377060189843</v>
+      </c>
+      <c r="J44" s="26"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="27"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D45" s="16">
         <v>4.6331230551004401E-3</v>
       </c>
-      <c r="E45" s="17" t="s">
+      <c r="E45" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F45" s="16">
         <v>0.15347997099161101</v>
       </c>
-      <c r="G45" s="38">
+      <c r="G45" s="26">
         <v>1.11080839999431E-2</v>
       </c>
-      <c r="H45" s="38">
-        <v>5.4511599998932E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="21"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="30" t="s">
+      <c r="H45" s="26"/>
+      <c r="I45" s="26">
+        <v>1.13851749338209E-2</v>
+      </c>
+      <c r="J45" s="26"/>
+    </row>
+    <row r="46" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="27"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D46" s="18">
+      <c r="D46" s="17">
         <v>4.6424048559274498</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="17">
         <v>13.794507298967799</v>
       </c>
-      <c r="G46" s="37">
+      <c r="G46" s="25">
         <v>3.2355862370000001</v>
       </c>
-      <c r="H46" s="37">
-        <v>3.6373237749999099</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="21"/>
-      <c r="B47" s="21" t="s">
+      <c r="H46" s="25"/>
+      <c r="I46" s="25">
+        <v>4.7378300689160797</v>
+      </c>
+      <c r="J46" s="25"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="27"/>
+      <c r="B47" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="C47" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="17">
+      <c r="D47" s="16">
         <v>222.24066521413599</v>
       </c>
-      <c r="E47" s="17" t="s">
+      <c r="E47" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F47" s="16">
         <v>206.98031143296899</v>
       </c>
-      <c r="G47" s="38">
+      <c r="G47" s="26">
         <v>137.993835856</v>
       </c>
-      <c r="H47">
-        <v>107.56924044599999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="21"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="23" t="s">
+      <c r="I47" s="26">
+        <v>111.076795918866</v>
+      </c>
+      <c r="J47" s="26"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="27"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D48" s="17">
+      <c r="D48" s="16">
         <v>242</v>
       </c>
-      <c r="E48" s="17" t="s">
+      <c r="E48" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F48" s="16">
         <v>286</v>
       </c>
-      <c r="G48" s="38">
+      <c r="G48" s="26">
         <v>157</v>
       </c>
-      <c r="H48">
-        <v>131</v>
-      </c>
+      <c r="I48" s="26">
+        <v>136</v>
+      </c>
+      <c r="J48" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A22:B25"/>
+    <mergeCell ref="A27:A37"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
@@ -2449,12 +2615,528 @@
     <mergeCell ref="A4:B7"/>
     <mergeCell ref="A8:B14"/>
     <mergeCell ref="A15:B21"/>
-    <mergeCell ref="A22:B25"/>
-    <mergeCell ref="A27:A37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="A9:D9 A16:D16 F9:G9 F16:G16 I9 I16 K16:XFD16 K9:XFD9">
+    <cfRule type="dataBar" priority="20">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8F84E390-EA54-4044-A0D1-BD858D211D1C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:D9 F9:G9 I9 K9:XFD9">
+    <cfRule type="dataBar" priority="24">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{55209318-E838-45D7-997A-AE33FDFF309F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:D10 A17:D17 F10:G10 F17:G17 I10 I17 K17:XFD17 K10:XFD10">
+    <cfRule type="dataBar" priority="19">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2648E629-B128-40E0-9430-3910149B879A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:D10 F10:G10 I10 K10:XFD10">
+    <cfRule type="dataBar" priority="23">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FF35AB45-1B56-4C79-838D-8C6C45297D4C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:D12 F12:G12 I12 K12:XFD12">
+    <cfRule type="dataBar" priority="22">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5709ABDC-9BD0-48E9-A6AB-106C154A8CEB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:D14 F13:G14 I13:I14 K13:XFD14">
+    <cfRule type="dataBar" priority="21">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9786495F-8BC4-419E-9CB8-5224A93AE4AE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:D19 F19:G19 I19 K19:XFD19">
+    <cfRule type="dataBar" priority="18">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9EC12AEF-9FE7-4A07-8127-10331FB9F457}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:D20 F20:G20 I20 K20:XFD20">
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F8E4DB01-292B-4098-852F-53E74F090B09}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:D21 F21:G21 I21 K21:XFD21">
+    <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{610D2D63-4D68-49B7-8423-BF90A16E1825}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24:D24 F24:G24 I24 K24:XFD24">
+    <cfRule type="dataBar" priority="14">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4D97FA75-76F6-4FF5-894D-D8F085836ADA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:D25 F25:G25 I25 K25:XFD25">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D52F8789-0951-42AE-89B8-918393A72370}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:XFD9 A16:XFD16">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{14196676-A144-43A1-A7A4-3EF4D4E423B3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:XFD10 A17:XFD17">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3F5EDDE1-556F-4C3A-B908-6C709C91A635}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:XFD23">
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{185488EA-EF2F-484D-9735-35F3064F04C6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:XFD27 A38:XFD38">
+    <cfRule type="dataBar" priority="37">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0BDA52D8-3E7E-4C70-91EE-300C4C30AA93}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:XFD35 A46:XFD46">
+    <cfRule type="dataBar" priority="29">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C4B37561-E21A-469F-9264-28F346513E2D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36:XFD36 A47:XFD47">
+    <cfRule type="dataBar" priority="28">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A795A94A-D359-4C20-8F8C-4E6E44939444}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36:XFD37 A47:XFD48">
+    <cfRule type="dataBar" priority="25">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BEB72EB6-2FCA-4E6B-A21F-E30D0356FAF7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:XFD37 A48:XFD48">
+    <cfRule type="dataBar" priority="27">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ED0BF0BD-0D7F-4B28-A5CF-75980B2566B9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39:XFD39 A28:XFD28">
+    <cfRule type="dataBar" priority="36">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9E678109-7150-49BE-B221-A3CFAA416250}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40:XFD40 A29:XFD29">
+    <cfRule type="dataBar" priority="35">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ED7249C0-7851-4FAB-A8B3-ECD1D8B07ED7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:XFD41 A30:XFD30">
+    <cfRule type="dataBar" priority="34">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{17182307-9233-4527-A092-39A2AC7598BF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42:XFD42 A31:XFD31">
+    <cfRule type="dataBar" priority="33">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7C48002B-3911-4813-A50C-7ECF9C19EF64}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:XFD43 A32:XFD32">
+    <cfRule type="dataBar" priority="32">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7FCA8C0A-0AB4-40CA-BFDA-384E8E98208C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44:XFD44 A33:XFD33">
+    <cfRule type="dataBar" priority="31">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BE90834B-BCE9-4D8B-94C3-8DF5CA7B319C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45:XFD45 A34:XFD34">
+    <cfRule type="dataBar" priority="30">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{34C9D91D-6812-4B52-B085-D4926ED94F46}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BE08D743-5C31-4682-92FD-D0ED74A6E081}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{99553375-C4C7-4A45-B837-00F75118B134}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7096564D-29E1-4746-9C3E-E960D69055F1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1A1BFC80-804B-4A95-BF78-1A64F9AB28A3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="dataBar" priority="78">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{AA69FEEE-5CC1-B446-88AE-AA0DCEE32669}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13:F14">
+    <cfRule type="dataBar" priority="79">
+      <dataBar>
+        <cfvo type="num" val="2"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0E5A907C-C8BB-3D4F-A865-FB20618C07B8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="dataBar" priority="82">
+      <dataBar>
+        <cfvo type="num" val="7"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E2DEF3AB-15D6-E248-822C-F35EA5D25BC2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="dataBar" priority="83">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{59D6ED6D-82BE-F743-9091-3995C19F06F3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="dataBar" priority="84">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EB06A7EE-42B8-C447-B49D-30DC6AADD363}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="dataBar" priority="85">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3C38937B-10AE-D641-91A1-2022AB2271C8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="dataBar" priority="86">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{28EB4E0F-7C16-0E43-B1EE-C17DE9320A66}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F9:G9">
-    <cfRule type="dataBar" priority="70">
+    <cfRule type="dataBar" priority="76">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2468,7 +3150,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:G10">
-    <cfRule type="dataBar" priority="71">
+    <cfRule type="dataBar" priority="77">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2481,8 +3163,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="dataBar" priority="72">
+  <conditionalFormatting sqref="F16:G16">
+    <cfRule type="dataBar" priority="80">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2490,27 +3172,55 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AA69FEEE-5CC1-B446-88AE-AA0DCEE32669}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13:F14">
-    <cfRule type="dataBar" priority="73">
-      <dataBar>
-        <cfvo type="num" val="2"/>
+          <x14:id>{7FA6673F-F21D-7945-B26F-B398F1E4F700}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:G17">
+    <cfRule type="dataBar" priority="81">
+      <dataBar>
+        <cfvo type="min"/>
         <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0E5A907C-C8BB-3D4F-A865-FB20618C07B8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16:G16">
-    <cfRule type="dataBar" priority="74">
+          <x14:id>{FDE0D191-AB43-2A4B-AAED-204602D73121}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:XFD30 A41:XFD41">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{58549C8B-D210-40C4-8ADE-22C497017E3B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36:XFD37 A47:XFD48">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FD3B9AE4-86A2-4DD2-9FB2-590D37A1F1F3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2518,13 +3228,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7FA6673F-F21D-7945-B26F-B398F1E4F700}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17:G17">
-    <cfRule type="dataBar" priority="75">
+          <x14:id>{25D22E7E-FE50-430C-BE55-2002B6040486}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2532,27 +3242,27 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FDE0D191-AB43-2A4B-AAED-204602D73121}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="dataBar" priority="76">
-      <dataBar>
-        <cfvo type="num" val="7"/>
+          <x14:id>{5536B3A9-DDE9-4327-987B-6ED6BC685C8A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E2DEF3AB-15D6-E248-822C-F35EA5D25BC2}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="dataBar" priority="77">
+          <x14:id>{FD3552A3-57BE-4D60-BC80-B4724F46B4D8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2560,469 +3270,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{59D6ED6D-82BE-F743-9091-3995C19F06F3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="dataBar" priority="78">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{EB06A7EE-42B8-C447-B49D-30DC6AADD363}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="dataBar" priority="79">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3C38937B-10AE-D641-91A1-2022AB2271C8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
-    <cfRule type="dataBar" priority="80">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{28EB4E0F-7C16-0E43-B1EE-C17DE9320A66}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:XFD27 A38:XFD38">
-    <cfRule type="dataBar" priority="31">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0BDA52D8-3E7E-4C70-91EE-300C4C30AA93}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A39:XFD39 A28:XFD28">
-    <cfRule type="dataBar" priority="30">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9E678109-7150-49BE-B221-A3CFAA416250}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40:XFD40 A29:XFD29">
-    <cfRule type="dataBar" priority="29">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ED7249C0-7851-4FAB-A8B3-ECD1D8B07ED7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41:XFD41 A30:XFD30">
-    <cfRule type="dataBar" priority="28">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{17182307-9233-4527-A092-39A2AC7598BF}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42:XFD42 A31:XFD31">
-    <cfRule type="dataBar" priority="27">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7C48002B-3911-4813-A50C-7ECF9C19EF64}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A43:XFD43 A32:XFD32">
-    <cfRule type="dataBar" priority="26">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7FCA8C0A-0AB4-40CA-BFDA-384E8E98208C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:XFD44 A33:XFD33">
-    <cfRule type="dataBar" priority="25">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BE90834B-BCE9-4D8B-94C3-8DF5CA7B319C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:XFD45 A34:XFD34">
-    <cfRule type="dataBar" priority="24">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{34C9D91D-6812-4B52-B085-D4926ED94F46}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35:XFD35 A46:XFD46">
-    <cfRule type="dataBar" priority="23">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C4B37561-E21A-469F-9264-28F346513E2D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36:XFD36 A47:XFD47">
-    <cfRule type="dataBar" priority="22">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A795A94A-D359-4C20-8F8C-4E6E44939444}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:XFD37 A48:XFD48">
-    <cfRule type="dataBar" priority="21">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFD6007B"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ED0BF0BD-0D7F-4B28-A5CF-75980B2566B9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23:XFD23">
-    <cfRule type="dataBar" priority="9">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{185488EA-EF2F-484D-9735-35F3064F04C6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36:XFD37 A47:XFD48">
-    <cfRule type="dataBar" priority="19">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BEB72EB6-2FCA-4E6B-A21F-E30D0356FAF7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:D9 F9:G9 I9:XFD9">
-    <cfRule type="dataBar" priority="18">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{55209318-E838-45D7-997A-AE33FDFF309F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10:D10 F10:G10 I10:XFD10">
-    <cfRule type="dataBar" priority="17">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FF35AB45-1B56-4C79-838D-8C6C45297D4C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12:D12 F12:G12 I12:XFD12">
-    <cfRule type="dataBar" priority="16">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5709ABDC-9BD0-48E9-A6AB-106C154A8CEB}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:D14 F13:G14 I13:XFD14">
-    <cfRule type="dataBar" priority="15">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9786495F-8BC4-419E-9CB8-5224A93AE4AE}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:D9 A16:D16 F9:G9 F16:G16 I16:XFD16 I9:XFD9">
-    <cfRule type="dataBar" priority="14">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8F84E390-EA54-4044-A0D1-BD858D211D1C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10:D10 A17:D17 F10:G10 F17:G17 I17:XFD17 I10:XFD10">
-    <cfRule type="dataBar" priority="13">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2648E629-B128-40E0-9430-3910149B879A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:D19 F19:G19 I19:XFD19">
-    <cfRule type="dataBar" priority="12">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9EC12AEF-9FE7-4A07-8127-10331FB9F457}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20:D20 F20:G20 I20:XFD20">
-    <cfRule type="dataBar" priority="11">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F8E4DB01-292B-4098-852F-53E74F090B09}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21:D21 F21:G21 I21:XFD21">
-    <cfRule type="dataBar" priority="10">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{610D2D63-4D68-49B7-8423-BF90A16E1825}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24:D24 F24:G24 I24:XFD24">
-    <cfRule type="dataBar" priority="8">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4D97FA75-76F6-4FF5-894D-D8F085836ADA}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:D25 F25:G25 I25:XFD25">
-    <cfRule type="dataBar" priority="7">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D52F8789-0951-42AE-89B8-918393A72370}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="dataBar" priority="6">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BE08D743-5C31-4682-92FD-D0ED74A6E081}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="dataBar" priority="5">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{99553375-C4C7-4A45-B837-00F75118B134}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7096564D-29E1-4746-9C3E-E960D69055F1}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1A1BFC80-804B-4A95-BF78-1A64F9AB28A3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:XFD9 A16:XFD16">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{14196676-A144-43A1-A7A4-3EF4D4E423B3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10:XFD10 A17:XFD17">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3F5EDDE1-556F-4C3A-B908-6C709C91A635}</x14:id>
+          <x14:id>{3F9D851B-CEA4-4226-A258-9FDCC56494E2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3032,7 +3280,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8C3D98AE-45B3-E349-AD08-7A2D2F0788DE}">
+          <x14:cfRule type="dataBar" id="{8F84E390-EA54-4044-A0D1-BD858D211D1C}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3042,10 +3290,23 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F9:G9</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A486E733-45FB-5745-BC12-5681A8C96E8B}">
+          <xm:sqref>A9:D9 A16:D16 F9:G9 F16:G16 I9 I16 K16:XFD16 K9:XFD9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{55209318-E838-45D7-997A-AE33FDFF309F}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A9:D9 F9:G9 I9 K9:XFD9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2648E629-B128-40E0-9430-3910149B879A}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3055,7 +3316,358 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F10:G10</xm:sqref>
+          <xm:sqref>A10:D10 A17:D17 F10:G10 F17:G17 I10 I17 K17:XFD17 K10:XFD10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FF35AB45-1B56-4C79-838D-8C6C45297D4C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A10:D10 F10:G10 I10 K10:XFD10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5709ABDC-9BD0-48E9-A6AB-106C154A8CEB}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A12:D12 F12:G12 I12 K12:XFD12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9786495F-8BC4-419E-9CB8-5224A93AE4AE}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A13:D14 F13:G14 I13:I14 K13:XFD14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9EC12AEF-9FE7-4A07-8127-10331FB9F457}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A19:D19 F19:G19 I19 K19:XFD19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F8E4DB01-292B-4098-852F-53E74F090B09}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A20:D20 F20:G20 I20 K20:XFD20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{610D2D63-4D68-49B7-8423-BF90A16E1825}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A21:D21 F21:G21 I21 K21:XFD21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4D97FA75-76F6-4FF5-894D-D8F085836ADA}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A24:D24 F24:G24 I24 K24:XFD24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D52F8789-0951-42AE-89B8-918393A72370}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A25:D25 F25:G25 I25 K25:XFD25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{14196676-A144-43A1-A7A4-3EF4D4E423B3}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A9:XFD9 A16:XFD16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3F5EDDE1-556F-4C3A-B908-6C709C91A635}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A10:XFD10 A17:XFD17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{185488EA-EF2F-484D-9735-35F3064F04C6}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A23:XFD23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0BDA52D8-3E7E-4C70-91EE-300C4C30AA93}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A27:XFD27 A38:XFD38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C4B37561-E21A-469F-9264-28F346513E2D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A35:XFD35 A46:XFD46</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A795A94A-D359-4C20-8F8C-4E6E44939444}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A36:XFD36 A47:XFD47</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BEB72EB6-2FCA-4E6B-A21F-E30D0356FAF7}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A36:XFD37 A47:XFD48</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{ED0BF0BD-0D7F-4B28-A5CF-75980B2566B9}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFD6007B"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A37:XFD37 A48:XFD48</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9E678109-7150-49BE-B221-A3CFAA416250}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A39:XFD39 A28:XFD28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{ED7249C0-7851-4FAB-A8B3-ECD1D8B07ED7}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A40:XFD40 A29:XFD29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{17182307-9233-4527-A092-39A2AC7598BF}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A41:XFD41 A30:XFD30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7C48002B-3911-4813-A50C-7ECF9C19EF64}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A42:XFD42 A31:XFD31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7FCA8C0A-0AB4-40CA-BFDA-384E8E98208C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A43:XFD43 A32:XFD32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BE90834B-BCE9-4D8B-94C3-8DF5CA7B319C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A44:XFD44 A33:XFD33</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{34C9D91D-6812-4B52-B085-D4926ED94F46}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A45:XFD45 A34:XFD34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BE08D743-5C31-4682-92FD-D0ED74A6E081}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{99553375-C4C7-4A45-B837-00F75118B134}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7096564D-29E1-4746-9C3E-E960D69055F1}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1A1BFC80-804B-4A95-BF78-1A64F9AB28A3}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AA69FEEE-5CC1-B446-88AE-AA0DCEE32669}">
@@ -3086,32 +3698,6 @@
           <xm:sqref>F13:F14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7FA6673F-F21D-7945-B26F-B398F1E4F700}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F16:G16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FDE0D191-AB43-2A4B-AAED-204602D73121}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F17:G17</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E2DEF3AB-15D6-E248-822C-F35EA5D25BC2}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
@@ -3179,7 +3765,20 @@
           <xm:sqref>F25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0BDA52D8-3E7E-4C70-91EE-300C4C30AA93}">
+          <x14:cfRule type="dataBar" id="{8C3D98AE-45B3-E349-AD08-7A2D2F0788DE}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F9:G9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A486E733-45FB-5745-BC12-5681A8C96E8B}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3189,10 +3788,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A27:XFD27 A38:XFD38</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9E678109-7150-49BE-B221-A3CFAA416250}">
+          <xm:sqref>F10:G10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7FA6673F-F21D-7945-B26F-B398F1E4F700}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3202,10 +3801,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A39:XFD39 A28:XFD28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ED7249C0-7851-4FAB-A8B3-ECD1D8B07ED7}">
+          <xm:sqref>F16:G16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FDE0D191-AB43-2A4B-AAED-204602D73121}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3215,10 +3814,36 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A40:XFD40 A29:XFD29</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{17182307-9233-4527-A092-39A2AC7598BF}">
+          <xm:sqref>F17:G17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{58549C8B-D210-40C4-8ADE-22C497017E3B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A30:XFD30 A41:XFD41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FD3B9AE4-86A2-4DD2-9FB2-590D37A1F1F3}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFD6007B"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A36:XFD37 A47:XFD48</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{25D22E7E-FE50-430C-BE55-2002B6040486}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3228,10 +3853,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A41:XFD41 A30:XFD30</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7C48002B-3911-4813-A50C-7ECF9C19EF64}">
+          <xm:sqref>I9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5536B3A9-DDE9-4327-987B-6ED6BC685C8A}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3241,10 +3866,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A42:XFD42 A31:XFD31</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7FCA8C0A-0AB4-40CA-BFDA-384E8E98208C}">
+          <xm:sqref>I10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FD3552A3-57BE-4D60-BC80-B4724F46B4D8}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3254,10 +3879,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A43:XFD43 A32:XFD32</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BE90834B-BCE9-4D8B-94C3-8DF5CA7B319C}">
+          <xm:sqref>I16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3F9D851B-CEA4-4226-A258-9FDCC56494E2}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3267,306 +3892,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A44:XFD44 A33:XFD33</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{34C9D91D-6812-4B52-B085-D4926ED94F46}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A45:XFD45 A34:XFD34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C4B37561-E21A-469F-9264-28F346513E2D}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A35:XFD35 A46:XFD46</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A795A94A-D359-4C20-8F8C-4E6E44939444}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFFF555A"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A36:XFD36 A47:XFD47</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ED0BF0BD-0D7F-4B28-A5CF-75980B2566B9}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFD6007B"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A37:XFD37 A48:XFD48</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{185488EA-EF2F-484D-9735-35F3064F04C6}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A23:XFD23</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BEB72EB6-2FCA-4E6B-A21F-E30D0356FAF7}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFFF555A"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A36:XFD37 A47:XFD48</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{55209318-E838-45D7-997A-AE33FDFF309F}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A9:D9 F9:G9 I9:XFD9</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FF35AB45-1B56-4C79-838D-8C6C45297D4C}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A10:D10 F10:G10 I10:XFD10</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5709ABDC-9BD0-48E9-A6AB-106C154A8CEB}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A12:D12 F12:G12 I12:XFD12</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9786495F-8BC4-419E-9CB8-5224A93AE4AE}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A13:D14 F13:G14 I13:XFD14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8F84E390-EA54-4044-A0D1-BD858D211D1C}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A9:D9 A16:D16 F9:G9 F16:G16 I16:XFD16 I9:XFD9</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2648E629-B128-40E0-9430-3910149B879A}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A10:D10 A17:D17 F10:G10 F17:G17 I17:XFD17 I10:XFD10</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9EC12AEF-9FE7-4A07-8127-10331FB9F457}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A19:D19 F19:G19 I19:XFD19</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F8E4DB01-292B-4098-852F-53E74F090B09}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A20:D20 F20:G20 I20:XFD20</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{610D2D63-4D68-49B7-8423-BF90A16E1825}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A21:D21 F21:G21 I21:XFD21</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4D97FA75-76F6-4FF5-894D-D8F085836ADA}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A24:D24 F24:G24 I24:XFD24</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D52F8789-0951-42AE-89B8-918393A72370}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A25:D25 F25:G25 I25:XFD25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BE08D743-5C31-4682-92FD-D0ED74A6E081}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D9</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{99553375-C4C7-4A45-B837-00F75118B134}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D10</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7096564D-29E1-4746-9C3E-E960D69055F1}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1A1BFC80-804B-4A95-BF78-1A64F9AB28A3}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D17</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{14196676-A144-43A1-A7A4-3EF4D4E423B3}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A9:XFD9 A16:XFD16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3F5EDDE1-556F-4C3A-B908-6C709C91A635}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A10:XFD10 A17:XFD17</xm:sqref>
+          <xm:sqref>I17</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/materials/ct81seg_runtime_stats.xlsx
+++ b/materials/ct81seg_runtime_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\projects\CT81SegApp\materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F512A375-9493-48A1-BA94-A62CD20EDED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C899D1A3-C32B-4D99-8ED0-FF2FB8C85316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29890" yWindow="2000" windowWidth="26410" windowHeight="18090" xr2:uid="{CC17635D-67C6-4E2B-BF5C-757E9F68CB22}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{CC17635D-67C6-4E2B-BF5C-757E9F68CB22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,18 +36,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="79">
   <si>
     <t>OS</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>GPU model</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Person in charge</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Gu</t>
@@ -162,9 +162,6 @@
     <t>Machine 1 (orca)</t>
   </si>
   <si>
-    <t>Machine 2 (orca)</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -696,12 +693,6 @@
     <t>2017/2</t>
   </si>
   <si>
-    <t>Machine 3 (devonrex)</t>
-  </si>
-  <si>
-    <t>Machine 4 (toyger)</t>
-  </si>
-  <si>
     <t>Intel Xeon w5-2455X</t>
   </si>
   <si>
@@ -711,16 +702,31 @@
     <t>2023/9</t>
   </si>
   <si>
-    <t>Machine 5 (toyger)</t>
-  </si>
-  <si>
     <t>Sever</t>
   </si>
   <si>
     <t>SATA SSD</t>
   </si>
   <si>
-    <t>Machine 6 (pampascat)</t>
+    <t>Machine 2 (devonrex)</t>
+  </si>
+  <si>
+    <t>Machine 3 (toyger)</t>
+  </si>
+  <si>
+    <t>Machine 4 (pampascat)</t>
+  </si>
+  <si>
+    <t>AMD EPYC 9454</t>
+  </si>
+  <si>
+    <t>2022/11</t>
+  </si>
+  <si>
+    <t>NVIDIA RTX A6000 Ada</t>
+  </si>
+  <si>
+    <t>2022/12</t>
   </si>
 </sst>
 </file>
@@ -731,20 +737,13 @@
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0"/>
     <numFmt numFmtId="165" formatCode="[$¥-411]#,##0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -897,11 +896,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -929,7 +928,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -941,13 +940,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -956,26 +955,23 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -983,34 +979,34 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1350,13 +1346,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C0C41F-649F-411D-8D32-F880ADA04FFA}">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J39" sqref="J39"/>
+      <selection pane="bottomRight" activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.2"/>
@@ -1364,43 +1360,49 @@
     <col min="1" max="1" width="13.08984375" style="21" customWidth="1"/>
     <col min="2" max="2" width="8.36328125" style="21" customWidth="1"/>
     <col min="3" max="3" width="22.26953125" style="21" customWidth="1"/>
-    <col min="4" max="27" width="24" customWidth="1"/>
+    <col min="4" max="28" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27"/>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
+    <row r="1" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
       <c r="D1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="20" t="s">
-        <v>39</v>
+      <c r="E1" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="20" t="s">
         <v>73</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="I1" s="20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="20" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="20" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
       <c r="D2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>3</v>
+      <c r="E2" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>3</v>
@@ -1408,28 +1410,34 @@
       <c r="G2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>3</v>
+      <c r="H2" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="I2" s="20" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="J2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="34"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="22" t="s">
         <v>7</v>
       </c>
@@ -1437,7 +1445,7 @@
         <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>24</v>
@@ -1446,18 +1454,21 @@
         <v>24</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
+        <v>62</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="21" t="s">
         <v>0</v>
       </c>
@@ -1465,7 +1476,7 @@
         <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>25</v>
@@ -1474,18 +1485,21 @@
         <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
+        <v>62</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="21" t="s">
         <v>27</v>
       </c>
@@ -1493,7 +1507,7 @@
         <v>35</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>28</v>
@@ -1502,26 +1516,29 @@
         <v>35</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>35</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
+        <v>62</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>26</v>
@@ -1530,20 +1547,23 @@
         <v>26</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I7" s="19" t="s">
         <v>26</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="33"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="21" t="s">
         <v>5</v>
       </c>
@@ -1551,32 +1571,38 @@
         <v>37</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
+        <v>62</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="7">
         <v>621</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F9" s="7">
         <v>1399</v>
@@ -1585,25 +1611,30 @@
         <v>1039</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I9" s="7"/>
+        <v>62</v>
+      </c>
+      <c r="I9" s="7">
+        <v>5225</v>
+      </c>
       <c r="J9" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
+        <v>62</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="8">
         <f>D9*155.9</f>
         <v>96813.900000000009</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F10" s="8">
         <f>F9*155.9</f>
@@ -1614,24 +1645,30 @@
         <v>161980.1</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="8">
+        <f>I9*155.9</f>
+        <v>814577.5</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>30</v>
@@ -1640,23 +1677,29 @@
         <v>30</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
+        <v>62</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="1">
         <v>6</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F12" s="2">
         <v>16</v>
@@ -1665,23 +1708,29 @@
         <v>24</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="I12" s="1">
+        <v>48</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
+        <v>62</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="1">
         <v>3.6</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F13" s="2">
         <v>3.1</v>
@@ -1690,23 +1739,29 @@
         <v>3.2</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2.75</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
+        <v>62</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="12">
         <v>4</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F14" s="10">
         <v>4.7</v>
@@ -1715,17 +1770,23 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="I14" s="12">
+        <v>3.8</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="33"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="21" t="s">
         <v>1</v>
       </c>
@@ -1733,32 +1794,38 @@
         <v>36</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
+        <v>62</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="7">
         <v>699</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F16" s="7">
         <v>999</v>
@@ -1767,25 +1834,30 @@
         <v>2250</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I16" s="7"/>
+        <v>62</v>
+      </c>
+      <c r="I16" s="7">
+        <v>6799</v>
+      </c>
       <c r="J16" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
+        <v>62</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8">
         <f>D16*155.9</f>
         <v>108974.1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F17" s="8">
         <f>F16*155.9</f>
@@ -1796,49 +1868,61 @@
         <v>350775</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I17" s="8"/>
+        <v>62</v>
+      </c>
+      <c r="I17" s="8">
+        <f>I16*155.9</f>
+        <v>1059964.1000000001</v>
+      </c>
       <c r="J17" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
+        <v>62</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
+        <v>62</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="1">
         <v>6.1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F19" s="2">
         <v>7.5</v>
@@ -1847,23 +1931,29 @@
         <v>8.9</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="I19" s="1">
+        <v>8.9</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
+        <v>62</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" s="1">
         <v>11</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F20" s="2">
         <v>11</v>
@@ -1872,23 +1962,29 @@
         <v>24</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="I20" s="1">
+        <v>48</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
+        <v>62</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21" s="12">
         <v>3584</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F21" s="10">
         <v>4352</v>
@@ -1897,17 +1993,23 @@
         <v>7680</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="I21" s="12">
+        <v>18176</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="30"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="21" t="s">
         <v>6</v>
       </c>
@@ -1915,7 +2017,7 @@
         <v>34</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F22" s="14" t="s">
         <v>33</v>
@@ -1924,54 +2026,60 @@
         <v>34</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
+        <v>62</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="1">
         <v>2</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>1</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>
       </c>
-      <c r="H23" s="24">
+      <c r="H23" s="1">
         <v>2</v>
       </c>
       <c r="I23" s="1">
         <v>1</v>
       </c>
-      <c r="J23" s="24">
+      <c r="J23" s="1">
+        <v>2</v>
+      </c>
+      <c r="K23" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
+    <row r="24" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D24" s="1">
         <v>6</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F24" s="2">
         <v>8</v>
@@ -1980,26 +2088,29 @@
         <v>8</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I24" s="1">
         <v>8</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
+        <v>62</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
       <c r="C25" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D25" s="1">
         <v>2</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F25" s="2">
         <v>2</v>
@@ -2008,30 +2119,33 @@
         <v>2</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I25" s="1">
         <v>2</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="34" t="s">
+    <row r="27" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="30" t="s">
         <v>19</v>
       </c>
       <c r="C27" s="22" t="s">
@@ -2049,19 +2163,24 @@
       <c r="G27" s="16">
         <v>0.23301382999989001</v>
       </c>
-      <c r="H27" s="26"/>
+      <c r="H27" s="25">
+        <v>0.28703482499986399</v>
+      </c>
       <c r="I27" s="16">
         <v>0.31610422115772902</v>
       </c>
       <c r="J27" s="16">
+        <v>0.34370780084282099</v>
+      </c>
+      <c r="K27" s="16">
         <v>0.41444922098889903</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="16">
         <v>0.38627594592981002</v>
@@ -2075,19 +2194,24 @@
       <c r="G28" s="16">
         <v>0.518444739999949</v>
       </c>
-      <c r="H28" s="26"/>
+      <c r="H28" s="25">
+        <v>0.37790340699939401</v>
+      </c>
       <c r="I28" s="16">
         <v>0.57055419590324097</v>
       </c>
       <c r="J28" s="16">
+        <v>0.55742032593116098</v>
+      </c>
+      <c r="K28" s="16">
         <v>0.60328622302040402</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="27"/>
-      <c r="B29" s="32"/>
+    <row r="29" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="26"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29" s="17">
         <v>1.7493289359845201</v>
@@ -2101,17 +2225,22 @@
       <c r="G29" s="17">
         <v>1.1407079950001799</v>
       </c>
-      <c r="H29" s="25"/>
+      <c r="H29" s="24">
+        <v>1.1853063249982301</v>
+      </c>
       <c r="I29" s="17">
         <v>1.0127084976993499</v>
       </c>
       <c r="J29" s="17">
+        <v>1.1028042258694699</v>
+      </c>
+      <c r="K29" s="17">
         <v>1.15350922569632</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="27"/>
-      <c r="B30" s="33" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="26"/>
+      <c r="B30" s="32" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="21" t="s">
@@ -2129,17 +2258,22 @@
       <c r="G30" s="16">
         <v>10.034744810999801</v>
       </c>
-      <c r="H30" s="26"/>
+      <c r="H30" s="25">
+        <v>6.0965352039966003</v>
+      </c>
       <c r="I30" s="16">
         <v>5.2080871178768504</v>
       </c>
       <c r="J30" s="16">
+        <v>3.7212571860291002</v>
+      </c>
+      <c r="K30" s="16">
         <v>2.85766694881021</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="21" t="s">
         <v>13</v>
       </c>
@@ -2155,17 +2289,22 @@
       <c r="G31" s="16">
         <v>9.8556633959999491</v>
       </c>
-      <c r="H31" s="26"/>
+      <c r="H31" s="25">
+        <v>5.4162267290012096</v>
+      </c>
       <c r="I31" s="16">
         <v>8.6579211601056105</v>
       </c>
       <c r="J31" s="16">
+        <v>4.8485534992068997</v>
+      </c>
+      <c r="K31" s="16">
         <v>1.40789865097031</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="27"/>
-      <c r="B32" s="32"/>
+    <row r="32" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="26"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="23" t="s">
         <v>14</v>
       </c>
@@ -2181,17 +2320,22 @@
       <c r="G32" s="17">
         <v>22.931974768999901</v>
       </c>
-      <c r="H32" s="25"/>
+      <c r="H32" s="24">
+        <v>17.0514523149977</v>
+      </c>
       <c r="I32" s="17">
         <v>20.784936324227601</v>
       </c>
       <c r="J32" s="17">
+        <v>14.202680978924</v>
+      </c>
+      <c r="K32" s="17">
         <v>12.7054263222962</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="27"/>
-      <c r="B33" s="33" t="s">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="26"/>
+      <c r="B33" s="32" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="21" t="s">
@@ -2209,19 +2353,24 @@
       <c r="G33" s="16">
         <v>0.58345454599998403</v>
       </c>
-      <c r="H33" s="26"/>
+      <c r="H33" s="25">
+        <v>0.57360844099821395</v>
+      </c>
       <c r="I33" s="16">
         <v>0.59730354510247696</v>
       </c>
       <c r="J33" s="16">
+        <v>0.59650165587663595</v>
+      </c>
+      <c r="K33" s="16">
         <v>0.61815207917243198</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D34" s="16">
         <v>1.28428710158914E-2</v>
@@ -2235,19 +2384,24 @@
       <c r="G34" s="16">
         <v>9.2414979999375594E-3</v>
       </c>
-      <c r="H34" s="26"/>
+      <c r="H34" s="25">
+        <v>3.63483899855054E-3</v>
+      </c>
       <c r="I34" s="16">
         <v>1.15347979590296E-2</v>
       </c>
       <c r="J34" s="16">
+        <v>9.9485958926379594E-3</v>
+      </c>
+      <c r="K34" s="16">
         <v>1.1178801767528E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="27"/>
-      <c r="B35" s="32"/>
+    <row r="35" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="26"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D35" s="17">
         <v>4.5695638048928204</v>
@@ -2258,20 +2412,25 @@
       <c r="F35" s="17">
         <v>7.9536300579784402</v>
       </c>
-      <c r="G35" s="25">
+      <c r="G35" s="24">
         <v>3.1686970600001101</v>
       </c>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25">
+      <c r="H35" s="24">
+        <v>3.49533219899967</v>
+      </c>
+      <c r="I35" s="24">
         <v>4.6407184293493602</v>
       </c>
-      <c r="J35" s="25">
+      <c r="J35" s="24">
+        <v>5.3018749370239604</v>
+      </c>
+      <c r="K35" s="24">
         <v>5.25130391772836</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="26"/>
+      <c r="B36" s="26" t="s">
         <v>16</v>
       </c>
       <c r="C36" s="21" t="s">
@@ -2286,22 +2445,27 @@
       <c r="F36" s="16">
         <v>93.196820167009705</v>
       </c>
-      <c r="G36" s="26">
+      <c r="G36" s="25">
         <v>48.861804079999899</v>
       </c>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26">
+      <c r="H36" s="25">
+        <v>39.421869198002199</v>
+      </c>
+      <c r="I36" s="25">
         <v>42.3111072923056</v>
       </c>
-      <c r="J36" s="26">
+      <c r="J36" s="25">
+        <v>35.057994494214597</v>
+      </c>
+      <c r="K36" s="25">
         <v>30.5611869953572</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="32"/>
-      <c r="B37" s="32"/>
+    <row r="37" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="31"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D37" s="17">
         <v>101</v>
@@ -2312,22 +2476,27 @@
       <c r="F37" s="17">
         <v>156</v>
       </c>
-      <c r="G37" s="25">
+      <c r="G37" s="24">
         <v>69</v>
       </c>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25">
+      <c r="H37" s="24">
+        <v>62</v>
+      </c>
+      <c r="I37" s="24">
         <v>66</v>
       </c>
-      <c r="J37" s="25">
+      <c r="J37" s="24">
+        <v>65</v>
+      </c>
+      <c r="K37" s="24">
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="30" t="s">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="32" t="s">
         <v>19</v>
       </c>
       <c r="C38" s="21" t="s">
@@ -2342,20 +2511,27 @@
       <c r="F38" s="16">
         <v>2.4821481420076399</v>
       </c>
-      <c r="G38" s="26">
+      <c r="G38" s="25">
         <v>0.24432433499987299</v>
       </c>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26">
+      <c r="H38" s="25">
+        <v>0.29688197100040198</v>
+      </c>
+      <c r="I38" s="25">
         <v>0.33686538273468603</v>
       </c>
-      <c r="J38" s="26"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
+      <c r="J38" s="25">
+        <v>0.383597031235694</v>
+      </c>
+      <c r="K38" s="25">
+        <v>0.42245814623311101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
       <c r="C39" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D39" s="16">
         <v>0.40067043597809898</v>
@@ -2366,20 +2542,27 @@
       <c r="F39" s="16">
         <v>21.510927819996098</v>
       </c>
-      <c r="G39" s="26">
+      <c r="G39" s="25">
         <v>0.334881112999937</v>
       </c>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26">
+      <c r="H39" s="25">
+        <v>0.37156754899842698</v>
+      </c>
+      <c r="I39" s="25">
         <v>0.42489168141037198</v>
       </c>
-      <c r="J39" s="26"/>
-    </row>
-    <row r="40" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="27"/>
-      <c r="B40" s="32"/>
+      <c r="J39" s="25">
+        <v>0.48321471875533401</v>
+      </c>
+      <c r="K39" s="25">
+        <v>0.62148948712274399</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="26"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D40" s="17">
         <v>6.1337697948329097</v>
@@ -2390,18 +2573,25 @@
       <c r="F40" s="17">
         <v>7.7748009330243804</v>
       </c>
-      <c r="G40" s="25">
+      <c r="G40" s="24">
         <v>4.1336264210001401</v>
       </c>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25">
+      <c r="H40" s="24">
+        <v>4.1713308499965898</v>
+      </c>
+      <c r="I40" s="24">
         <v>3.5394482137635301</v>
       </c>
-      <c r="J40" s="25"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="27"/>
-      <c r="B41" s="33" t="s">
+      <c r="J40" s="24">
+        <v>3.5658524758182399</v>
+      </c>
+      <c r="K40" s="24">
+        <v>4.3536638887599102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="26"/>
+      <c r="B41" s="32" t="s">
         <v>20</v>
       </c>
       <c r="C41" s="21" t="s">
@@ -2416,18 +2606,25 @@
       <c r="F41" s="16">
         <v>61.7896196870133</v>
       </c>
-      <c r="G41" s="26">
+      <c r="G41" s="25">
         <v>37.088173383000097</v>
       </c>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26">
+      <c r="H41" s="25">
+        <v>23.011846582998199</v>
+      </c>
+      <c r="I41" s="25">
         <v>16.821868348401001</v>
       </c>
-      <c r="J41" s="26"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="27"/>
-      <c r="B42" s="27"/>
+      <c r="J41" s="25">
+        <v>11.419175399001601</v>
+      </c>
+      <c r="K41" s="25">
+        <v>9.6473821126855892</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
       <c r="C42" s="21" t="s">
         <v>13</v>
       </c>
@@ -2435,23 +2632,30 @@
         <v>37.570265477057497</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F42" s="16">
         <v>40.060987550008498</v>
       </c>
-      <c r="G42" s="26">
+      <c r="G42" s="25">
         <v>40.0024498350001</v>
       </c>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26">
+      <c r="H42" s="25">
+        <v>22.180271346998701</v>
+      </c>
+      <c r="I42" s="25">
         <v>35.343566601164603</v>
       </c>
-      <c r="J42" s="26"/>
-    </row>
-    <row r="43" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="27"/>
-      <c r="B43" s="32"/>
+      <c r="J42" s="25">
+        <v>19.576352299191001</v>
+      </c>
+      <c r="K42" s="25">
+        <v>5.67859655432403</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="26"/>
+      <c r="B43" s="31"/>
       <c r="C43" s="23" t="s">
         <v>14</v>
       </c>
@@ -2459,23 +2663,30 @@
         <v>92.053681011078794</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F43" s="17">
         <v>53.267810357035998</v>
       </c>
-      <c r="G43" s="25">
+      <c r="G43" s="24">
         <v>49.044152588000003</v>
       </c>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25">
+      <c r="H43" s="24">
+        <v>32.507135545001802</v>
+      </c>
+      <c r="I43" s="24">
         <v>45.686132457572903</v>
       </c>
-      <c r="J43" s="25"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="27"/>
-      <c r="B44" s="33" t="s">
+      <c r="J43" s="24">
+        <v>28.545511359814501</v>
+      </c>
+      <c r="K43" s="24">
+        <v>18.8030438027344</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="26"/>
+      <c r="B44" s="32" t="s">
         <v>21</v>
       </c>
       <c r="C44" s="21" t="s">
@@ -2485,71 +2696,92 @@
         <v>2.9507247160654502</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F44" s="16">
         <v>3.1344263299833899</v>
       </c>
-      <c r="G44" s="26">
+      <c r="G44" s="25">
         <v>2.3789881560001001</v>
       </c>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26">
+      <c r="H44" s="25">
+        <v>2.4279839760019901</v>
+      </c>
+      <c r="I44" s="25">
         <v>2.46377060189843</v>
       </c>
-      <c r="J44" s="26"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27"/>
+      <c r="J44" s="25">
+        <v>2.4209923311136601</v>
+      </c>
+      <c r="K44" s="25">
+        <v>2.4424958080053298</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
       <c r="C45" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D45" s="16">
         <v>4.6331230551004401E-3</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F45" s="16">
         <v>0.15347997099161101</v>
       </c>
-      <c r="G45" s="26">
+      <c r="G45" s="25">
         <v>1.11080839999431E-2</v>
       </c>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26">
+      <c r="H45" s="25">
+        <v>6.13585699829855E-3</v>
+      </c>
+      <c r="I45" s="25">
         <v>1.13851749338209E-2</v>
       </c>
-      <c r="J45" s="26"/>
-    </row>
-    <row r="46" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="27"/>
-      <c r="B46" s="32"/>
+      <c r="J45" s="25">
+        <v>9.9035240709781595E-3</v>
+      </c>
+      <c r="K45" s="25">
+        <v>9.3563059344887699E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="26"/>
+      <c r="B46" s="31"/>
       <c r="C46" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D46" s="17">
         <v>4.6424048559274498</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F46" s="17">
         <v>13.794507298967799</v>
       </c>
-      <c r="G46" s="25">
+      <c r="G46" s="24">
         <v>3.2355862370000001</v>
       </c>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25">
+      <c r="H46" s="24">
+        <v>3.6634426579985302</v>
+      </c>
+      <c r="I46" s="24">
         <v>4.7378300689160797</v>
       </c>
-      <c r="J46" s="25"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27" t="s">
+      <c r="J46" s="24">
+        <v>5.4293623859994096</v>
+      </c>
+      <c r="K46" s="24">
+        <v>5.5817652582190904</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="26"/>
+      <c r="B47" s="26" t="s">
         <v>16</v>
       </c>
       <c r="C47" s="21" t="s">
@@ -2559,41 +2791,57 @@
         <v>222.24066521413599</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F47" s="16">
         <v>206.98031143296899</v>
       </c>
-      <c r="G47" s="26">
+      <c r="G47" s="25">
         <v>137.993835856</v>
       </c>
-      <c r="I47" s="26">
+      <c r="H47" s="25">
+        <v>107.727011717997</v>
+      </c>
+      <c r="I47" s="25">
         <v>111.076795918866</v>
       </c>
-      <c r="J47" s="26"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="27"/>
-      <c r="B48" s="27"/>
+      <c r="J47" s="25">
+        <v>91.384103524964303</v>
+      </c>
+      <c r="K47" s="25">
+        <v>66.364415423013199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="26"/>
+      <c r="B48" s="26"/>
       <c r="C48" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D48" s="16">
         <v>242</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F48" s="16">
         <v>286</v>
       </c>
-      <c r="G48" s="26">
+      <c r="G48" s="25">
         <v>157</v>
       </c>
-      <c r="I48" s="26">
+      <c r="H48" s="25">
+        <v>131</v>
+      </c>
+      <c r="I48" s="25">
         <v>136</v>
       </c>
-      <c r="J48" s="26"/>
+      <c r="J48" s="25">
+        <v>123</v>
+      </c>
+      <c r="K48" s="25">
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -2616,8 +2864,120 @@
     <mergeCell ref="A8:B14"/>
     <mergeCell ref="A15:B21"/>
   </mergeCells>
-  <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="A9:D9 A16:D16 F9:G9 F16:G16 I9 I16 K16:XFD16 K9:XFD9">
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="L16:XFD16 A9:D9 A16:D16 F9:G9 F16:G16 I9 I16 L9:XFD9">
+    <cfRule type="dataBar" priority="24">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8F84E390-EA54-4044-A0D1-BD858D211D1C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9:XFD9 A9:D9 F9:G9 I9">
+    <cfRule type="dataBar" priority="28">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{55209318-E838-45D7-997A-AE33FDFF309F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17:XFD17 A10:D10 A17:D17 F10:G10 F17:G17 L10:XFD10 I10 I17">
+    <cfRule type="dataBar" priority="23">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2648E629-B128-40E0-9430-3910149B879A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10:XFD10 A10:D10 F10:G10 I10">
+    <cfRule type="dataBar" priority="27">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FF35AB45-1B56-4C79-838D-8C6C45297D4C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12:XFD12 A12:D12 F12:G12 I12">
+    <cfRule type="dataBar" priority="26">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5709ABDC-9BD0-48E9-A6AB-106C154A8CEB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13:XFD14 A13:D14 F13:G14 I13:I14">
+    <cfRule type="dataBar" priority="25">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9786495F-8BC4-419E-9CB8-5224A93AE4AE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L19:XFD19 A19:D19 F19:G19 I19">
+    <cfRule type="dataBar" priority="22">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9EC12AEF-9FE7-4A07-8127-10331FB9F457}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L20:XFD20 A20:D20 F20:G20 I20">
+    <cfRule type="dataBar" priority="21">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F8E4DB01-292B-4098-852F-53E74F090B09}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L21:XFD21 A21:D21 F21:G21 I21">
     <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="min"/>
@@ -2626,13 +2986,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8F84E390-EA54-4044-A0D1-BD858D211D1C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:D9 F9:G9 I9 K9:XFD9">
-    <cfRule type="dataBar" priority="24">
+          <x14:id>{610D2D63-4D68-49B7-8423-BF90A16E1825}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L24:XFD24 A24:D24 F24:G24 I24">
+    <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2640,12 +3000,54 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{55209318-E838-45D7-997A-AE33FDFF309F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10:D10 A17:D17 F10:G10 F17:G17 I10 I17 K17:XFD17 K10:XFD10">
+          <x14:id>{4D97FA75-76F6-4FF5-894D-D8F085836ADA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L25:XFD25 A25:D25 F25:G25 I25">
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D52F8789-0951-42AE-89B8-918393A72370}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:XFD9 A16:XFD16">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{14196676-A144-43A1-A7A4-3EF4D4E423B3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:XFD10 A17:XFD17">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3F5EDDE1-556F-4C3A-B908-6C709C91A635}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:XFD23">
     <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="min"/>
@@ -2654,13 +3056,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2648E629-B128-40E0-9430-3910149B879A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10:D10 F10:G10 I10 K10:XFD10">
-    <cfRule type="dataBar" priority="23">
+          <x14:id>{185488EA-EF2F-484D-9735-35F3064F04C6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:XFD27 A38:XFD38">
+    <cfRule type="dataBar" priority="41">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2668,13 +3070,69 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FF35AB45-1B56-4C79-838D-8C6C45297D4C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12:D12 F12:G12 I12 K12:XFD12">
-    <cfRule type="dataBar" priority="22">
+          <x14:id>{0BDA52D8-3E7E-4C70-91EE-300C4C30AA93}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:XFD35 A46:XFD46">
+    <cfRule type="dataBar" priority="33">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C4B37561-E21A-469F-9264-28F346513E2D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36:XFD36 A47:XFD47">
+    <cfRule type="dataBar" priority="32">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A795A94A-D359-4C20-8F8C-4E6E44939444}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36:XFD37 A47:XFD48">
+    <cfRule type="dataBar" priority="29">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BEB72EB6-2FCA-4E6B-A21F-E30D0356FAF7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:XFD37 A48:XFD48">
+    <cfRule type="dataBar" priority="31">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ED0BF0BD-0D7F-4B28-A5CF-75980B2566B9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39:XFD39 A28:XFD28">
+    <cfRule type="dataBar" priority="40">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2682,13 +3140,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5709ABDC-9BD0-48E9-A6AB-106C154A8CEB}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:D14 F13:G14 I13:I14 K13:XFD14">
-    <cfRule type="dataBar" priority="21">
+          <x14:id>{9E678109-7150-49BE-B221-A3CFAA416250}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40:XFD40 A29:XFD29">
+    <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2696,13 +3154,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9786495F-8BC4-419E-9CB8-5224A93AE4AE}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:D19 F19:G19 I19 K19:XFD19">
-    <cfRule type="dataBar" priority="18">
+          <x14:id>{ED7249C0-7851-4FAB-A8B3-ECD1D8B07ED7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:XFD41 A30:XFD30">
+    <cfRule type="dataBar" priority="38">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2710,13 +3168,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9EC12AEF-9FE7-4A07-8127-10331FB9F457}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20:D20 F20:G20 I20 K20:XFD20">
-    <cfRule type="dataBar" priority="17">
+          <x14:id>{17182307-9233-4527-A092-39A2AC7598BF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42:XFD42 A31:XFD31">
+    <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2724,12 +3182,54 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F8E4DB01-292B-4098-852F-53E74F090B09}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21:D21 F21:G21 I21 K21:XFD21">
+          <x14:id>{7C48002B-3911-4813-A50C-7ECF9C19EF64}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:XFD43 A32:XFD32">
+    <cfRule type="dataBar" priority="36">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7FCA8C0A-0AB4-40CA-BFDA-384E8E98208C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44:XFD44 A33:XFD33">
+    <cfRule type="dataBar" priority="35">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BE90834B-BCE9-4D8B-94C3-8DF5CA7B319C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45:XFD45 A34:XFD34">
+    <cfRule type="dataBar" priority="34">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{34C9D91D-6812-4B52-B085-D4926ED94F46}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
     <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
@@ -2738,12 +3238,26 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{610D2D63-4D68-49B7-8423-BF90A16E1825}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24:D24 F24:G24 I24 K24:XFD24">
+          <x14:id>{BE08D743-5C31-4682-92FD-D0ED74A6E081}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{99553375-C4C7-4A45-B837-00F75118B134}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="min"/>
@@ -2752,12 +3266,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4D97FA75-76F6-4FF5-894D-D8F085836ADA}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:D25 F25:G25 I25 K25:XFD25">
+          <x14:id>{7096564D-29E1-4746-9C3E-E960D69055F1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
     <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="min"/>
@@ -2766,41 +3280,251 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D52F8789-0951-42AE-89B8-918393A72370}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:XFD9 A16:XFD16">
+          <x14:id>{1A1BFC80-804B-4A95-BF78-1A64F9AB28A3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="dataBar" priority="82">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{AA69FEEE-5CC1-B446-88AE-AA0DCEE32669}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13:F14">
+    <cfRule type="dataBar" priority="83">
+      <dataBar>
+        <cfvo type="num" val="2"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0E5A907C-C8BB-3D4F-A865-FB20618C07B8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="dataBar" priority="86">
+      <dataBar>
+        <cfvo type="num" val="7"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E2DEF3AB-15D6-E248-822C-F35EA5D25BC2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="dataBar" priority="87">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{59D6ED6D-82BE-F743-9091-3995C19F06F3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="dataBar" priority="88">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EB06A7EE-42B8-C447-B49D-30DC6AADD363}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="dataBar" priority="89">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3C38937B-10AE-D641-91A1-2022AB2271C8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="dataBar" priority="90">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{28EB4E0F-7C16-0E43-B1EE-C17DE9320A66}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:G9">
+    <cfRule type="dataBar" priority="80">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8C3D98AE-45B3-E349-AD08-7A2D2F0788DE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10:G10">
+    <cfRule type="dataBar" priority="81">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A486E733-45FB-5745-BC12-5681A8C96E8B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16:G16">
+    <cfRule type="dataBar" priority="84">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7FA6673F-F21D-7945-B26F-B398F1E4F700}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:G17">
+    <cfRule type="dataBar" priority="85">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FDE0D191-AB43-2A4B-AAED-204602D73121}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:XFD30 A41:XFD41">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{58549C8B-D210-40C4-8ADE-22C497017E3B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36:XFD37 A47:XFD48">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FD3B9AE4-86A2-4DD2-9FB2-590D37A1F1F3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{25D22E7E-FE50-430C-BE55-2002B6040486}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5536B3A9-DDE9-4327-987B-6ED6BC685C8A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FD3552A3-57BE-4D60-BC80-B4724F46B4D8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
     <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{14196676-A144-43A1-A7A4-3EF4D4E423B3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10:XFD10 A17:XFD17">
-    <cfRule type="dataBar" priority="7">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3F5EDDE1-556F-4C3A-B908-6C709C91A635}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23:XFD23">
-    <cfRule type="dataBar" priority="15">
+          <x14:id>{3F9D851B-CEA4-4226-A258-9FDCC56494E2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2808,13 +3532,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{185488EA-EF2F-484D-9735-35F3064F04C6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:XFD27 A38:XFD38">
-    <cfRule type="dataBar" priority="37">
+          <x14:id>{7E50EB07-188B-47B3-99BF-ABD8255E3D2D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2822,455 +3546,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0BDA52D8-3E7E-4C70-91EE-300C4C30AA93}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35:XFD35 A46:XFD46">
-    <cfRule type="dataBar" priority="29">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C4B37561-E21A-469F-9264-28F346513E2D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36:XFD36 A47:XFD47">
-    <cfRule type="dataBar" priority="28">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A795A94A-D359-4C20-8F8C-4E6E44939444}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36:XFD37 A47:XFD48">
-    <cfRule type="dataBar" priority="25">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BEB72EB6-2FCA-4E6B-A21F-E30D0356FAF7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:XFD37 A48:XFD48">
-    <cfRule type="dataBar" priority="27">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFD6007B"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ED0BF0BD-0D7F-4B28-A5CF-75980B2566B9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A39:XFD39 A28:XFD28">
-    <cfRule type="dataBar" priority="36">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9E678109-7150-49BE-B221-A3CFAA416250}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40:XFD40 A29:XFD29">
-    <cfRule type="dataBar" priority="35">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ED7249C0-7851-4FAB-A8B3-ECD1D8B07ED7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41:XFD41 A30:XFD30">
-    <cfRule type="dataBar" priority="34">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{17182307-9233-4527-A092-39A2AC7598BF}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42:XFD42 A31:XFD31">
-    <cfRule type="dataBar" priority="33">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7C48002B-3911-4813-A50C-7ECF9C19EF64}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A43:XFD43 A32:XFD32">
-    <cfRule type="dataBar" priority="32">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7FCA8C0A-0AB4-40CA-BFDA-384E8E98208C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:XFD44 A33:XFD33">
-    <cfRule type="dataBar" priority="31">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BE90834B-BCE9-4D8B-94C3-8DF5CA7B319C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:XFD45 A34:XFD34">
-    <cfRule type="dataBar" priority="30">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{34C9D91D-6812-4B52-B085-D4926ED94F46}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="dataBar" priority="12">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BE08D743-5C31-4682-92FD-D0ED74A6E081}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="dataBar" priority="11">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{99553375-C4C7-4A45-B837-00F75118B134}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="dataBar" priority="10">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7096564D-29E1-4746-9C3E-E960D69055F1}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="dataBar" priority="9">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1A1BFC80-804B-4A95-BF78-1A64F9AB28A3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="dataBar" priority="78">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AA69FEEE-5CC1-B446-88AE-AA0DCEE32669}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13:F14">
-    <cfRule type="dataBar" priority="79">
-      <dataBar>
-        <cfvo type="num" val="2"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0E5A907C-C8BB-3D4F-A865-FB20618C07B8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="dataBar" priority="82">
-      <dataBar>
-        <cfvo type="num" val="7"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E2DEF3AB-15D6-E248-822C-F35EA5D25BC2}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="dataBar" priority="83">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{59D6ED6D-82BE-F743-9091-3995C19F06F3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="dataBar" priority="84">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{EB06A7EE-42B8-C447-B49D-30DC6AADD363}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="dataBar" priority="85">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3C38937B-10AE-D641-91A1-2022AB2271C8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
-    <cfRule type="dataBar" priority="86">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{28EB4E0F-7C16-0E43-B1EE-C17DE9320A66}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9:G9">
-    <cfRule type="dataBar" priority="76">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8C3D98AE-45B3-E349-AD08-7A2D2F0788DE}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10:G10">
-    <cfRule type="dataBar" priority="77">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A486E733-45FB-5745-BC12-5681A8C96E8B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16:G16">
-    <cfRule type="dataBar" priority="80">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7FA6673F-F21D-7945-B26F-B398F1E4F700}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17:G17">
-    <cfRule type="dataBar" priority="81">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FDE0D191-AB43-2A4B-AAED-204602D73121}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30:XFD30 A41:XFD41">
-    <cfRule type="dataBar" priority="6">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{58549C8B-D210-40C4-8ADE-22C497017E3B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36:XFD37 A47:XFD48">
-    <cfRule type="dataBar" priority="5">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFD6007B"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FD3B9AE4-86A2-4DD2-9FB2-590D37A1F1F3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{25D22E7E-FE50-430C-BE55-2002B6040486}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5536B3A9-DDE9-4327-987B-6ED6BC685C8A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FD3552A3-57BE-4D60-BC80-B4724F46B4D8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3F9D851B-CEA4-4226-A258-9FDCC56494E2}</x14:id>
+          <x14:id>{EF1AFFEC-FFA2-48E4-BAAF-28CAEA92E399}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3290,7 +3566,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A9:D9 A16:D16 F9:G9 F16:G16 I9 I16 K16:XFD16 K9:XFD9</xm:sqref>
+          <xm:sqref>L16:XFD16 A9:D9 A16:D16 F9:G9 F16:G16 I9 I16 L9:XFD9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{55209318-E838-45D7-997A-AE33FDFF309F}">
@@ -3303,7 +3579,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A9:D9 F9:G9 I9 K9:XFD9</xm:sqref>
+          <xm:sqref>L9:XFD9 A9:D9 F9:G9 I9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2648E629-B128-40E0-9430-3910149B879A}">
@@ -3316,7 +3592,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A10:D10 A17:D17 F10:G10 F17:G17 I10 I17 K17:XFD17 K10:XFD10</xm:sqref>
+          <xm:sqref>L17:XFD17 A10:D10 A17:D17 F10:G10 F17:G17 L10:XFD10 I10 I17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FF35AB45-1B56-4C79-838D-8C6C45297D4C}">
@@ -3329,7 +3605,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A10:D10 F10:G10 I10 K10:XFD10</xm:sqref>
+          <xm:sqref>L10:XFD10 A10:D10 F10:G10 I10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5709ABDC-9BD0-48E9-A6AB-106C154A8CEB}">
@@ -3342,7 +3618,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A12:D12 F12:G12 I12 K12:XFD12</xm:sqref>
+          <xm:sqref>L12:XFD12 A12:D12 F12:G12 I12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9786495F-8BC4-419E-9CB8-5224A93AE4AE}">
@@ -3355,7 +3631,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A13:D14 F13:G14 I13:I14 K13:XFD14</xm:sqref>
+          <xm:sqref>L13:XFD14 A13:D14 F13:G14 I13:I14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9EC12AEF-9FE7-4A07-8127-10331FB9F457}">
@@ -3368,7 +3644,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A19:D19 F19:G19 I19 K19:XFD19</xm:sqref>
+          <xm:sqref>L19:XFD19 A19:D19 F19:G19 I19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F8E4DB01-292B-4098-852F-53E74F090B09}">
@@ -3381,7 +3657,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A20:D20 F20:G20 I20 K20:XFD20</xm:sqref>
+          <xm:sqref>L20:XFD20 A20:D20 F20:G20 I20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{610D2D63-4D68-49B7-8423-BF90A16E1825}">
@@ -3394,7 +3670,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A21:D21 F21:G21 I21 K21:XFD21</xm:sqref>
+          <xm:sqref>L21:XFD21 A21:D21 F21:G21 I21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4D97FA75-76F6-4FF5-894D-D8F085836ADA}">
@@ -3407,7 +3683,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A24:D24 F24:G24 I24 K24:XFD24</xm:sqref>
+          <xm:sqref>L24:XFD24 A24:D24 F24:G24 I24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D52F8789-0951-42AE-89B8-918393A72370}">
@@ -3420,7 +3696,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A25:D25 F25:G25 I25 K25:XFD25</xm:sqref>
+          <xm:sqref>L25:XFD25 A25:D25 F25:G25 I25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{14196676-A144-43A1-A7A4-3EF4D4E423B3}">
@@ -3883,6 +4159,32 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3F9D851B-CEA4-4226-A258-9FDCC56494E2}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7E50EB07-188B-47B3-99BF-ABD8255E3D2D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EF1AFFEC-FFA2-48E4-BAAF-28CAEA92E399}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/materials/ct81seg_runtime_stats.xlsx
+++ b/materials/ct81seg_runtime_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\projects\CT81SegApp\materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17A5E7A-C310-4359-BE39-38E6FBA8DA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD623C9-D3C0-49FC-BA58-D168E965E29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{CC17635D-67C6-4E2B-BF5C-757E9F68CB22}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="88">
   <si>
     <t>OS</t>
     <phoneticPr fontId="1"/>
@@ -745,6 +745,15 @@
   </si>
   <si>
     <t>Cleanning labelmap</t>
+  </si>
+  <si>
+    <t>RTX 3090</t>
+  </si>
+  <si>
+    <t>2020/9</t>
+  </si>
+  <si>
+    <t>Machine 3 (chicat)</t>
   </si>
 </sst>
 </file>
@@ -1392,13 +1401,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C0C41F-649F-411D-8D32-F880ADA04FFA}">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.2"/>
@@ -1406,10 +1415,10 @@
     <col min="1" max="1" width="13.08984375" style="21" customWidth="1"/>
     <col min="2" max="2" width="8.36328125" style="21" customWidth="1"/>
     <col min="3" max="3" width="22.26953125" style="21" customWidth="1"/>
-    <col min="4" max="29" width="24" customWidth="1"/>
+    <col min="4" max="31" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27"/>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -1423,25 +1432,31 @@
         <v>68</v>
       </c>
       <c r="G1" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="J1" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="20" t="s">
+      <c r="K1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="20" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>2</v>
       </c>
@@ -1456,11 +1471,14 @@
       <c r="F2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>60</v>
+      <c r="H2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>3</v>
       </c>
       <c r="J2" s="20" t="s">
         <v>3</v>
@@ -1468,11 +1486,17 @@
       <c r="K2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>8</v>
       </c>
@@ -1482,8 +1506,9 @@
       <c r="E3" s="9"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
         <v>23</v>
       </c>
@@ -1500,26 +1525,32 @@
       <c r="F4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="J4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J4" s="15" t="s">
+      <c r="K4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="26"/>
       <c r="B5" s="26"/>
       <c r="C5" s="21" t="s">
@@ -1534,14 +1565,14 @@
       <c r="F5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="J5" s="15" t="s">
         <v>26</v>
@@ -1549,11 +1580,17 @@
       <c r="K5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="26"/>
       <c r="B6" s="26"/>
       <c r="C6" s="21" t="s">
@@ -1568,14 +1605,14 @@
       <c r="F6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="13" t="s">
         <v>28</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="J6" s="15" t="s">
         <v>34</v>
@@ -1583,11 +1620,17 @@
       <c r="K6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L6" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="35"/>
       <c r="B7" s="35"/>
       <c r="C7" s="23" t="s">
@@ -1605,11 +1648,11 @@
       <c r="G7" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="19" t="s">
         <v>26</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>60</v>
       </c>
       <c r="J7" s="19" t="s">
         <v>26</v>
@@ -1617,11 +1660,17 @@
       <c r="K7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L7" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="30" t="s">
         <v>9</v>
       </c>
@@ -1638,26 +1687,30 @@
       <c r="F8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="2"/>
+      <c r="H8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="27"/>
       <c r="C9" s="21" t="s">
@@ -1672,26 +1725,30 @@
       <c r="F9" s="7">
         <v>1399</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="7"/>
+      <c r="H9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="7">
         <v>668</v>
       </c>
-      <c r="H9" s="7">
+      <c r="J9" s="7">
         <v>1039</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J9" s="7">
+      <c r="K9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" s="7">
         <v>5225</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="27"/>
       <c r="C10" s="21" t="s">
@@ -1708,29 +1765,33 @@
         <f>F9*155.9</f>
         <v>218104.1</v>
       </c>
-      <c r="G10" s="8">
-        <f>G9*155.9</f>
+      <c r="G10" s="8"/>
+      <c r="H10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="8">
+        <f>I9*155.9</f>
         <v>104141.2</v>
-      </c>
-      <c r="H10" s="8">
-        <f>H9*155.9</f>
-        <v>161980.1</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="J10" s="8">
         <f>J9*155.9</f>
+        <v>161980.1</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" s="8">
+        <f>L9*155.9</f>
         <v>814577.5</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="27"/>
       <c r="C11" s="21" t="s">
@@ -1745,26 +1806,30 @@
       <c r="F11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="3"/>
+      <c r="H11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="27"/>
       <c r="C12" s="21" t="s">
@@ -1779,26 +1844,30 @@
       <c r="F12" s="2">
         <v>16</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="2"/>
+      <c r="H12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="2">
         <v>32</v>
       </c>
-      <c r="H12" s="1">
+      <c r="J12" s="1">
         <v>24</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L12" s="1">
         <v>48</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="27"/>
       <c r="C13" s="21" t="s">
@@ -1813,26 +1882,30 @@
       <c r="F13" s="2">
         <v>3.1</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="2"/>
+      <c r="H13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H13" s="1">
+      <c r="J13" s="1">
         <v>3.2</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L13" s="1">
         <v>2.75</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="29"/>
       <c r="B14" s="29"/>
       <c r="C14" s="23" t="s">
@@ -1847,26 +1920,30 @@
       <c r="F14" s="10">
         <v>4.7</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="10"/>
+      <c r="H14" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="10">
         <v>5.6</v>
       </c>
-      <c r="H14" s="12">
+      <c r="J14" s="12">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I14" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="J14" s="12">
+      <c r="K14" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14" s="12">
         <v>3.8</v>
       </c>
-      <c r="K14" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M14" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="30" t="s">
         <v>10</v>
       </c>
@@ -1884,25 +1961,31 @@
         <v>80</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="27"/>
       <c r="C16" s="21" t="s">
@@ -1917,26 +2000,32 @@
       <c r="F16" s="7">
         <v>999</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="7">
+        <v>1499</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="7">
+      <c r="J16" s="7">
         <v>2250</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J16" s="7">
+      <c r="K16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" s="7">
         <v>6799</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="27"/>
       <c r="C17" s="21" t="s">
@@ -1953,28 +2042,35 @@
         <f>F16*155.9</f>
         <v>155744.1</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="8">
+        <f>G16*155.9</f>
+        <v>233694.1</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="H17" s="8">
-        <f>H16*155.9</f>
-        <v>350775</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="J17" s="8">
         <f>J16*155.9</f>
+        <v>350775</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" s="8">
+        <f>L16*155.9</f>
         <v>1059964.1000000001</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="27"/>
       <c r="C18" s="21" t="s">
@@ -1990,25 +2086,31 @@
         <v>31</v>
       </c>
       <c r="G18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="27"/>
       <c r="C19" s="21" t="s">
@@ -2024,13 +2126,13 @@
         <v>7.5</v>
       </c>
       <c r="G19" s="2">
+        <v>8.6</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="2">
         <v>8.9</v>
-      </c>
-      <c r="H19" s="1">
-        <v>8.9</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="J19" s="1">
         <v>8.9</v>
@@ -2038,11 +2140,17 @@
       <c r="K19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L19" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="27"/>
       <c r="C20" s="21" t="s">
@@ -2058,25 +2166,31 @@
         <v>11</v>
       </c>
       <c r="G20" s="2">
+        <v>24</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="2">
         <v>16</v>
       </c>
-      <c r="H20" s="1">
+      <c r="J20" s="1">
         <v>24</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J20" s="1">
+      <c r="K20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L20" s="1">
         <v>48</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="29"/>
       <c r="B21" s="29"/>
       <c r="C21" s="23" t="s">
@@ -2092,25 +2206,31 @@
         <v>4352</v>
       </c>
       <c r="G21" s="10">
+        <v>10496</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21" s="10">
         <v>9728</v>
       </c>
-      <c r="H21" s="12">
+      <c r="J21" s="12">
         <v>7680</v>
       </c>
-      <c r="I21" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="J21" s="12">
+      <c r="K21" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L21" s="12">
         <v>18176</v>
       </c>
-      <c r="K21" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M21" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="N21" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
         <v>22</v>
       </c>
@@ -2127,26 +2247,32 @@
       <c r="F22" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="J22" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J22" s="18" t="s">
+      <c r="K22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L22" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="26"/>
       <c r="B23" s="26"/>
       <c r="C23" s="21" t="s">
@@ -2161,11 +2287,14 @@
       <c r="F23" s="1">
         <v>1</v>
       </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
       <c r="H23" s="1">
+        <v>2</v>
+      </c>
+      <c r="I23" s="1">
         <v>1</v>
-      </c>
-      <c r="I23" s="1">
-        <v>2</v>
       </c>
       <c r="J23" s="1">
         <v>1</v>
@@ -2174,10 +2303,16 @@
         <v>2</v>
       </c>
       <c r="L23" s="1">
+        <v>1</v>
+      </c>
+      <c r="M23" s="1">
+        <v>2</v>
+      </c>
+      <c r="N23" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="26"/>
       <c r="B24" s="26"/>
       <c r="C24" s="21" t="s">
@@ -2192,12 +2327,14 @@
       <c r="F24" s="2">
         <v>8</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="1">
+      <c r="G24" s="2">
         <v>8</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>60</v>
+      <c r="H24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="2">
+        <v>8</v>
       </c>
       <c r="J24" s="1">
         <v>8</v>
@@ -2205,11 +2342,17 @@
       <c r="K24" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L24" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L24" s="1">
+        <v>8</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="31"/>
       <c r="B25" s="31"/>
       <c r="C25" s="21" t="s">
@@ -2224,12 +2367,14 @@
       <c r="F25" s="2">
         <v>2</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="1">
+      <c r="G25" s="2">
         <v>2</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>60</v>
+      <c r="H25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I25" s="2">
+        <v>2</v>
       </c>
       <c r="J25" s="1">
         <v>2</v>
@@ -2237,11 +2382,17 @@
       <c r="K25" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L25" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L25" s="1">
+        <v>2</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="34" t="s">
         <v>4</v>
       </c>
@@ -2251,8 +2402,10 @@
       <c r="E26" s="9"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A27" s="32" t="s">
         <v>17</v>
       </c>
@@ -2264,21 +2417,35 @@
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="25"/>
+      <c r="F27" s="16">
+        <v>2.3914103749993898</v>
+      </c>
+      <c r="G27" s="16">
+        <v>0.49870329909026601</v>
+      </c>
+      <c r="H27" s="16">
+        <v>0.65357592701911904</v>
+      </c>
+      <c r="I27" s="16">
+        <v>0.42574739700000902</v>
+      </c>
       <c r="J27" s="16">
+        <v>0.23851548699894901</v>
+      </c>
+      <c r="K27" s="25">
+        <v>0.27336076801293502</v>
+      </c>
+      <c r="L27" s="16">
         <v>0.314147925004363</v>
       </c>
-      <c r="K27" s="16">
+      <c r="M27" s="16">
         <v>0.38381633535027498</v>
       </c>
-      <c r="L27" s="16">
+      <c r="N27" s="16">
         <v>0.41497611207887503</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="27"/>
       <c r="C28" s="21" t="s">
@@ -2286,21 +2453,35 @@
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="25"/>
+      <c r="F28" s="16">
+        <v>39.583543145999997</v>
+      </c>
+      <c r="G28" s="16">
+        <v>0.45725696720182801</v>
+      </c>
+      <c r="H28" s="16">
+        <v>0.72607256611809101</v>
+      </c>
+      <c r="I28" s="16">
+        <v>2.5850061599999701</v>
+      </c>
       <c r="J28" s="16">
+        <v>0.32106483101961197</v>
+      </c>
+      <c r="K28" s="25">
+        <v>0.432109157001832</v>
+      </c>
+      <c r="L28" s="16">
         <v>0.44132255902513801</v>
       </c>
-      <c r="K28" s="16">
+      <c r="M28" s="16">
         <v>0.498700611293315</v>
       </c>
-      <c r="L28" s="16">
+      <c r="N28" s="16">
         <v>0.52433268912136499</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="29"/>
       <c r="C29" s="23" t="s">
@@ -2308,21 +2489,35 @@
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="24"/>
+      <c r="F29" s="17">
+        <v>2.0446872010070298</v>
+      </c>
+      <c r="G29" s="17">
+        <v>1.5575696257874301</v>
+      </c>
+      <c r="H29" s="17">
+        <v>1.4984647757373699</v>
+      </c>
+      <c r="I29" s="17">
+        <v>1.2970120859999901</v>
+      </c>
       <c r="J29" s="17">
+        <v>1.0113563909835599</v>
+      </c>
+      <c r="K29" s="24">
+        <v>1.0992550000082699</v>
+      </c>
+      <c r="L29" s="17">
         <v>0.93604507204145104</v>
       </c>
-      <c r="K29" s="17">
+      <c r="M29" s="17">
         <v>1.0592753491364399</v>
       </c>
-      <c r="L29" s="17">
+      <c r="N29" s="17">
         <v>1.0624954681843499</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="36" t="s">
         <v>20</v>
@@ -2332,21 +2527,35 @@
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="25"/>
+      <c r="F30" s="16">
+        <v>20.214288881004901</v>
+      </c>
+      <c r="G30" s="16">
+        <v>10.2660036482848</v>
+      </c>
+      <c r="H30" s="16">
+        <v>7.3084222399629599</v>
+      </c>
+      <c r="I30" s="16">
+        <v>10.29708173</v>
+      </c>
       <c r="J30" s="16">
+        <v>9.8356007710099203</v>
+      </c>
+      <c r="K30" s="25">
+        <v>5.8719745109847201</v>
+      </c>
+      <c r="L30" s="16">
         <v>5.4362869118340296</v>
       </c>
-      <c r="K30" s="16">
+      <c r="M30" s="16">
         <v>3.7043352299369801</v>
       </c>
-      <c r="L30" s="16">
+      <c r="N30" s="16">
         <v>2.2291152272373398</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="37"/>
       <c r="C31" s="41" t="s">
@@ -2354,21 +2563,35 @@
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="25"/>
+      <c r="F31" s="16">
+        <v>9.4548960510000999</v>
+      </c>
+      <c r="G31" s="16">
+        <v>10.183667462784699</v>
+      </c>
+      <c r="H31" s="16">
+        <v>4.4993193191476104</v>
+      </c>
+      <c r="I31" s="16">
+        <v>9.6794922199999807</v>
+      </c>
       <c r="J31" s="16">
+        <v>9.7039891590247809</v>
+      </c>
+      <c r="K31" s="25">
+        <v>4.2973486040136697</v>
+      </c>
+      <c r="L31" s="16">
         <v>8.6338418349623591</v>
       </c>
-      <c r="K31" s="16">
+      <c r="M31" s="16">
         <v>3.7967990208417102</v>
       </c>
-      <c r="L31" s="16">
+      <c r="N31" s="16">
         <v>1.07157681882381</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="38"/>
       <c r="C32" s="41" t="s">
@@ -2376,21 +2599,35 @@
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="25"/>
+      <c r="F32" s="16">
+        <v>23.7103040420042</v>
+      </c>
+      <c r="G32" s="16">
+        <v>27.9142418378032</v>
+      </c>
+      <c r="H32" s="16">
+        <v>18.120484311133598</v>
+      </c>
+      <c r="I32" s="16">
+        <v>17.480355906</v>
+      </c>
       <c r="J32" s="16">
+        <v>22.579874332994201</v>
+      </c>
+      <c r="K32" s="25">
+        <v>15.8174322310078</v>
+      </c>
+      <c r="L32" s="16">
         <v>19.810522187035499</v>
       </c>
-      <c r="K32" s="16">
+      <c r="M32" s="16">
         <v>11.513873033225501</v>
       </c>
-      <c r="L32" s="16">
+      <c r="N32" s="16">
         <v>8.6620373059995401</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="39"/>
       <c r="C33" s="42" t="s">
@@ -2398,21 +2635,35 @@
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="24"/>
+      <c r="F33" s="17">
+        <v>13.216237984000999</v>
+      </c>
+      <c r="G33" s="17">
+        <v>7.1944337543100101</v>
+      </c>
+      <c r="H33" s="17">
+        <v>4.3598448107950301</v>
+      </c>
+      <c r="I33" s="17">
+        <v>7.30843115199999</v>
+      </c>
       <c r="J33" s="17">
+        <v>6.8513100670243103</v>
+      </c>
+      <c r="K33" s="24">
+        <v>3.7633447319967601</v>
+      </c>
+      <c r="L33" s="17">
         <v>6.6282632141373998</v>
       </c>
-      <c r="K33" s="17">
+      <c r="M33" s="17">
         <v>3.3692198800854301</v>
       </c>
-      <c r="L33" s="17">
+      <c r="N33" s="17">
         <v>1.34598894231021</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="30" t="s">
         <v>21</v>
@@ -2422,21 +2673,35 @@
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="25"/>
+      <c r="F34" s="16">
+        <v>0.821441968000726</v>
+      </c>
+      <c r="G34" s="16">
+        <v>0.79568387707695298</v>
+      </c>
+      <c r="H34" s="16">
+        <v>0.78495349688455396</v>
+      </c>
+      <c r="I34" s="16">
+        <v>0.48368760400000999</v>
+      </c>
       <c r="J34" s="16">
+        <v>0.56932821901864294</v>
+      </c>
+      <c r="K34" s="25">
+        <v>0.60606098300195299</v>
+      </c>
+      <c r="L34" s="16">
         <v>0.58721559401601497</v>
       </c>
-      <c r="K34" s="16">
+      <c r="M34" s="16">
         <v>0.58120506722480003</v>
       </c>
-      <c r="L34" s="16">
+      <c r="N34" s="16">
         <v>0.55580203561112196</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="27"/>
       <c r="C35" s="21" t="s">
@@ -2444,21 +2709,35 @@
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="25"/>
+      <c r="F35" s="16">
+        <v>4.50252729933708E-2</v>
+      </c>
+      <c r="G35" s="16">
+        <v>9.8841292783617904E-3</v>
+      </c>
+      <c r="H35" s="16">
+        <v>3.5308669321238899E-3</v>
+      </c>
+      <c r="I35" s="16">
+        <v>1.59942209999996E-2</v>
+      </c>
       <c r="J35" s="16">
+        <v>7.2653160023037301E-3</v>
+      </c>
+      <c r="K35" s="25">
+        <v>5.3255280072335102E-3</v>
+      </c>
+      <c r="L35" s="16">
         <v>1.1874962132424101E-2</v>
       </c>
-      <c r="K35" s="16">
+      <c r="M35" s="16">
         <v>9.7346412949263997E-3</v>
       </c>
-      <c r="L35" s="16">
+      <c r="N35" s="16">
         <v>1.03161097504198E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="29"/>
       <c r="C36" s="23" t="s">
@@ -2466,21 +2745,35 @@
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
+      <c r="F36" s="17">
+        <v>12.7788297310034</v>
+      </c>
+      <c r="G36" s="17">
+        <v>3.4158759671263299</v>
+      </c>
+      <c r="H36" s="17">
+        <v>4.0836179316975096</v>
+      </c>
+      <c r="I36" s="17">
+        <v>3.9311392220000099</v>
+      </c>
       <c r="J36" s="24">
+        <v>2.75049070699606</v>
+      </c>
+      <c r="K36" s="24">
+        <v>2.9935199930041501</v>
+      </c>
+      <c r="L36" s="24">
         <v>3.7956538437865599</v>
       </c>
-      <c r="K36" s="24">
+      <c r="M36" s="24">
         <v>4.4984024842269701</v>
       </c>
-      <c r="L36" s="24">
+      <c r="N36" s="24">
         <v>4.4641529698856104</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
       <c r="B37" s="27" t="s">
         <v>16</v>
@@ -2490,21 +2783,35 @@
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
+      <c r="F37" s="16">
+        <v>124.802322556002</v>
+      </c>
+      <c r="G37" s="16">
+        <v>62.738650712650198</v>
+      </c>
+      <c r="H37" s="16">
+        <v>43.982205593958497</v>
+      </c>
+      <c r="I37" s="16">
+        <v>53.852136003999902</v>
+      </c>
       <c r="J37" s="25">
+        <v>54.184698252007301</v>
+      </c>
+      <c r="K37" s="25">
+        <v>36.610345702007102</v>
+      </c>
+      <c r="L37" s="25">
         <v>46.912286573089602</v>
       </c>
-      <c r="K37" s="25">
+      <c r="M37" s="25">
         <v>30.6611705827526</v>
       </c>
-      <c r="L37" s="25">
+      <c r="N37" s="25">
         <v>21.707423390354901</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="29"/>
       <c r="B38" s="29"/>
       <c r="C38" s="23" t="s">
@@ -2512,21 +2819,35 @@
       </c>
       <c r="D38" s="17"/>
       <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
+      <c r="F38" s="17">
+        <v>204</v>
+      </c>
+      <c r="G38" s="17">
+        <v>84</v>
+      </c>
+      <c r="H38" s="17">
+        <v>71</v>
+      </c>
+      <c r="I38" s="17">
+        <v>82</v>
+      </c>
       <c r="J38" s="24">
+        <v>73</v>
+      </c>
+      <c r="K38" s="24">
+        <v>60</v>
+      </c>
+      <c r="L38" s="24">
         <v>71</v>
       </c>
-      <c r="K38" s="24">
+      <c r="M38" s="24">
         <v>62</v>
       </c>
-      <c r="L38" s="24">
+      <c r="N38" s="24">
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="26" t="s">
         <v>18</v>
       </c>
@@ -2539,20 +2860,32 @@
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
+      <c r="G39" s="16">
+        <v>0.50284448871388998</v>
+      </c>
+      <c r="H39" s="16">
+        <v>0.71354523114860002</v>
+      </c>
+      <c r="I39" s="16">
+        <v>0.400137391000015</v>
+      </c>
       <c r="J39" s="25">
+        <v>0.242017420998308</v>
+      </c>
+      <c r="K39" s="25">
+        <v>0.31035188501118599</v>
+      </c>
+      <c r="L39" s="25">
         <v>0.32862523570656699</v>
       </c>
-      <c r="K39" s="25">
+      <c r="M39" s="25">
         <v>0.33271143306046702</v>
       </c>
-      <c r="L39" s="25">
+      <c r="N39" s="25">
         <v>0.37867269525304398</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="27"/>
       <c r="C40" s="21" t="s">
@@ -2561,20 +2894,32 @@
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
+      <c r="G40" s="16">
+        <v>0.42873780196532602</v>
+      </c>
+      <c r="H40" s="16">
+        <v>0.69117780309170396</v>
+      </c>
+      <c r="I40" s="16">
+        <v>2.5898015980000002</v>
+      </c>
       <c r="J40" s="25">
+        <v>0.32363425698713399</v>
+      </c>
+      <c r="K40" s="25">
+        <v>0.40080995901371302</v>
+      </c>
+      <c r="L40" s="25">
         <v>0.50541955791413695</v>
       </c>
-      <c r="K40" s="25">
+      <c r="M40" s="25">
         <v>0.48882253793999503</v>
       </c>
-      <c r="L40" s="25">
+      <c r="N40" s="25">
         <v>0.64223923021927398</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
       <c r="B41" s="29"/>
       <c r="C41" s="23" t="s">
@@ -2583,20 +2928,32 @@
       <c r="D41" s="17"/>
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
+      <c r="G41" s="17">
+        <v>5.0059210187755498</v>
+      </c>
+      <c r="H41" s="17">
+        <v>4.9661646480671999</v>
+      </c>
+      <c r="I41" s="17">
+        <v>4.3499941880000099</v>
+      </c>
       <c r="J41" s="24">
+        <v>3.6357747169968202</v>
+      </c>
+      <c r="K41" s="24">
+        <v>3.7911167510028401</v>
+      </c>
+      <c r="L41" s="24">
         <v>3.1097499579191199</v>
       </c>
-      <c r="K41" s="24">
+      <c r="M41" s="24">
         <v>3.9793555671349101</v>
       </c>
-      <c r="L41" s="24">
+      <c r="N41" s="24">
         <v>4.0341609502211204</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
       <c r="B42" s="40" t="s">
         <v>20</v>
@@ -2607,20 +2964,32 @@
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
+      <c r="G42" s="16">
+        <v>39.198459480889099</v>
+      </c>
+      <c r="H42" s="16">
+        <v>22.099547667894502</v>
+      </c>
+      <c r="I42" s="16">
+        <v>33.976817592000003</v>
+      </c>
       <c r="J42" s="25">
+        <v>36.857392473990302</v>
+      </c>
+      <c r="K42" s="25">
+        <v>20.253969917976001</v>
+      </c>
+      <c r="L42" s="25">
         <v>16.575125847011801</v>
       </c>
-      <c r="K42" s="25">
+      <c r="M42" s="25">
         <v>10.5931354621425</v>
       </c>
-      <c r="L42" s="25">
+      <c r="N42" s="25">
         <v>5.8319269688799897</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="37"/>
       <c r="C43" s="41" t="s">
@@ -2629,20 +2998,32 @@
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
+      <c r="G43" s="16">
+        <v>41.665881626773597</v>
+      </c>
+      <c r="H43" s="16">
+        <v>18.820871174801098</v>
+      </c>
+      <c r="I43" s="16">
+        <v>39.318443496999997</v>
+      </c>
       <c r="J43" s="25">
+        <v>39.802582204982102</v>
+      </c>
+      <c r="K43" s="25">
+        <v>18.204196125007002</v>
+      </c>
+      <c r="L43" s="25">
         <v>35.144391817040699</v>
       </c>
-      <c r="K43" s="25">
+      <c r="M43" s="25">
         <v>14.9038841850124</v>
       </c>
-      <c r="L43" s="25">
+      <c r="N43" s="25">
         <v>4.4372280300594804</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
       <c r="B44" s="38"/>
       <c r="C44" s="41" t="s">
@@ -2651,20 +3032,32 @@
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
+      <c r="G44" s="16">
+        <v>65.217677915934402</v>
+      </c>
+      <c r="H44" s="16">
+        <v>52.023775223642502</v>
+      </c>
+      <c r="I44" s="16">
+        <v>42.003265999</v>
+      </c>
       <c r="J44" s="25">
+        <v>48.866922488988997</v>
+      </c>
+      <c r="K44" s="25">
+        <v>27.922537649981599</v>
+      </c>
+      <c r="L44" s="25">
         <v>43.576578847132602</v>
       </c>
-      <c r="K44" s="25">
+      <c r="M44" s="25">
         <v>24.685732924844999</v>
       </c>
-      <c r="L44" s="25">
+      <c r="N44" s="25">
         <v>13.8762322496622</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
       <c r="B45" s="39"/>
       <c r="C45" s="42" t="s">
@@ -2673,20 +3066,32 @@
       <c r="D45" s="17"/>
       <c r="E45" s="17"/>
       <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
+      <c r="G45" s="17">
+        <v>29.341815375722899</v>
+      </c>
+      <c r="H45" s="17">
+        <v>15.7044425089843</v>
+      </c>
+      <c r="I45" s="17">
+        <v>28.285379806999899</v>
+      </c>
       <c r="J45" s="24">
+        <v>28.410903652984398</v>
+      </c>
+      <c r="K45" s="24">
+        <v>15.2793028439919</v>
+      </c>
+      <c r="L45" s="24">
         <v>24.741927819326499</v>
       </c>
-      <c r="K45" s="24">
+      <c r="M45" s="24">
         <v>12.9752079010941</v>
       </c>
-      <c r="L45" s="24">
+      <c r="N45" s="24">
         <v>5.1526448610238704</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="30" t="s">
         <v>21</v>
@@ -2697,20 +3102,32 @@
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
+      <c r="G46" s="16">
+        <v>3.17040770314633</v>
+      </c>
+      <c r="H46" s="16">
+        <v>4.3525433158501903</v>
+      </c>
+      <c r="I46" s="16">
+        <v>2.0834922319999598</v>
+      </c>
       <c r="J46" s="25">
+        <v>2.29383057699305</v>
+      </c>
+      <c r="K46" s="25">
+        <v>2.3635045140108502</v>
+      </c>
+      <c r="L46" s="25">
         <v>2.3554833130910899</v>
       </c>
-      <c r="K46" s="25">
+      <c r="M46" s="25">
         <v>2.3636656110174901</v>
       </c>
-      <c r="L46" s="25">
+      <c r="N46" s="25">
         <v>2.2461534040048701</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
       <c r="B47" s="27"/>
       <c r="C47" s="21" t="s">
@@ -2719,20 +3136,32 @@
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
+      <c r="G47" s="16">
+        <v>8.9637078344821895E-3</v>
+      </c>
+      <c r="H47" s="16">
+        <v>4.1490672156214697E-3</v>
+      </c>
+      <c r="I47" s="16">
+        <v>1.58119309999733E-2</v>
+      </c>
       <c r="J47" s="25">
+        <v>6.8482829956337801E-3</v>
+      </c>
+      <c r="K47" s="25">
+        <v>6.2112669984344298E-3</v>
+      </c>
+      <c r="L47" s="25">
         <v>1.0079315863549701E-2</v>
       </c>
-      <c r="K47" s="25">
+      <c r="M47" s="25">
         <v>9.1348132118582708E-3</v>
       </c>
-      <c r="L47" s="25">
+      <c r="N47" s="25">
         <v>1.1712969280779299E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
       <c r="B48" s="29"/>
       <c r="C48" s="23" t="s">
@@ -2741,20 +3170,32 @@
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
       <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
+      <c r="G48" s="17">
+        <v>3.5821724026463899</v>
+      </c>
+      <c r="H48" s="17">
+        <v>4.7167188781313598</v>
+      </c>
+      <c r="I48" s="17">
+        <v>4.0814938059999601</v>
+      </c>
       <c r="J48" s="24">
+        <v>2.8744082780030999</v>
+      </c>
+      <c r="K48" s="24">
+        <v>2.97798476100433</v>
+      </c>
+      <c r="L48" s="24">
         <v>4.1986377970315498</v>
       </c>
-      <c r="K48" s="24">
+      <c r="M48" s="24">
         <v>4.7865026001818398</v>
       </c>
-      <c r="L48" s="24">
+      <c r="N48" s="24">
         <v>4.7243544762022696</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="27" t="s">
         <v>16</v>
@@ -2765,20 +3206,32 @@
       <c r="D49" s="16"/>
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
+      <c r="G49" s="16">
+        <v>188.93581879418301</v>
+      </c>
+      <c r="H49" s="16">
+        <v>130.14035882521401</v>
+      </c>
+      <c r="I49" s="16">
+        <v>157.87777048999999</v>
+      </c>
       <c r="J49" s="25">
+        <v>163.948905780009</v>
+      </c>
+      <c r="K49" s="25">
+        <v>96.640403512021294</v>
+      </c>
+      <c r="L49" s="25">
         <v>131.12122976733301</v>
       </c>
-      <c r="K49" s="25">
+      <c r="M49" s="25">
         <v>79.189955803100005</v>
       </c>
-      <c r="L49" s="25">
+      <c r="N49" s="25">
         <v>46.331093179062002</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
       <c r="B50" s="27"/>
       <c r="C50" s="21" t="s">
@@ -2787,16 +3240,28 @@
       <c r="D50" s="16"/>
       <c r="E50" s="16"/>
       <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
+      <c r="G50" s="16">
+        <v>212</v>
+      </c>
+      <c r="H50" s="16">
+        <v>158</v>
+      </c>
+      <c r="I50" s="16">
+        <v>186</v>
+      </c>
       <c r="J50" s="25">
+        <v>183</v>
+      </c>
+      <c r="K50" s="25">
+        <v>120</v>
+      </c>
+      <c r="L50" s="25">
         <v>156</v>
       </c>
-      <c r="K50" s="25">
+      <c r="M50" s="25">
         <v>109</v>
       </c>
-      <c r="L50" s="25">
+      <c r="N50" s="25">
         <v>96</v>
       </c>
     </row>
@@ -2836,7 +3301,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:XFD17 A10:XFD10">
+  <conditionalFormatting sqref="A10:XFD10 A17:XFD17">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
@@ -3114,7 +3579,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12:G12">
+  <conditionalFormatting sqref="F12:G12 I12">
     <cfRule type="dataBar" priority="84">
       <dataBar>
         <cfvo type="min"/>
@@ -3128,7 +3593,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13:G14">
+  <conditionalFormatting sqref="F13:G14 I13:I14">
     <cfRule type="dataBar" priority="85">
       <dataBar>
         <cfvo type="num" val="2"/>
@@ -3142,7 +3607,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19:G19">
+  <conditionalFormatting sqref="F19:G19 I19">
     <cfRule type="dataBar" priority="88">
       <dataBar>
         <cfvo type="num" val="7"/>
@@ -3156,7 +3621,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:G20">
+  <conditionalFormatting sqref="F20:G20 I20">
     <cfRule type="dataBar" priority="89">
       <dataBar>
         <cfvo type="min"/>
@@ -3170,7 +3635,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21:G21">
+  <conditionalFormatting sqref="F21:G21 I21">
     <cfRule type="dataBar" priority="90">
       <dataBar>
         <cfvo type="min"/>
@@ -3184,7 +3649,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24:G24">
+  <conditionalFormatting sqref="F24:G24 I24">
     <cfRule type="dataBar" priority="91">
       <dataBar>
         <cfvo type="min"/>
@@ -3198,7 +3663,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25:G25">
+  <conditionalFormatting sqref="F25:G25 I25">
     <cfRule type="dataBar" priority="92">
       <dataBar>
         <cfvo type="min"/>
@@ -3212,7 +3677,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9:H9">
+  <conditionalFormatting sqref="F9:G9 I9:J9">
     <cfRule type="dataBar" priority="82">
       <dataBar>
         <cfvo type="min"/>
@@ -3226,7 +3691,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10:H10">
+  <conditionalFormatting sqref="F10:G10 I10:J10">
     <cfRule type="dataBar" priority="83">
       <dataBar>
         <cfvo type="min"/>
@@ -3240,7 +3705,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16:H16">
+  <conditionalFormatting sqref="F16:G16 I16:J16">
     <cfRule type="dataBar" priority="86">
       <dataBar>
         <cfvo type="min"/>
@@ -3254,7 +3719,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17:H17">
+  <conditionalFormatting sqref="F17:G17 I17:J17">
     <cfRule type="dataBar" priority="87">
       <dataBar>
         <cfvo type="min"/>
@@ -3268,7 +3733,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J9">
+  <conditionalFormatting sqref="L9">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
@@ -3282,7 +3747,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J10">
+  <conditionalFormatting sqref="L10">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
@@ -3308,7 +3773,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
+  <conditionalFormatting sqref="L16">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
@@ -3322,7 +3787,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
+  <conditionalFormatting sqref="L17">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
@@ -3348,7 +3813,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M9:XFD9 A9:D9 F9:H9 J9">
+  <conditionalFormatting sqref="O9:XFD9 A9:D9 F9:G9 L9 I9:J9">
     <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="min"/>
@@ -3362,7 +3827,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M10:XFD10 A10:D10 J10 F10:H10">
+  <conditionalFormatting sqref="O10:XFD10 A10:D10 L10 F10:G10 I10:J10">
     <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="min"/>
@@ -3376,7 +3841,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M12:XFD12 A12:D12 F12:H12 J12">
+  <conditionalFormatting sqref="O12:XFD12 A12:D12 F12:G12 L12 I12:J12">
     <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="min"/>
@@ -3390,7 +3855,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M13:XFD14 A13:D14 F13:H14 J13:J14">
+  <conditionalFormatting sqref="O13:XFD14 A13:D14 F13:G14 L13:L14 I13:J14">
     <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="min"/>
@@ -3404,7 +3869,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M16:XFD16 A9:D9 A16:D16 F9:H9 F16:H16 J9 J16 M9:XFD9">
+  <conditionalFormatting sqref="O16:XFD16 A9:D9 A16:D16 F9:G9 F16:G16 L9 L16 O9:XFD9 I16:J16 I9:J9">
     <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="min"/>
@@ -3418,7 +3883,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M17:XFD17 A10:D10 A17:D17 F17:H17 M10:XFD10 J10 J17 F10:H10">
+  <conditionalFormatting sqref="O17:XFD17 A10:D10 A17:D17 O10:XFD10 L10 L17 F10:G10 F17:G17 I17:J17 I10:J10">
     <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="min"/>
@@ -3432,7 +3897,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M19:XFD19 A19:D19 F19:H19 J19">
+  <conditionalFormatting sqref="O19:XFD19 A19:D19 F19:G19 L19 I19:J19">
     <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="min"/>
@@ -3446,7 +3911,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M20:XFD20 A20:D20 F20:H20 J20">
+  <conditionalFormatting sqref="O20:XFD20 A20:D20 F20:G20 L20 I20:J20">
     <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="min"/>
@@ -3460,7 +3925,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M21:XFD21 A21:D21 F21:H21 J21">
+  <conditionalFormatting sqref="O21:XFD21 A21:D21 F21:G21 L21 I21:J21">
     <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="min"/>
@@ -3474,7 +3939,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M24:XFD24 A24:D24 F24:H24 J24">
+  <conditionalFormatting sqref="O24:XFD24 A24:D24 F24:G24 L24 I24:J24">
     <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="min"/>
@@ -3488,7 +3953,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M25:XFD25 A25:D25 F25:H25 J25">
+  <conditionalFormatting sqref="O25:XFD25 A25:D25 F25:G25 L25 I25:J25">
     <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="min"/>
@@ -3558,7 +4023,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A17:XFD17 A10:XFD10</xm:sqref>
+          <xm:sqref>A10:XFD10 A17:XFD17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{185488EA-EF2F-484D-9735-35F3064F04C6}">
@@ -3815,7 +4280,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F12:G12</xm:sqref>
+          <xm:sqref>F12:G12 I12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0E5A907C-C8BB-3D4F-A865-FB20618C07B8}">
@@ -3830,7 +4295,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F13:G14</xm:sqref>
+          <xm:sqref>F13:G14 I13:I14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E2DEF3AB-15D6-E248-822C-F35EA5D25BC2}">
@@ -3845,7 +4310,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F19:G19</xm:sqref>
+          <xm:sqref>F19:G19 I19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{59D6ED6D-82BE-F743-9091-3995C19F06F3}">
@@ -3858,7 +4323,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F20:G20</xm:sqref>
+          <xm:sqref>F20:G20 I20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EB06A7EE-42B8-C447-B49D-30DC6AADD363}">
@@ -3871,7 +4336,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F21:G21</xm:sqref>
+          <xm:sqref>F21:G21 I21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3C38937B-10AE-D641-91A1-2022AB2271C8}">
@@ -3884,7 +4349,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F24:G24</xm:sqref>
+          <xm:sqref>F24:G24 I24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{28EB4E0F-7C16-0E43-B1EE-C17DE9320A66}">
@@ -3897,7 +4362,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F25:G25</xm:sqref>
+          <xm:sqref>F25:G25 I25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8C3D98AE-45B3-E349-AD08-7A2D2F0788DE}">
@@ -3910,7 +4375,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F9:H9</xm:sqref>
+          <xm:sqref>F9:G9 I9:J9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A486E733-45FB-5745-BC12-5681A8C96E8B}">
@@ -3923,7 +4388,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F10:H10</xm:sqref>
+          <xm:sqref>F10:G10 I10:J10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7FA6673F-F21D-7945-B26F-B398F1E4F700}">
@@ -3936,7 +4401,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F16:H16</xm:sqref>
+          <xm:sqref>F16:G16 I16:J16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FDE0D191-AB43-2A4B-AAED-204602D73121}">
@@ -3949,7 +4414,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F17:H17</xm:sqref>
+          <xm:sqref>F17:G17 I17:J17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{25D22E7E-FE50-430C-BE55-2002B6040486}">
@@ -3962,7 +4427,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J9</xm:sqref>
+          <xm:sqref>L9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7E50EB07-188B-47B3-99BF-ABD8255E3D2D}">
@@ -3985,7 +4450,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J10</xm:sqref>
+          <xm:sqref>L10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FD3552A3-57BE-4D60-BC80-B4724F46B4D8}">
@@ -3998,7 +4463,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J16</xm:sqref>
+          <xm:sqref>L16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EF1AFFEC-FFA2-48E4-BAAF-28CAEA92E399}">
@@ -4021,7 +4486,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J17</xm:sqref>
+          <xm:sqref>L17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{55209318-E838-45D7-997A-AE33FDFF309F}">
@@ -4034,7 +4499,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M9:XFD9 A9:D9 F9:H9 J9</xm:sqref>
+          <xm:sqref>O9:XFD9 A9:D9 F9:G9 L9 I9:J9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FF35AB45-1B56-4C79-838D-8C6C45297D4C}">
@@ -4047,7 +4512,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M10:XFD10 A10:D10 J10 F10:H10</xm:sqref>
+          <xm:sqref>O10:XFD10 A10:D10 L10 F10:G10 I10:J10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5709ABDC-9BD0-48E9-A6AB-106C154A8CEB}">
@@ -4060,7 +4525,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M12:XFD12 A12:D12 F12:H12 J12</xm:sqref>
+          <xm:sqref>O12:XFD12 A12:D12 F12:G12 L12 I12:J12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9786495F-8BC4-419E-9CB8-5224A93AE4AE}">
@@ -4073,7 +4538,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M13:XFD14 A13:D14 F13:H14 J13:J14</xm:sqref>
+          <xm:sqref>O13:XFD14 A13:D14 F13:G14 L13:L14 I13:J14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8F84E390-EA54-4044-A0D1-BD858D211D1C}">
@@ -4086,7 +4551,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M16:XFD16 A9:D9 A16:D16 F9:H9 F16:H16 J9 J16 M9:XFD9</xm:sqref>
+          <xm:sqref>O16:XFD16 A9:D9 A16:D16 F9:G9 F16:G16 L9 L16 O9:XFD9 I16:J16 I9:J9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2648E629-B128-40E0-9430-3910149B879A}">
@@ -4099,7 +4564,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M17:XFD17 A10:D10 A17:D17 F17:H17 M10:XFD10 J10 J17 F10:H10</xm:sqref>
+          <xm:sqref>O17:XFD17 A10:D10 A17:D17 O10:XFD10 L10 L17 F10:G10 F17:G17 I17:J17 I10:J10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9EC12AEF-9FE7-4A07-8127-10331FB9F457}">
@@ -4112,7 +4577,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M19:XFD19 A19:D19 F19:H19 J19</xm:sqref>
+          <xm:sqref>O19:XFD19 A19:D19 F19:G19 L19 I19:J19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F8E4DB01-292B-4098-852F-53E74F090B09}">
@@ -4125,7 +4590,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M20:XFD20 A20:D20 F20:H20 J20</xm:sqref>
+          <xm:sqref>O20:XFD20 A20:D20 F20:G20 L20 I20:J20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{610D2D63-4D68-49B7-8423-BF90A16E1825}">
@@ -4138,7 +4603,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M21:XFD21 A21:D21 F21:H21 J21</xm:sqref>
+          <xm:sqref>O21:XFD21 A21:D21 F21:G21 L21 I21:J21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4D97FA75-76F6-4FF5-894D-D8F085836ADA}">
@@ -4151,7 +4616,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M24:XFD24 A24:D24 F24:H24 J24</xm:sqref>
+          <xm:sqref>O24:XFD24 A24:D24 F24:G24 L24 I24:J24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D52F8789-0951-42AE-89B8-918393A72370}">
@@ -4164,7 +4629,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M25:XFD25 A25:D25 F25:H25 J25</xm:sqref>
+          <xm:sqref>O25:XFD25 A25:D25 F25:G25 L25 I25:J25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5116F6CD-AA68-44F1-8493-873CEF528752}">

--- a/materials/ct81seg_runtime_stats.xlsx
+++ b/materials/ct81seg_runtime_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\projects\CT81SegApp\materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD623C9-D3C0-49FC-BA58-D168E965E29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC0CFE6-DB1D-4C85-A0B4-1C11C7EF5C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{CC17635D-67C6-4E2B-BF5C-757E9F68CB22}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="91">
   <si>
     <t>OS</t>
     <phoneticPr fontId="1"/>
@@ -744,9 +744,6 @@
     <t>RTX A6000 Ada</t>
   </si>
   <si>
-    <t>Cleanning labelmap</t>
-  </si>
-  <si>
     <t>RTX 3090</t>
   </si>
   <si>
@@ -754,6 +751,18 @@
   </si>
   <si>
     <t>Machine 3 (chicat)</t>
+  </si>
+  <si>
+    <t>OOM</t>
+  </si>
+  <si>
+    <t>Intel Core i9-10980XE</t>
+  </si>
+  <si>
+    <t>2019/11</t>
+  </si>
+  <si>
+    <t>Cleaning labelmap</t>
   </si>
 </sst>
 </file>
@@ -934,7 +943,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1013,55 +1022,73 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1407,7 +1434,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomRight" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.2"/>
@@ -1419,9 +1446,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27"/>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
       <c r="D1" s="20" t="s">
         <v>36</v>
       </c>
@@ -1432,7 +1459,7 @@
         <v>68</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>60</v>
@@ -1509,10 +1536,10 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="22" t="s">
         <v>7</v>
       </c>
@@ -1551,8 +1578,8 @@
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="21" t="s">
         <v>0</v>
       </c>
@@ -1591,8 +1618,8 @@
       </c>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="21" t="s">
         <v>27</v>
       </c>
@@ -1671,10 +1698,10 @@
       </c>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="30"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="21" t="s">
         <v>5</v>
       </c>
@@ -1687,7 +1714,9 @@
       <c r="F8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="H8" s="1" t="s">
         <v>60</v>
       </c>
@@ -1711,8 +1740,8 @@
       </c>
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="21" t="s">
         <v>38</v>
       </c>
@@ -1725,7 +1754,9 @@
       <c r="F9" s="7">
         <v>1399</v>
       </c>
-      <c r="G9" s="7"/>
+      <c r="G9" s="7">
+        <v>979</v>
+      </c>
       <c r="H9" s="1" t="s">
         <v>60</v>
       </c>
@@ -1749,8 +1780,8 @@
       </c>
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="21" t="s">
         <v>39</v>
       </c>
@@ -1765,7 +1796,10 @@
         <f>F9*155.9</f>
         <v>218104.1</v>
       </c>
-      <c r="G10" s="8"/>
+      <c r="G10" s="8">
+        <f>G9*155.9</f>
+        <v>152626.1</v>
+      </c>
       <c r="H10" s="1" t="s">
         <v>60</v>
       </c>
@@ -1792,8 +1826,8 @@
       </c>
     </row>
     <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="21" t="s">
         <v>40</v>
       </c>
@@ -1806,7 +1840,9 @@
       <c r="F11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="H11" s="1" t="s">
         <v>60</v>
       </c>
@@ -1830,8 +1866,8 @@
       </c>
     </row>
     <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="21" t="s">
         <v>41</v>
       </c>
@@ -1844,7 +1880,9 @@
       <c r="F12" s="2">
         <v>16</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="2">
+        <v>36</v>
+      </c>
       <c r="H12" s="1" t="s">
         <v>60</v>
       </c>
@@ -1868,8 +1906,8 @@
       </c>
     </row>
     <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="21" t="s">
         <v>42</v>
       </c>
@@ -1882,7 +1920,9 @@
       <c r="F13" s="2">
         <v>3.1</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2">
+        <v>3</v>
+      </c>
       <c r="H13" s="1" t="s">
         <v>60</v>
       </c>
@@ -1906,8 +1946,8 @@
       </c>
     </row>
     <row r="14" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="23" t="s">
         <v>43</v>
       </c>
@@ -1920,7 +1960,9 @@
       <c r="F14" s="10">
         <v>4.7</v>
       </c>
-      <c r="G14" s="10"/>
+      <c r="G14" s="10">
+        <v>4.5999999999999996</v>
+      </c>
       <c r="H14" s="12" t="s">
         <v>60</v>
       </c>
@@ -1944,10 +1986,10 @@
       </c>
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="30"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="21" t="s">
         <v>1</v>
       </c>
@@ -1961,7 +2003,7 @@
         <v>80</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>60</v>
@@ -1986,8 +2028,8 @@
       </c>
     </row>
     <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="21" t="s">
         <v>44</v>
       </c>
@@ -2026,8 +2068,8 @@
       </c>
     </row>
     <row r="17" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="21" t="s">
         <v>45</v>
       </c>
@@ -2071,8 +2113,8 @@
       </c>
     </row>
     <row r="18" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="21" t="s">
         <v>46</v>
       </c>
@@ -2086,7 +2128,7 @@
         <v>31</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>60</v>
@@ -2111,8 +2153,8 @@
       </c>
     </row>
     <row r="19" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="21" t="s">
         <v>47</v>
       </c>
@@ -2151,8 +2193,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="21" t="s">
         <v>48</v>
       </c>
@@ -2191,8 +2233,8 @@
       </c>
     </row>
     <row r="21" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="23" t="s">
         <v>49</v>
       </c>
@@ -2231,10 +2273,10 @@
       </c>
     </row>
     <row r="22" spans="1:14" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="26"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="21" t="s">
         <v>6</v>
       </c>
@@ -2273,8 +2315,8 @@
       </c>
     </row>
     <row r="23" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="21" t="s">
         <v>50</v>
       </c>
@@ -2313,8 +2355,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="21" t="s">
         <v>51</v>
       </c>
@@ -2353,8 +2395,8 @@
       </c>
     </row>
     <row r="25" spans="1:14" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="21" t="s">
         <v>52</v>
       </c>
@@ -2405,20 +2447,24 @@
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="32" t="s">
+    <row r="27" spans="1:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="37" t="s">
         <v>19</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
+      <c r="D27" s="16">
+        <v>0.28947568614967101</v>
+      </c>
+      <c r="E27" s="16">
+        <v>0.29005478089675302</v>
+      </c>
       <c r="F27" s="16">
-        <v>2.3914103749993898</v>
+        <v>2.6051347229949799</v>
       </c>
       <c r="G27" s="16">
         <v>0.49870329909026601</v>
@@ -2446,15 +2492,19 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
+      <c r="D28" s="16">
+        <v>0.40169003908522399</v>
+      </c>
+      <c r="E28" s="16">
+        <v>0.417909569106996</v>
+      </c>
       <c r="F28" s="16">
-        <v>39.583543145999997</v>
+        <v>23.149055004003401</v>
       </c>
       <c r="G28" s="16">
         <v>0.45725696720182801</v>
@@ -2482,15 +2532,19 @@
       </c>
     </row>
     <row r="29" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="27"/>
-      <c r="B29" s="29"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="32"/>
       <c r="C29" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
+      <c r="D29" s="17">
+        <v>1.7167896160390199</v>
+      </c>
+      <c r="E29" s="17">
+        <v>1.5497802470344999</v>
+      </c>
       <c r="F29" s="17">
-        <v>2.0446872010070298</v>
+        <v>1.86009966100391</v>
       </c>
       <c r="G29" s="17">
         <v>1.5575696257874301</v>
@@ -2518,17 +2572,21 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="27"/>
-      <c r="B30" s="36" t="s">
+      <c r="A30" s="42"/>
+      <c r="B30" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
+      <c r="D30" s="16">
+        <v>21.485813739011</v>
+      </c>
+      <c r="E30" s="16">
+        <v>12.4515538420528</v>
+      </c>
       <c r="F30" s="16">
-        <v>20.214288881004901</v>
+        <v>20.471961186994999</v>
       </c>
       <c r="G30" s="16">
         <v>10.2660036482848</v>
@@ -2555,126 +2613,142 @@
         <v>2.2291152272373398</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="27"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16">
-        <v>9.4548960510000999</v>
-      </c>
-      <c r="G31" s="16">
+    <row r="31" spans="1:14" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="42"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="46">
+        <v>7.00065177911892</v>
+      </c>
+      <c r="E31" s="46">
+        <v>3.8870106949470902</v>
+      </c>
+      <c r="F31" s="46">
+        <v>9.4841466119978506</v>
+      </c>
+      <c r="G31" s="46">
+        <v>7.1944337543100101</v>
+      </c>
+      <c r="H31" s="46">
+        <v>4.3598448107950301</v>
+      </c>
+      <c r="I31" s="46">
+        <v>7.30843115199999</v>
+      </c>
+      <c r="J31" s="46">
+        <v>6.8513100670243103</v>
+      </c>
+      <c r="K31" s="47">
+        <v>3.7633447319967601</v>
+      </c>
+      <c r="L31" s="46">
+        <v>6.6282632141373998</v>
+      </c>
+      <c r="M31" s="46">
+        <v>3.3692198800854301</v>
+      </c>
+      <c r="N31" s="46">
+        <v>1.34598894231021</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="42"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="16">
+        <v>9.06872528209351</v>
+      </c>
+      <c r="E32" s="16">
+        <v>4.0337025809567404</v>
+      </c>
+      <c r="F32" s="16">
+        <v>9.5171493130037508</v>
+      </c>
+      <c r="G32" s="16">
         <v>10.183667462784699</v>
       </c>
-      <c r="H31" s="16">
+      <c r="H32" s="16">
         <v>4.4993193191476104</v>
       </c>
-      <c r="I31" s="16">
+      <c r="I32" s="16">
         <v>9.6794922199999807</v>
       </c>
-      <c r="J31" s="16">
+      <c r="J32" s="16">
         <v>9.7039891590247809</v>
       </c>
-      <c r="K31" s="25">
+      <c r="K32" s="25">
         <v>4.2973486040136697</v>
       </c>
-      <c r="L31" s="16">
+      <c r="L32" s="16">
         <v>8.6338418349623591</v>
       </c>
-      <c r="M31" s="16">
+      <c r="M32" s="16">
         <v>3.7967990208417102</v>
       </c>
-      <c r="N31" s="16">
+      <c r="N32" s="16">
         <v>1.07157681882381</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="27"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16">
-        <v>23.7103040420042</v>
-      </c>
-      <c r="G32" s="16">
+    <row r="33" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="42"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="17">
+        <v>42.920024283928797</v>
+      </c>
+      <c r="E33" s="17">
+        <v>24.988091673003499</v>
+      </c>
+      <c r="F33" s="17">
+        <v>23.858830097989902</v>
+      </c>
+      <c r="G33" s="17">
         <v>27.9142418378032</v>
       </c>
-      <c r="H32" s="16">
+      <c r="H33" s="17">
         <v>18.120484311133598</v>
       </c>
-      <c r="I32" s="16">
+      <c r="I33" s="17">
         <v>17.480355906</v>
       </c>
-      <c r="J32" s="16">
+      <c r="J33" s="17">
         <v>22.579874332994201</v>
       </c>
-      <c r="K32" s="25">
+      <c r="K33" s="24">
         <v>15.8174322310078</v>
       </c>
-      <c r="L32" s="16">
+      <c r="L33" s="17">
         <v>19.810522187035499</v>
       </c>
-      <c r="M32" s="16">
+      <c r="M33" s="17">
         <v>11.513873033225501</v>
       </c>
-      <c r="N32" s="16">
+      <c r="N33" s="17">
         <v>8.6620373059995401</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="27"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17">
-        <v>13.216237984000999</v>
-      </c>
-      <c r="G33" s="17">
-        <v>7.1944337543100101</v>
-      </c>
-      <c r="H33" s="17">
-        <v>4.3598448107950301</v>
-      </c>
-      <c r="I33" s="17">
-        <v>7.30843115199999</v>
-      </c>
-      <c r="J33" s="17">
-        <v>6.8513100670243103</v>
-      </c>
-      <c r="K33" s="24">
-        <v>3.7633447319967601</v>
-      </c>
-      <c r="L33" s="17">
-        <v>6.6282632141373998</v>
-      </c>
-      <c r="M33" s="17">
-        <v>3.3692198800854301</v>
-      </c>
-      <c r="N33" s="17">
-        <v>1.34598894231021</v>
-      </c>
-    </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="27"/>
-      <c r="B34" s="30" t="s">
+      <c r="A34" s="42"/>
+      <c r="B34" s="36" t="s">
         <v>21</v>
       </c>
       <c r="C34" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
+      <c r="D34" s="16">
+        <v>0.74350203084759403</v>
+      </c>
+      <c r="E34" s="16">
+        <v>0.711838962975889</v>
+      </c>
       <c r="F34" s="16">
-        <v>0.821441968000726</v>
+        <v>0.80438914398837302</v>
       </c>
       <c r="G34" s="16">
         <v>0.79568387707695298</v>
@@ -2702,15 +2776,19 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
+      <c r="D35" s="16">
+        <v>8.4957131184637494E-3</v>
+      </c>
+      <c r="E35" s="16">
+        <v>2.9960449319332799E-3</v>
+      </c>
       <c r="F35" s="16">
-        <v>4.50252729933708E-2</v>
+        <v>3.6130203006905497E-2</v>
       </c>
       <c r="G35" s="16">
         <v>9.8841292783617904E-3</v>
@@ -2738,15 +2816,19 @@
       </c>
     </row>
     <row r="36" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="27"/>
-      <c r="B36" s="29"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
+      <c r="D36" s="17">
+        <v>3.8817622251808599</v>
+      </c>
+      <c r="E36" s="17">
+        <v>3.8517798108514398</v>
+      </c>
       <c r="F36" s="17">
-        <v>12.7788297310034</v>
+        <v>10.275319695996499</v>
       </c>
       <c r="G36" s="17">
         <v>3.4158759671263299</v>
@@ -2774,17 +2856,21 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="27"/>
-      <c r="B37" s="27" t="s">
+      <c r="A37" s="42"/>
+      <c r="B37" s="31" t="s">
         <v>16</v>
       </c>
       <c r="C37" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
+      <c r="D37" s="16">
+        <v>87.870627483120103</v>
+      </c>
+      <c r="E37" s="16">
+        <v>54.1954199268948</v>
+      </c>
       <c r="F37" s="16">
-        <v>124.802322556002</v>
+        <v>102.62683602000401</v>
       </c>
       <c r="G37" s="16">
         <v>62.738650712650198</v>
@@ -2812,15 +2898,19 @@
       </c>
     </row>
     <row r="38" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="32"/>
       <c r="C38" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
+      <c r="D38" s="17">
+        <v>106</v>
+      </c>
+      <c r="E38" s="17">
+        <v>78</v>
+      </c>
       <c r="F38" s="17">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="G38" s="17">
         <v>84</v>
@@ -2847,19 +2937,25 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="26" t="s">
+    <row r="39" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="36" t="s">
         <v>19</v>
       </c>
       <c r="C39" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
+      <c r="D39" s="16">
+        <v>0.31452587293460899</v>
+      </c>
+      <c r="E39" s="16">
+        <v>0.35773612093180401</v>
+      </c>
+      <c r="F39" s="16">
+        <v>2.0449932280025598</v>
+      </c>
       <c r="G39" s="16">
         <v>0.50284448871388998</v>
       </c>
@@ -2886,14 +2982,20 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
+      <c r="D40" s="16">
+        <v>0.39305691816844002</v>
+      </c>
+      <c r="E40" s="16">
+        <v>0.42807489400729498</v>
+      </c>
+      <c r="F40" s="16">
+        <v>25.751935071006301</v>
+      </c>
       <c r="G40" s="16">
         <v>0.42873780196532602</v>
       </c>
@@ -2920,14 +3022,20 @@
       </c>
     </row>
     <row r="41" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="27"/>
-      <c r="B41" s="29"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="32"/>
       <c r="C41" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
+      <c r="D41" s="17">
+        <v>5.4774200348183504</v>
+      </c>
+      <c r="E41" s="17">
+        <v>5.44996631890535</v>
+      </c>
+      <c r="F41" s="17">
+        <v>6.9665359909995397</v>
+      </c>
       <c r="G41" s="17">
         <v>5.0059210187755498</v>
       </c>
@@ -2954,16 +3062,22 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="27"/>
+      <c r="A42" s="28"/>
       <c r="B42" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="41" t="s">
+      <c r="C42" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
+      <c r="D42" s="16">
+        <v>76.224998365854802</v>
+      </c>
+      <c r="E42" s="16">
+        <v>42.734444471076102</v>
+      </c>
+      <c r="F42" s="16">
+        <v>62.125924630992799</v>
+      </c>
       <c r="G42" s="16">
         <v>39.198459480889099</v>
       </c>
@@ -2989,119 +3103,143 @@
         <v>5.8319269688799897</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="27"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16">
+    <row r="43" spans="1:14" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="28"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="F43" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="G43" s="46">
+        <v>29.341815375722899</v>
+      </c>
+      <c r="H43" s="46">
+        <v>15.7044425089843</v>
+      </c>
+      <c r="I43" s="46">
+        <v>28.285379806999899</v>
+      </c>
+      <c r="J43" s="47">
+        <v>28.410903652984398</v>
+      </c>
+      <c r="K43" s="47">
+        <v>15.2793028439919</v>
+      </c>
+      <c r="L43" s="47">
+        <v>24.741927819326499</v>
+      </c>
+      <c r="M43" s="47">
+        <v>12.9752079010941</v>
+      </c>
+      <c r="N43" s="47">
+        <v>5.1526448610238704</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="28"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G44" s="16">
         <v>41.665881626773597</v>
       </c>
-      <c r="H43" s="16">
+      <c r="H44" s="16">
         <v>18.820871174801098</v>
       </c>
-      <c r="I43" s="16">
+      <c r="I44" s="16">
         <v>39.318443496999997</v>
       </c>
-      <c r="J43" s="25">
+      <c r="J44" s="25">
         <v>39.802582204982102</v>
       </c>
-      <c r="K43" s="25">
+      <c r="K44" s="25">
         <v>18.204196125007002</v>
       </c>
-      <c r="L43" s="25">
+      <c r="L44" s="25">
         <v>35.144391817040699</v>
       </c>
-      <c r="M43" s="25">
+      <c r="M44" s="25">
         <v>14.9038841850124</v>
       </c>
-      <c r="N43" s="25">
+      <c r="N44" s="25">
         <v>4.4372280300594804</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="27"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16">
+    <row r="45" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="28"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G45" s="17">
         <v>65.217677915934402</v>
       </c>
-      <c r="H44" s="16">
+      <c r="H45" s="17">
         <v>52.023775223642502</v>
       </c>
-      <c r="I44" s="16">
+      <c r="I45" s="17">
         <v>42.003265999</v>
       </c>
-      <c r="J44" s="25">
+      <c r="J45" s="24">
         <v>48.866922488988997</v>
       </c>
-      <c r="K44" s="25">
+      <c r="K45" s="24">
         <v>27.922537649981599</v>
       </c>
-      <c r="L44" s="25">
+      <c r="L45" s="24">
         <v>43.576578847132602</v>
       </c>
-      <c r="M44" s="25">
+      <c r="M45" s="24">
         <v>24.685732924844999</v>
       </c>
-      <c r="N44" s="25">
+      <c r="N45" s="24">
         <v>13.8762322496622</v>
       </c>
     </row>
-    <row r="45" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="27"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17">
-        <v>29.341815375722899</v>
-      </c>
-      <c r="H45" s="17">
-        <v>15.7044425089843</v>
-      </c>
-      <c r="I45" s="17">
-        <v>28.285379806999899</v>
-      </c>
-      <c r="J45" s="24">
-        <v>28.410903652984398</v>
-      </c>
-      <c r="K45" s="24">
-        <v>15.2793028439919</v>
-      </c>
-      <c r="L45" s="24">
-        <v>24.741927819326499</v>
-      </c>
-      <c r="M45" s="24">
-        <v>12.9752079010941</v>
-      </c>
-      <c r="N45" s="24">
-        <v>5.1526448610238704</v>
-      </c>
-    </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="27"/>
-      <c r="B46" s="30" t="s">
+      <c r="A46" s="28"/>
+      <c r="B46" s="36" t="s">
         <v>21</v>
       </c>
       <c r="C46" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
+      <c r="D46" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="G46" s="16">
         <v>3.17040770314633</v>
       </c>
@@ -3128,14 +3266,20 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
+      <c r="A47" s="28"/>
+      <c r="B47" s="31"/>
       <c r="C47" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
+      <c r="D47" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="G47" s="16">
         <v>8.9637078344821895E-3</v>
       </c>
@@ -3162,14 +3306,20 @@
       </c>
     </row>
     <row r="48" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="27"/>
-      <c r="B48" s="29"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="32"/>
       <c r="C48" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
+      <c r="D48" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>62</v>
+      </c>
       <c r="G48" s="17">
         <v>3.5821724026463899</v>
       </c>
@@ -3196,16 +3346,22 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="27"/>
-      <c r="B49" s="27" t="s">
+      <c r="A49" s="28"/>
+      <c r="B49" s="31" t="s">
         <v>16</v>
       </c>
       <c r="C49" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
+      <c r="D49" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="G49" s="16">
         <v>188.93581879418301</v>
       </c>
@@ -3232,14 +3388,20 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="31"/>
       <c r="C50" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
+      <c r="D50" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="G50" s="16">
         <v>212</v>
       </c>
@@ -3267,15 +3429,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A22:B25"/>
-    <mergeCell ref="A27:A38"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A4:B7"/>
-    <mergeCell ref="A8:B14"/>
-    <mergeCell ref="A15:B21"/>
     <mergeCell ref="A39:A50"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B33"/>
@@ -3285,10 +3438,19 @@
     <mergeCell ref="B42:B45"/>
     <mergeCell ref="B46:B48"/>
     <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A27:A38"/>
+    <mergeCell ref="A22:B25"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A4:B7"/>
+    <mergeCell ref="A8:B14"/>
+    <mergeCell ref="A15:B21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A9:XFD9 A16:XFD16">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3301,8 +3463,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10:XFD10 A17:XFD17">
-    <cfRule type="dataBar" priority="4">
+  <conditionalFormatting sqref="A17:XFD17 A10:XFD10">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3316,7 +3478,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:XFD23">
-    <cfRule type="dataBar" priority="21">
+    <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3329,22 +3491,132 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27:XFD27 A39:XFD39">
+  <conditionalFormatting sqref="A39:XFD39 A27:XFD27">
+    <cfRule type="dataBar" priority="46">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0BDA52D8-3E7E-4C70-91EE-300C4C30AA93}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42:XFD42 A30:XFD30">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{61538239-4463-49B8-9A29-C3B20DF09C8A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42:XFD42 A30:XFD30 A32:XFD32 A44:XFD44">
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{58549C8B-D210-40C4-8ADE-22C497017E3B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
     <cfRule type="dataBar" priority="43">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{17182307-9233-4527-A092-39A2AC7598BF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44:XFD44 A32:XFD32">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5116F6CD-AA68-44F1-8493-873CEF528752}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45:XFD45 A33:XFD33">
+    <cfRule type="dataBar" priority="42">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0BDA52D8-3E7E-4C70-91EE-300C4C30AA93}</x14:id>
+          <x14:id>{7C48002B-3911-4813-A50C-7ECF9C19EF64}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30:XFD31 A42:XFD43">
-    <cfRule type="dataBar" priority="12">
+  <conditionalFormatting sqref="A46:XFD46 A34:XFD34">
+    <cfRule type="dataBar" priority="40">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BE90834B-BCE9-4D8B-94C3-8DF5CA7B319C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:XFD47 A35:XFD35">
+    <cfRule type="dataBar" priority="39">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{34C9D91D-6812-4B52-B085-D4926ED94F46}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48:XFD48 A36:XFD36">
+    <cfRule type="dataBar" priority="38">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C4B37561-E21A-469F-9264-28F346513E2D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49:XFD49 A37:XFD37">
+    <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3352,67 +3624,39 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{58549C8B-D210-40C4-8ADE-22C497017E3B}</x14:id>
+          <x14:id>{A795A94A-D359-4C20-8F8C-4E6E44939444}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:XFD36 A48:XFD48">
-    <cfRule type="dataBar" priority="35">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C4B37561-E21A-469F-9264-28F346513E2D}</x14:id>
+  <conditionalFormatting sqref="A49:XFD50 A37:XFD38">
+    <cfRule type="dataBar" priority="14">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FD3B9AE4-86A2-4DD2-9FB2-590D37A1F1F3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="34">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BEB72EB6-2FCA-4E6B-A21F-E30D0356FAF7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:XFD37 A49:XFD49">
-    <cfRule type="dataBar" priority="34">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A795A94A-D359-4C20-8F8C-4E6E44939444}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:XFD38 A49:XFD50">
-    <cfRule type="dataBar" priority="11">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFD6007B"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FD3B9AE4-86A2-4DD2-9FB2-590D37A1F1F3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="31">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BEB72EB6-2FCA-4E6B-A21F-E30D0356FAF7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38:XFD38 A50:XFD50">
-    <cfRule type="dataBar" priority="33">
+  <conditionalFormatting sqref="A50:XFD50 A38:XFD38">
+    <cfRule type="dataBar" priority="36">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3426,7 +3670,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:XFD40 A28:XFD28">
-    <cfRule type="dataBar" priority="42">
+    <cfRule type="dataBar" priority="45">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3440,7 +3684,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:XFD41 A29:XFD29">
-    <cfRule type="dataBar" priority="41">
+    <cfRule type="dataBar" priority="44">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3449,82 +3693,12 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{ED7249C0-7851-4FAB-A8B3-ECD1D8B07ED7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42:XFD43 A30:XFD31">
-    <cfRule type="dataBar" priority="40">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{17182307-9233-4527-A092-39A2AC7598BF}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:XFD44 A32:XFD32">
-    <cfRule type="dataBar" priority="39">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7C48002B-3911-4813-A50C-7ECF9C19EF64}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:XFD45 A33:XFD33">
-    <cfRule type="dataBar" priority="38">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7FCA8C0A-0AB4-40CA-BFDA-384E8E98208C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46:XFD46 A34:XFD34">
-    <cfRule type="dataBar" priority="37">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BE90834B-BCE9-4D8B-94C3-8DF5CA7B319C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47:XFD47 A35:XFD35">
-    <cfRule type="dataBar" priority="36">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{34C9D91D-6812-4B52-B085-D4926ED94F46}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="dataBar" priority="18">
+    <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3538,7 +3712,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="dataBar" priority="17">
+    <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3552,7 +3726,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="dataBar" priority="16">
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3566,7 +3740,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="dataBar" priority="15">
+    <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3575,12 +3749,26 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{1A1BFC80-804B-4A95-BF78-1A64F9AB28A3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:G9 I9:J9">
+    <cfRule type="dataBar" priority="85">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8C3D98AE-45B3-E349-AD08-7A2D2F0788DE}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:G12 I12">
-    <cfRule type="dataBar" priority="84">
+    <cfRule type="dataBar" priority="87">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3594,7 +3782,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:G14 I13:I14">
-    <cfRule type="dataBar" priority="85">
+    <cfRule type="dataBar" priority="88">
       <dataBar>
         <cfvo type="num" val="2"/>
         <cfvo type="max"/>
@@ -3603,12 +3791,40 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{0E5A907C-C8BB-3D4F-A865-FB20618C07B8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16:G16 I16:J16">
+    <cfRule type="dataBar" priority="89">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7FA6673F-F21D-7945-B26F-B398F1E4F700}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:G17 I17:J17">
+    <cfRule type="dataBar" priority="90">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FDE0D191-AB43-2A4B-AAED-204602D73121}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19:G19 I19">
-    <cfRule type="dataBar" priority="88">
+    <cfRule type="dataBar" priority="91">
       <dataBar>
         <cfvo type="num" val="7"/>
         <cfvo type="max"/>
@@ -3622,7 +3838,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:G20 I20">
-    <cfRule type="dataBar" priority="89">
+    <cfRule type="dataBar" priority="92">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3636,7 +3852,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:G21 I21">
-    <cfRule type="dataBar" priority="90">
+    <cfRule type="dataBar" priority="93">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3650,7 +3866,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:G24 I24">
-    <cfRule type="dataBar" priority="91">
+    <cfRule type="dataBar" priority="94">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3664,7 +3880,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:G25 I25">
-    <cfRule type="dataBar" priority="92">
+    <cfRule type="dataBar" priority="95">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3677,22 +3893,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9:G9 I9:J9">
-    <cfRule type="dataBar" priority="82">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8C3D98AE-45B3-E349-AD08-7A2D2F0788DE}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10:G10 I10:J10">
-    <cfRule type="dataBar" priority="83">
+  <conditionalFormatting sqref="I10:J10 F10:G10">
+    <cfRule type="dataBar" priority="86">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3701,40 +3903,12 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{A486E733-45FB-5745-BC12-5681A8C96E8B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16:G16 I16:J16">
-    <cfRule type="dataBar" priority="86">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7FA6673F-F21D-7945-B26F-B398F1E4F700}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17:G17 I17:J17">
-    <cfRule type="dataBar" priority="87">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FDE0D191-AB43-2A4B-AAED-204602D73121}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3748,7 +3922,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3760,7 +3934,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3774,7 +3948,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3788,7 +3962,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3800,7 +3974,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="10">
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3814,7 +3988,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9:XFD9 A9:D9 F9:G9 L9 I9:J9">
-    <cfRule type="dataBar" priority="30">
+    <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3827,8 +4001,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O10:XFD10 A10:D10 L10 F10:G10 I10:J10">
-    <cfRule type="dataBar" priority="29">
+  <conditionalFormatting sqref="O10:XFD10 A10:D10 L10 I10:J10 F10:G10">
+    <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3842,7 +4016,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O12:XFD12 A12:D12 F12:G12 L12 I12:J12">
-    <cfRule type="dataBar" priority="28">
+    <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3856,7 +4030,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13:XFD14 A13:D14 F13:G14 L13:L14 I13:J14">
-    <cfRule type="dataBar" priority="27">
+    <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3870,7 +4044,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16:XFD16 A9:D9 A16:D16 F9:G9 F16:G16 L9 L16 O9:XFD9 I16:J16 I9:J9">
-    <cfRule type="dataBar" priority="26">
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3883,8 +4057,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O17:XFD17 A10:D10 A17:D17 O10:XFD10 L10 L17 F10:G10 F17:G17 I17:J17 I10:J10">
-    <cfRule type="dataBar" priority="25">
+  <conditionalFormatting sqref="O17:XFD17 A10:D10 A17:D17 O10:XFD10 L10 L17 F17:G17 I17:J17 I10:J10 F10:G10">
+    <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3898,7 +4072,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O19:XFD19 A19:D19 F19:G19 L19 I19:J19">
-    <cfRule type="dataBar" priority="24">
+    <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3912,7 +4086,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O20:XFD20 A20:D20 F20:G20 L20 I20:J20">
-    <cfRule type="dataBar" priority="23">
+    <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3926,7 +4100,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O21:XFD21 A21:D21 F21:G21 L21 I21:J21">
-    <cfRule type="dataBar" priority="22">
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3940,7 +4114,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O24:XFD24 A24:D24 F24:G24 L24 I24:J24">
-    <cfRule type="dataBar" priority="20">
+    <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3954,7 +4128,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O25:XFD25 A25:D25 F25:G25 L25 I25:J25">
-    <cfRule type="dataBar" priority="19">
+    <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3967,7 +4141,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31:XFD31 A43:XFD43">
+  <conditionalFormatting sqref="A31:XFD31">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -3976,21 +4150,21 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5116F6CD-AA68-44F1-8493-873CEF528752}</x14:id>
+          <x14:id>{592908BD-3F7F-48DA-BD89-CC3781B3D27C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30:XFD30 A42:XFD42">
+  <conditionalFormatting sqref="A43:XFD43">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{61538239-4463-49B8-9A29-C3B20DF09C8A}</x14:id>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6E85108F-E231-4C45-A2B9-C68A40F6A563}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4023,7 +4197,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A10:XFD10 A17:XFD17</xm:sqref>
+          <xm:sqref>A17:XFD17 A10:XFD10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{185488EA-EF2F-484D-9735-35F3064F04C6}">
@@ -4049,7 +4223,20 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A27:XFD27 A39:XFD39</xm:sqref>
+          <xm:sqref>A39:XFD39 A27:XFD27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{61538239-4463-49B8-9A29-C3B20DF09C8A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A42:XFD42 A30:XFD30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{58549C8B-D210-40C4-8ADE-22C497017E3B}">
@@ -4062,7 +4249,69 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A30:XFD31 A42:XFD43</xm:sqref>
+          <x14:cfRule type="dataBar" id="{17182307-9233-4527-A092-39A2AC7598BF}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A42:XFD42 A30:XFD30 A32:XFD32 A44:XFD44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5116F6CD-AA68-44F1-8493-873CEF528752}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A44:XFD44 A32:XFD32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7C48002B-3911-4813-A50C-7ECF9C19EF64}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A45:XFD45 A33:XFD33</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BE90834B-BCE9-4D8B-94C3-8DF5CA7B319C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A46:XFD46 A34:XFD34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{34C9D91D-6812-4B52-B085-D4926ED94F46}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A47:XFD47 A35:XFD35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C4B37561-E21A-469F-9264-28F346513E2D}">
@@ -4075,7 +4324,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A36:XFD36 A48:XFD48</xm:sqref>
+          <xm:sqref>A48:XFD48 A36:XFD36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A795A94A-D359-4C20-8F8C-4E6E44939444}">
@@ -4088,7 +4337,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A37:XFD37 A49:XFD49</xm:sqref>
+          <xm:sqref>A49:XFD49 A37:XFD37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FD3B9AE4-86A2-4DD2-9FB2-590D37A1F1F3}">
@@ -4111,7 +4360,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A37:XFD38 A49:XFD50</xm:sqref>
+          <xm:sqref>A49:XFD50 A37:XFD38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{ED0BF0BD-0D7F-4B28-A5CF-75980B2566B9}">
@@ -4124,7 +4373,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A38:XFD38 A50:XFD50</xm:sqref>
+          <xm:sqref>A50:XFD50 A38:XFD38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9E678109-7150-49BE-B221-A3CFAA416250}">
@@ -4153,71 +4402,6 @@
           <xm:sqref>A41:XFD41 A29:XFD29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{17182307-9233-4527-A092-39A2AC7598BF}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A42:XFD43 A30:XFD31</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7C48002B-3911-4813-A50C-7ECF9C19EF64}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A44:XFD44 A32:XFD32</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7FCA8C0A-0AB4-40CA-BFDA-384E8E98208C}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A45:XFD45 A33:XFD33</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BE90834B-BCE9-4D8B-94C3-8DF5CA7B319C}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A46:XFD46 A34:XFD34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{34C9D91D-6812-4B52-B085-D4926ED94F46}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A47:XFD47 A35:XFD35</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BE08D743-5C31-4682-92FD-D0ED74A6E081}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
@@ -4270,6 +4454,19 @@
           <xm:sqref>D17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8C3D98AE-45B3-E349-AD08-7A2D2F0788DE}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F9:G9 I9:J9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AA69FEEE-5CC1-B446-88AE-AA0DCEE32669}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
@@ -4298,6 +4495,32 @@
           <xm:sqref>F13:G14 I13:I14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7FA6673F-F21D-7945-B26F-B398F1E4F700}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F16:G16 I16:J16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FDE0D191-AB43-2A4B-AAED-204602D73121}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F17:G17 I17:J17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E2DEF3AB-15D6-E248-822C-F35EA5D25BC2}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
@@ -4365,19 +4588,6 @@
           <xm:sqref>F25:G25 I25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8C3D98AE-45B3-E349-AD08-7A2D2F0788DE}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F9:G9 I9:J9</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A486E733-45FB-5745-BC12-5681A8C96E8B}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
@@ -4388,33 +4598,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F10:G10 I10:J10</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7FA6673F-F21D-7945-B26F-B398F1E4F700}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F16:G16 I16:J16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FDE0D191-AB43-2A4B-AAED-204602D73121}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F17:G17 I17:J17</xm:sqref>
+          <xm:sqref>I10:J10 F10:G10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{25D22E7E-FE50-430C-BE55-2002B6040486}">
@@ -4512,7 +4696,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>O10:XFD10 A10:D10 L10 F10:G10 I10:J10</xm:sqref>
+          <xm:sqref>O10:XFD10 A10:D10 L10 I10:J10 F10:G10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5709ABDC-9BD0-48E9-A6AB-106C154A8CEB}">
@@ -4564,7 +4748,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>O17:XFD17 A10:D10 A17:D17 O10:XFD10 L10 L17 F10:G10 F17:G17 I17:J17 I10:J10</xm:sqref>
+          <xm:sqref>O17:XFD17 A10:D10 A17:D17 O10:XFD10 L10 L17 F17:G17 I17:J17 I10:J10 F10:G10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9EC12AEF-9FE7-4A07-8127-10331FB9F457}">
@@ -4632,7 +4816,7 @@
           <xm:sqref>O25:XFD25 A25:D25 F25:G25 L25 I25:J25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5116F6CD-AA68-44F1-8493-873CEF528752}">
+          <x14:cfRule type="dataBar" id="{592908BD-3F7F-48DA-BD89-CC3781B3D27C}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4642,20 +4826,20 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A31:XFD31 A43:XFD43</xm:sqref>
+          <xm:sqref>A31:XFD31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{61538239-4463-49B8-9A29-C3B20DF09C8A}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFFF555A"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A30:XFD30 A42:XFD42</xm:sqref>
+          <x14:cfRule type="dataBar" id="{6E85108F-E231-4C45-A2B9-C68A40F6A563}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A43:XFD43</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/materials/ct81seg_runtime_stats.xlsx
+++ b/materials/ct81seg_runtime_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\projects\CT81SegApp\materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC0CFE6-DB1D-4C85-A0B4-1C11C7EF5C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52078DC0-19BB-44BC-BFD6-49B8EE5A4F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{CC17635D-67C6-4E2B-BF5C-757E9F68CB22}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CC17635D-67C6-4E2B-BF5C-757E9F68CB22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="101">
   <si>
     <t>OS</t>
     <phoneticPr fontId="1"/>
@@ -696,9 +696,6 @@
     <t>SATA SSD</t>
   </si>
   <si>
-    <t>Machine 2 (devonrex)</t>
-  </si>
-  <si>
     <t>AMD EPYC 9454</t>
   </si>
   <si>
@@ -708,15 +705,6 @@
     <t>2022/12</t>
   </si>
   <si>
-    <t>Machine3 (orange)</t>
-  </si>
-  <si>
-    <t>Machine 4 (toyger)</t>
-  </si>
-  <si>
-    <t>Machine 5 (pampascat)</t>
-  </si>
-  <si>
     <t>Laptop</t>
   </si>
   <si>
@@ -750,9 +738,6 @@
     <t>2020/9</t>
   </si>
   <si>
-    <t>Machine 3 (chicat)</t>
-  </si>
-  <si>
     <t>OOM</t>
   </si>
   <si>
@@ -763,6 +748,51 @@
   </si>
   <si>
     <t>Cleaning labelmap</t>
+  </si>
+  <si>
+    <t>Intel Core i7-12700H</t>
+  </si>
+  <si>
+    <t>2022/1</t>
+  </si>
+  <si>
+    <t>RTX 3080ti</t>
+  </si>
+  <si>
+    <t>Uemura</t>
+  </si>
+  <si>
+    <t>Intel Core i9-10980HK</t>
+  </si>
+  <si>
+    <t>2020/4</t>
+  </si>
+  <si>
+    <t>Quadro RTX 4000 Max-Q</t>
+  </si>
+  <si>
+    <t>2019/5</t>
+  </si>
+  <si>
+    <t>Machine 2</t>
+  </si>
+  <si>
+    <t>Machine 3 (devonrex)</t>
+  </si>
+  <si>
+    <t>Machine 4</t>
+  </si>
+  <si>
+    <t>Machine 5 (chicat)</t>
+  </si>
+  <si>
+    <t>Machine 6 (orange)</t>
+  </si>
+  <si>
+    <t>Machine 7 (toyger)</t>
+  </si>
+  <si>
+    <t>Machine 8 (pampascat)</t>
   </si>
 </sst>
 </file>
@@ -943,7 +973,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1028,14 +1058,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1043,53 +1073,35 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1428,24 +1440,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C0C41F-649F-411D-8D32-F880ADA04FFA}">
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J30" sqref="J30"/>
+      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" style="21" customWidth="1"/>
-    <col min="2" max="2" width="8.36328125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="22.26953125" style="21" customWidth="1"/>
-    <col min="4" max="31" width="24" customWidth="1"/>
+    <col min="1" max="1" width="13.125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="8.375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="22.25" style="21" customWidth="1"/>
+    <col min="4" max="33" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -1456,39 +1468,45 @@
         <v>60</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>60</v>
+        <v>95</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>96</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>60</v>
+        <v>97</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>98</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:16" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="20" t="s">
         <v>3</v>
       </c>
@@ -1496,22 +1514,22 @@
         <v>60</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>60</v>
+      <c r="H2" s="20" t="s">
+        <v>89</v>
       </c>
       <c r="I2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="20" t="s">
         <v>3</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="L2" s="20" t="s">
         <v>3</v>
@@ -1519,27 +1537,35 @@
       <c r="M2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+    <row r="3" spans="1:16" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="4"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
       <c r="I3" s="4"/>
+      <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="22" t="s">
         <v>7</v>
       </c>
@@ -1549,37 +1575,43 @@
       <c r="E4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>24</v>
+      <c r="F4" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4" s="18" t="s">
+      <c r="H4" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L4" s="15" t="s">
+      <c r="J4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
+    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="21" t="s">
         <v>0</v>
       </c>
@@ -1592,20 +1624,20 @@
       <c r="F5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>60</v>
+      <c r="J5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="L5" s="15" t="s">
         <v>26</v>
@@ -1613,13 +1645,19 @@
       <c r="M5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
+    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="21" t="s">
         <v>27</v>
       </c>
@@ -1632,20 +1670,20 @@
       <c r="F6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" s="13" t="s">
+      <c r="J6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" s="13" t="s">
         <v>28</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>34</v>
@@ -1653,13 +1691,19 @@
       <c r="M6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
+    <row r="7" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="23" t="s">
         <v>37</v>
       </c>
@@ -1675,17 +1719,17 @@
       <c r="G7" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>60</v>
+      <c r="H7" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="I7" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="19" t="s">
         <v>26</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>60</v>
       </c>
       <c r="L7" s="19" t="s">
         <v>26</v>
@@ -1693,15 +1737,21 @@
       <c r="M7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="N7" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="36" t="s">
+    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="36"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="21" t="s">
         <v>5</v>
       </c>
@@ -1711,35 +1761,41 @@
       <c r="E8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>60</v>
+      <c r="H8" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="M8" s="1" t="s">
         <v>60</v>
       </c>
       <c r="N8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="31"/>
       <c r="B9" s="31"/>
       <c r="C9" s="21" t="s">
@@ -1752,34 +1808,40 @@
         <v>60</v>
       </c>
       <c r="F9" s="7">
+        <v>643</v>
+      </c>
+      <c r="G9" s="7">
         <v>1399</v>
       </c>
-      <c r="G9" s="7">
+      <c r="H9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="7">
         <v>979</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="7">
+      <c r="J9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="7">
         <v>668</v>
       </c>
-      <c r="J9" s="7">
+      <c r="L9" s="7">
         <v>1039</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L9" s="7">
+      <c r="M9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N9" s="7">
         <v>5225</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="N9" s="1" t="s">
+      <c r="O9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="31"/>
       <c r="B10" s="31"/>
       <c r="C10" s="21" t="s">
@@ -1794,38 +1856,45 @@
       </c>
       <c r="F10" s="8">
         <f>F9*155.9</f>
-        <v>218104.1</v>
+        <v>100243.7</v>
       </c>
       <c r="G10" s="8">
         <f>G9*155.9</f>
-        <v>152626.1</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>60</v>
+        <v>218104.1</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="I10" s="8">
         <f>I9*155.9</f>
+        <v>152626.1</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="8">
+        <f>K9*155.9</f>
         <v>104141.2</v>
-      </c>
-      <c r="J10" s="8">
-        <f>J9*155.9</f>
-        <v>161980.1</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="L10" s="8">
         <f>L9*155.9</f>
+        <v>161980.1</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N10" s="8">
+        <f>N9*155.9</f>
         <v>814577.5</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="31"/>
       <c r="B11" s="31"/>
       <c r="C11" s="21" t="s">
@@ -1837,35 +1906,41 @@
       <c r="E11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>60</v>
+      <c r="H11" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="M11" s="1" t="s">
         <v>60</v>
       </c>
       <c r="N11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="31"/>
       <c r="B12" s="31"/>
       <c r="C12" s="21" t="s">
@@ -1877,35 +1952,41 @@
       <c r="E12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>16</v>
       </c>
       <c r="G12" s="2">
+        <v>32</v>
+      </c>
+      <c r="H12" s="2">
+        <v>20</v>
+      </c>
+      <c r="I12" s="2">
         <v>36</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" s="2">
+      <c r="J12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="2">
         <v>32</v>
       </c>
-      <c r="J12" s="1">
+      <c r="L12" s="1">
         <v>24</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L12" s="1">
+      <c r="M12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N12" s="1">
         <v>48</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="N12" s="1" t="s">
+      <c r="O12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="31"/>
       <c r="B13" s="31"/>
       <c r="C13" s="21" t="s">
@@ -1917,35 +1998,41 @@
       <c r="E13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="G13" s="2">
         <v>3.1</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H13" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I13" s="2">
         <v>3</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I13" s="2">
+      <c r="J13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J13" s="1">
+      <c r="L13" s="1">
         <v>3.2</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L13" s="1">
+      <c r="M13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13" s="1">
         <v>2.75</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="N13" s="1" t="s">
+      <c r="O13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="23" t="s">
@@ -1957,77 +2044,89 @@
       <c r="E14" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="12">
+        <v>5.3</v>
+      </c>
+      <c r="G14" s="10">
         <v>4.7</v>
       </c>
-      <c r="G14" s="10">
+      <c r="H14" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="I14" s="10">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H14" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="I14" s="10">
+      <c r="J14" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14" s="10">
         <v>5.6</v>
       </c>
-      <c r="J14" s="12">
+      <c r="L14" s="12">
         <v>4.5999999999999996</v>
       </c>
-      <c r="K14" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="L14" s="12">
+      <c r="M14" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="N14" s="12">
         <v>3.8</v>
       </c>
-      <c r="M14" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="N14" s="12" t="s">
+      <c r="O14" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="36" t="s">
+    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="36"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="21" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="N15" s="1" t="s">
+      <c r="O15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="31"/>
       <c r="B16" s="31"/>
       <c r="C16" s="21" t="s">
@@ -2039,35 +2138,41 @@
       <c r="E16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="7">
         <v>999</v>
       </c>
-      <c r="G16" s="7">
+      <c r="H16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="7">
         <v>1499</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I16" s="7" t="s">
+      <c r="J16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J16" s="7">
+      <c r="L16" s="7">
         <v>2250</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L16" s="7">
+      <c r="M16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N16" s="7">
         <v>6799</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="N16" s="1" t="s">
+      <c r="O16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="31"/>
       <c r="B17" s="31"/>
       <c r="C17" s="21" t="s">
@@ -2080,39 +2185,45 @@
       <c r="E17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="8">
-        <f>F16*155.9</f>
-        <v>155744.1</v>
+      <c r="F17" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="G17" s="8">
         <f>G16*155.9</f>
+        <v>155744.1</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="8">
+        <f>I16*155.9</f>
         <v>233694.1</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" s="8" t="s">
+      <c r="J17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K17" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="J17" s="8">
-        <f>J16*155.9</f>
-        <v>350775</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="L17" s="8">
         <f>L16*155.9</f>
+        <v>350775</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N17" s="8">
+        <f>N16*155.9</f>
         <v>1059964.1000000001</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="N17" s="1" t="s">
+      <c r="O17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="31"/>
       <c r="B18" s="31"/>
       <c r="C18" s="21" t="s">
@@ -2124,35 +2235,41 @@
       <c r="E18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>60</v>
+      <c r="H18" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="I18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="M18" s="1" t="s">
         <v>60</v>
       </c>
       <c r="N18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="31"/>
       <c r="B19" s="31"/>
       <c r="C19" s="21" t="s">
@@ -2164,23 +2281,23 @@
       <c r="E19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>7.5</v>
       </c>
       <c r="G19" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="H19" s="2">
         <v>8.6</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="I19" s="2">
+        <v>8.6</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K19" s="2">
         <v>8.9</v>
-      </c>
-      <c r="J19" s="1">
-        <v>8.9</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="L19" s="1">
         <v>8.9</v>
@@ -2188,11 +2305,17 @@
       <c r="M19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="N19" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="31"/>
       <c r="B20" s="31"/>
       <c r="C20" s="21" t="s">
@@ -2204,35 +2327,41 @@
       <c r="E20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
+        <v>8</v>
+      </c>
+      <c r="G20" s="2">
         <v>11</v>
       </c>
-      <c r="G20" s="2">
+      <c r="H20" s="2">
+        <v>16</v>
+      </c>
+      <c r="I20" s="2">
         <v>24</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I20" s="2">
+      <c r="J20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K20" s="2">
         <v>16</v>
       </c>
-      <c r="J20" s="1">
+      <c r="L20" s="1">
         <v>24</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L20" s="1">
+      <c r="M20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N20" s="1">
         <v>48</v>
       </c>
-      <c r="M20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="N20" s="1" t="s">
+      <c r="O20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="23" t="s">
@@ -2244,39 +2373,45 @@
       <c r="E21" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="12">
+        <v>2560</v>
+      </c>
+      <c r="G21" s="10">
         <v>4352</v>
       </c>
-      <c r="G21" s="10">
+      <c r="H21" s="10">
+        <v>7424</v>
+      </c>
+      <c r="I21" s="10">
         <v>10496</v>
       </c>
-      <c r="H21" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="I21" s="10">
+      <c r="J21" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K21" s="10">
         <v>9728</v>
       </c>
-      <c r="J21" s="12">
+      <c r="L21" s="12">
         <v>7680</v>
       </c>
-      <c r="K21" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="L21" s="12">
+      <c r="M21" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="N21" s="12">
         <v>18176</v>
       </c>
-      <c r="M21" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="N21" s="12" t="s">
+      <c r="O21" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="28" t="s">
+    <row r="22" spans="1:16" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="28"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="21" t="s">
         <v>6</v>
       </c>
@@ -2286,37 +2421,40 @@
       <c r="E22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="G22" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="H22" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I22" s="15" t="s">
+      <c r="J22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K22" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="J22" s="15" t="s">
+      <c r="L22" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L22" s="18" t="s">
+      <c r="M22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N22" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="M22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="N22" s="1" t="s">
+      <c r="O22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
+    <row r="23" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="21" t="s">
         <v>50</v>
       </c>
@@ -2333,16 +2471,16 @@
         <v>1</v>
       </c>
       <c r="H23" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" s="1">
         <v>1</v>
       </c>
       <c r="J23" s="1">
+        <v>2</v>
+      </c>
+      <c r="K23" s="1">
         <v>1</v>
-      </c>
-      <c r="K23" s="1">
-        <v>2</v>
       </c>
       <c r="L23" s="1">
         <v>1</v>
@@ -2351,12 +2489,18 @@
         <v>2</v>
       </c>
       <c r="N23" s="1">
+        <v>1</v>
+      </c>
+      <c r="O23" s="1">
+        <v>2</v>
+      </c>
+      <c r="P23" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
+    <row r="24" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="21" t="s">
         <v>51</v>
       </c>
@@ -2366,23 +2510,23 @@
       <c r="E24" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>8</v>
       </c>
       <c r="G24" s="2">
         <v>8</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>60</v>
+      <c r="H24" s="2">
+        <v>8</v>
       </c>
       <c r="I24" s="2">
         <v>8</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K24" s="2">
         <v>8</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="L24" s="1">
         <v>8</v>
@@ -2390,13 +2534,19 @@
       <c r="M24" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="N24" s="1">
+        <v>8</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
+    <row r="25" spans="1:16" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="21" t="s">
         <v>52</v>
       </c>
@@ -2406,23 +2556,23 @@
       <c r="E25" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>2</v>
       </c>
       <c r="G25" s="2">
         <v>2</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>60</v>
+      <c r="H25" s="2">
+        <v>2</v>
       </c>
       <c r="I25" s="2">
         <v>2</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K25" s="2">
         <v>2</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="L25" s="1">
         <v>2</v>
@@ -2430,28 +2580,36 @@
       <c r="M25" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="N25" s="1">
+        <v>2</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
+    <row r="26" spans="1:16" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="6"/>
+      <c r="F26" s="9"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="30" t="s">
+    <row r="27" spans="1:16" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="30" t="s">
         <v>19</v>
       </c>
       <c r="C27" s="22" t="s">
@@ -2464,35 +2622,41 @@
         <v>0.29005478089675302</v>
       </c>
       <c r="F27" s="16">
+        <v>1.3665923339999999</v>
+      </c>
+      <c r="G27" s="16">
         <v>2.6051347229949799</v>
       </c>
-      <c r="G27" s="16">
+      <c r="H27" s="16">
+        <v>0.55615548800000003</v>
+      </c>
+      <c r="I27" s="16">
         <v>0.49870329909026601</v>
       </c>
-      <c r="H27" s="16">
+      <c r="J27" s="16">
         <v>0.65357592701911904</v>
       </c>
-      <c r="I27" s="16">
+      <c r="K27" s="16">
         <v>0.42574739700000902</v>
       </c>
-      <c r="J27" s="16">
+      <c r="L27" s="16">
         <v>0.23851548699894901</v>
       </c>
-      <c r="K27" s="25">
+      <c r="M27" s="25">
         <v>0.27336076801293502</v>
       </c>
-      <c r="L27" s="16">
+      <c r="N27" s="16">
         <v>0.314147925004363</v>
       </c>
-      <c r="M27" s="16">
+      <c r="O27" s="16">
         <v>0.38381633535027498</v>
       </c>
-      <c r="N27" s="16">
+      <c r="P27" s="16">
         <v>0.41497611207887503</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="42"/>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A28" s="29"/>
       <c r="B28" s="31"/>
       <c r="C28" s="21" t="s">
         <v>53</v>
@@ -2504,35 +2668,41 @@
         <v>0.417909569106996</v>
       </c>
       <c r="F28" s="16">
+        <v>16.552221014000001</v>
+      </c>
+      <c r="G28" s="16">
         <v>23.149055004003401</v>
       </c>
-      <c r="G28" s="16">
+      <c r="H28" s="16">
+        <v>3.4243858220000001</v>
+      </c>
+      <c r="I28" s="16">
         <v>0.45725696720182801</v>
       </c>
-      <c r="H28" s="16">
+      <c r="J28" s="16">
         <v>0.72607256611809101</v>
       </c>
-      <c r="I28" s="16">
+      <c r="K28" s="16">
         <v>2.5850061599999701</v>
       </c>
-      <c r="J28" s="16">
+      <c r="L28" s="16">
         <v>0.32106483101961197</v>
       </c>
-      <c r="K28" s="25">
+      <c r="M28" s="25">
         <v>0.432109157001832</v>
       </c>
-      <c r="L28" s="16">
+      <c r="N28" s="16">
         <v>0.44132255902513801</v>
       </c>
-      <c r="M28" s="16">
+      <c r="O28" s="16">
         <v>0.498700611293315</v>
       </c>
-      <c r="N28" s="16">
+      <c r="P28" s="16">
         <v>0.52433268912136499</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="42"/>
+    <row r="29" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="29"/>
       <c r="B29" s="32"/>
       <c r="C29" s="23" t="s">
         <v>54</v>
@@ -2544,36 +2714,42 @@
         <v>1.5497802470344999</v>
       </c>
       <c r="F29" s="17">
+        <v>2.2382955930000001</v>
+      </c>
+      <c r="G29" s="17">
         <v>1.86009966100391</v>
       </c>
-      <c r="G29" s="17">
+      <c r="H29" s="17">
+        <v>1.470730004</v>
+      </c>
+      <c r="I29" s="17">
         <v>1.5575696257874301</v>
       </c>
-      <c r="H29" s="17">
+      <c r="J29" s="17">
         <v>1.4984647757373699</v>
       </c>
-      <c r="I29" s="17">
+      <c r="K29" s="17">
         <v>1.2970120859999901</v>
       </c>
-      <c r="J29" s="17">
+      <c r="L29" s="17">
         <v>1.0113563909835599</v>
       </c>
-      <c r="K29" s="24">
+      <c r="M29" s="24">
         <v>1.0992550000082699</v>
       </c>
-      <c r="L29" s="17">
+      <c r="N29" s="17">
         <v>0.93604507204145104</v>
       </c>
-      <c r="M29" s="17">
+      <c r="O29" s="17">
         <v>1.0592753491364399</v>
       </c>
-      <c r="N29" s="17">
+      <c r="P29" s="17">
         <v>1.0624954681843499</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="42"/>
-      <c r="B30" s="38" t="s">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A30" s="29"/>
+      <c r="B30" s="33" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="26" t="s">
@@ -2586,76 +2762,88 @@
         <v>12.4515538420528</v>
       </c>
       <c r="F30" s="16">
+        <v>34.402396889000002</v>
+      </c>
+      <c r="G30" s="16">
         <v>20.471961186994999</v>
       </c>
-      <c r="G30" s="16">
+      <c r="H30" s="16">
+        <v>19.915026647000001</v>
+      </c>
+      <c r="I30" s="16">
         <v>10.2660036482848</v>
       </c>
-      <c r="H30" s="16">
+      <c r="J30" s="16">
         <v>7.3084222399629599</v>
       </c>
-      <c r="I30" s="16">
+      <c r="K30" s="16">
         <v>10.29708173</v>
       </c>
-      <c r="J30" s="16">
+      <c r="L30" s="16">
         <v>9.8356007710099203</v>
       </c>
-      <c r="K30" s="25">
+      <c r="M30" s="25">
         <v>5.8719745109847201</v>
       </c>
-      <c r="L30" s="16">
+      <c r="N30" s="16">
         <v>5.4362869118340296</v>
       </c>
-      <c r="M30" s="16">
+      <c r="O30" s="16">
         <v>3.7043352299369801</v>
       </c>
-      <c r="N30" s="16">
+      <c r="P30" s="16">
         <v>2.2291152272373398</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="42"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" s="46">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A31" s="29"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="16">
         <v>7.00065177911892</v>
       </c>
-      <c r="E31" s="46">
+      <c r="E31" s="16">
         <v>3.8870106949470902</v>
       </c>
-      <c r="F31" s="46">
+      <c r="F31" s="16">
+        <v>12.460425802</v>
+      </c>
+      <c r="G31" s="16">
         <v>9.4841466119978506</v>
       </c>
-      <c r="G31" s="46">
+      <c r="H31" s="16">
+        <v>8.3612564500000008</v>
+      </c>
+      <c r="I31" s="16">
         <v>7.1944337543100101</v>
       </c>
-      <c r="H31" s="46">
+      <c r="J31" s="16">
         <v>4.3598448107950301</v>
       </c>
-      <c r="I31" s="46">
+      <c r="K31" s="16">
         <v>7.30843115199999</v>
       </c>
-      <c r="J31" s="46">
+      <c r="L31" s="16">
         <v>6.8513100670243103</v>
       </c>
-      <c r="K31" s="47">
+      <c r="M31" s="25">
         <v>3.7633447319967601</v>
       </c>
-      <c r="L31" s="46">
+      <c r="N31" s="16">
         <v>6.6282632141373998</v>
       </c>
-      <c r="M31" s="46">
+      <c r="O31" s="16">
         <v>3.3692198800854301</v>
       </c>
-      <c r="N31" s="46">
+      <c r="P31" s="16">
         <v>1.34598894231021</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="42"/>
-      <c r="B32" s="43"/>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A32" s="29"/>
+      <c r="B32" s="34"/>
       <c r="C32" s="26" t="s">
         <v>13</v>
       </c>
@@ -2666,36 +2854,42 @@
         <v>4.0337025809567404</v>
       </c>
       <c r="F32" s="16">
+        <v>12.474909795</v>
+      </c>
+      <c r="G32" s="16">
         <v>9.5171493130037508</v>
       </c>
-      <c r="G32" s="16">
+      <c r="H32" s="16">
+        <v>12.643608017</v>
+      </c>
+      <c r="I32" s="16">
         <v>10.183667462784699</v>
       </c>
-      <c r="H32" s="16">
+      <c r="J32" s="16">
         <v>4.4993193191476104</v>
       </c>
-      <c r="I32" s="16">
+      <c r="K32" s="16">
         <v>9.6794922199999807</v>
       </c>
-      <c r="J32" s="16">
+      <c r="L32" s="16">
         <v>9.7039891590247809</v>
       </c>
-      <c r="K32" s="25">
+      <c r="M32" s="25">
         <v>4.2973486040136697</v>
       </c>
-      <c r="L32" s="16">
+      <c r="N32" s="16">
         <v>8.6338418349623591</v>
       </c>
-      <c r="M32" s="16">
+      <c r="O32" s="16">
         <v>3.7967990208417102</v>
       </c>
-      <c r="N32" s="16">
+      <c r="P32" s="16">
         <v>1.07157681882381</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="42"/>
-      <c r="B33" s="43"/>
+    <row r="33" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="29"/>
+      <c r="B33" s="34"/>
       <c r="C33" s="27" t="s">
         <v>14</v>
       </c>
@@ -2706,36 +2900,42 @@
         <v>24.988091673003499</v>
       </c>
       <c r="F33" s="17">
+        <v>32.635546988999998</v>
+      </c>
+      <c r="G33" s="17">
         <v>23.858830097989902</v>
       </c>
-      <c r="G33" s="17">
+      <c r="H33" s="17">
+        <v>27.583490790999999</v>
+      </c>
+      <c r="I33" s="17">
         <v>27.9142418378032</v>
       </c>
-      <c r="H33" s="17">
+      <c r="J33" s="17">
         <v>18.120484311133598</v>
       </c>
-      <c r="I33" s="17">
+      <c r="K33" s="17">
         <v>17.480355906</v>
       </c>
-      <c r="J33" s="17">
+      <c r="L33" s="17">
         <v>22.579874332994201</v>
       </c>
-      <c r="K33" s="24">
+      <c r="M33" s="24">
         <v>15.8174322310078</v>
       </c>
-      <c r="L33" s="17">
+      <c r="N33" s="17">
         <v>19.810522187035499</v>
       </c>
-      <c r="M33" s="17">
+      <c r="O33" s="17">
         <v>11.513873033225501</v>
       </c>
-      <c r="N33" s="17">
+      <c r="P33" s="17">
         <v>8.6620373059995401</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="42"/>
-      <c r="B34" s="36" t="s">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A34" s="29"/>
+      <c r="B34" s="35" t="s">
         <v>21</v>
       </c>
       <c r="C34" s="21" t="s">
@@ -2748,35 +2948,41 @@
         <v>0.711838962975889</v>
       </c>
       <c r="F34" s="16">
+        <v>0.83141721499999999</v>
+      </c>
+      <c r="G34" s="16">
         <v>0.80438914398837302</v>
       </c>
-      <c r="G34" s="16">
+      <c r="H34" s="16">
+        <v>0.63411259900000005</v>
+      </c>
+      <c r="I34" s="16">
         <v>0.79568387707695298</v>
       </c>
-      <c r="H34" s="16">
+      <c r="J34" s="16">
         <v>0.78495349688455396</v>
       </c>
-      <c r="I34" s="16">
+      <c r="K34" s="16">
         <v>0.48368760400000999</v>
       </c>
-      <c r="J34" s="16">
+      <c r="L34" s="16">
         <v>0.56932821901864294</v>
       </c>
-      <c r="K34" s="25">
+      <c r="M34" s="25">
         <v>0.60606098300195299</v>
       </c>
-      <c r="L34" s="16">
+      <c r="N34" s="16">
         <v>0.58721559401601497</v>
       </c>
-      <c r="M34" s="16">
+      <c r="O34" s="16">
         <v>0.58120506722480003</v>
       </c>
-      <c r="N34" s="16">
+      <c r="P34" s="16">
         <v>0.55580203561112196</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="42"/>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A35" s="29"/>
       <c r="B35" s="31"/>
       <c r="C35" s="21" t="s">
         <v>55</v>
@@ -2788,35 +2994,41 @@
         <v>2.9960449319332799E-3</v>
       </c>
       <c r="F35" s="16">
+        <v>2.3783006999999998E-2</v>
+      </c>
+      <c r="G35" s="16">
         <v>3.6130203006905497E-2</v>
       </c>
-      <c r="G35" s="16">
+      <c r="H35" s="16">
+        <v>1.8144207999999998E-2</v>
+      </c>
+      <c r="I35" s="16">
         <v>9.8841292783617904E-3</v>
       </c>
-      <c r="H35" s="16">
+      <c r="J35" s="16">
         <v>3.5308669321238899E-3</v>
       </c>
-      <c r="I35" s="16">
+      <c r="K35" s="16">
         <v>1.59942209999996E-2</v>
       </c>
-      <c r="J35" s="16">
+      <c r="L35" s="16">
         <v>7.2653160023037301E-3</v>
       </c>
-      <c r="K35" s="25">
+      <c r="M35" s="25">
         <v>5.3255280072335102E-3</v>
       </c>
-      <c r="L35" s="16">
+      <c r="N35" s="16">
         <v>1.1874962132424101E-2</v>
       </c>
-      <c r="M35" s="16">
+      <c r="O35" s="16">
         <v>9.7346412949263997E-3</v>
       </c>
-      <c r="N35" s="16">
+      <c r="P35" s="16">
         <v>1.03161097504198E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="42"/>
+    <row r="36" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="29"/>
       <c r="B36" s="32"/>
       <c r="C36" s="23" t="s">
         <v>56</v>
@@ -2828,35 +3040,41 @@
         <v>3.8517798108514398</v>
       </c>
       <c r="F36" s="17">
+        <v>6.7767652920000003</v>
+      </c>
+      <c r="G36" s="17">
         <v>10.275319695996499</v>
       </c>
-      <c r="G36" s="17">
+      <c r="H36" s="17">
+        <v>5.1563525490000002</v>
+      </c>
+      <c r="I36" s="17">
         <v>3.4158759671263299</v>
       </c>
-      <c r="H36" s="17">
+      <c r="J36" s="17">
         <v>4.0836179316975096</v>
       </c>
-      <c r="I36" s="17">
+      <c r="K36" s="17">
         <v>3.9311392220000099</v>
       </c>
-      <c r="J36" s="24">
+      <c r="L36" s="24">
         <v>2.75049070699606</v>
       </c>
-      <c r="K36" s="24">
+      <c r="M36" s="24">
         <v>2.9935199930041501</v>
       </c>
-      <c r="L36" s="24">
+      <c r="N36" s="24">
         <v>3.7956538437865599</v>
       </c>
-      <c r="M36" s="24">
+      <c r="O36" s="24">
         <v>4.4984024842269701</v>
       </c>
-      <c r="N36" s="24">
+      <c r="P36" s="24">
         <v>4.4641529698856104</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="42"/>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A37" s="29"/>
       <c r="B37" s="31" t="s">
         <v>16</v>
       </c>
@@ -2870,35 +3088,41 @@
         <v>54.1954199268948</v>
       </c>
       <c r="F37" s="16">
+        <v>120.181241234</v>
+      </c>
+      <c r="G37" s="16">
         <v>102.62683602000401</v>
       </c>
-      <c r="G37" s="16">
+      <c r="H37" s="16">
+        <v>80.117696535999997</v>
+      </c>
+      <c r="I37" s="16">
         <v>62.738650712650198</v>
       </c>
-      <c r="H37" s="16">
+      <c r="J37" s="16">
         <v>43.982205593958497</v>
       </c>
-      <c r="I37" s="16">
+      <c r="K37" s="16">
         <v>53.852136003999902</v>
       </c>
-      <c r="J37" s="25">
+      <c r="L37" s="25">
         <v>54.184698252007301</v>
       </c>
-      <c r="K37" s="25">
+      <c r="M37" s="25">
         <v>36.610345702007102</v>
       </c>
-      <c r="L37" s="25">
+      <c r="N37" s="25">
         <v>46.912286573089602</v>
       </c>
-      <c r="M37" s="25">
+      <c r="O37" s="25">
         <v>30.6611705827526</v>
       </c>
-      <c r="N37" s="25">
+      <c r="P37" s="25">
         <v>21.707423390354901</v>
       </c>
     </row>
-    <row r="38" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="35"/>
+    <row r="38" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="39"/>
       <c r="B38" s="32"/>
       <c r="C38" s="23" t="s">
         <v>57</v>
@@ -2910,38 +3134,44 @@
         <v>78</v>
       </c>
       <c r="F38" s="17">
+        <v>152</v>
+      </c>
+      <c r="G38" s="17">
         <v>175</v>
       </c>
-      <c r="G38" s="17">
+      <c r="H38" s="17">
+        <v>116</v>
+      </c>
+      <c r="I38" s="17">
         <v>84</v>
       </c>
-      <c r="H38" s="17">
+      <c r="J38" s="17">
         <v>71</v>
       </c>
-      <c r="I38" s="17">
+      <c r="K38" s="17">
         <v>82</v>
       </c>
-      <c r="J38" s="24">
+      <c r="L38" s="24">
         <v>73</v>
       </c>
-      <c r="K38" s="24">
-        <v>60</v>
-      </c>
-      <c r="L38" s="24">
+      <c r="M38" s="24">
+        <v>60</v>
+      </c>
+      <c r="N38" s="24">
         <v>71</v>
       </c>
-      <c r="M38" s="24">
+      <c r="O38" s="24">
         <v>62</v>
       </c>
-      <c r="N38" s="24">
+      <c r="P38" s="24">
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="41" t="s">
+    <row r="39" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="35" t="s">
         <v>19</v>
       </c>
       <c r="C39" s="21" t="s">
@@ -2953,36 +3183,42 @@
       <c r="E39" s="16">
         <v>0.35773612093180401</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F39" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="16">
         <v>2.0449932280025598</v>
       </c>
-      <c r="G39" s="16">
+      <c r="H39" s="16">
+        <v>0.52172516999999996</v>
+      </c>
+      <c r="I39" s="16">
         <v>0.50284448871388998</v>
       </c>
-      <c r="H39" s="16">
+      <c r="J39" s="16">
         <v>0.71354523114860002</v>
       </c>
-      <c r="I39" s="16">
+      <c r="K39" s="16">
         <v>0.400137391000015</v>
       </c>
-      <c r="J39" s="25">
+      <c r="L39" s="25">
         <v>0.242017420998308</v>
       </c>
-      <c r="K39" s="25">
+      <c r="M39" s="25">
         <v>0.31035188501118599</v>
       </c>
-      <c r="L39" s="25">
+      <c r="N39" s="25">
         <v>0.32862523570656699</v>
       </c>
-      <c r="M39" s="25">
+      <c r="O39" s="25">
         <v>0.33271143306046702</v>
       </c>
-      <c r="N39" s="25">
+      <c r="P39" s="25">
         <v>0.37867269525304398</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="28"/>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A40" s="29"/>
       <c r="B40" s="31"/>
       <c r="C40" s="21" t="s">
         <v>58</v>
@@ -2993,36 +3229,42 @@
       <c r="E40" s="16">
         <v>0.42807489400729498</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F40" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G40" s="16">
         <v>25.751935071006301</v>
       </c>
-      <c r="G40" s="16">
+      <c r="H40" s="16">
+        <v>3.444304319</v>
+      </c>
+      <c r="I40" s="16">
         <v>0.42873780196532602</v>
       </c>
-      <c r="H40" s="16">
+      <c r="J40" s="16">
         <v>0.69117780309170396</v>
       </c>
-      <c r="I40" s="16">
+      <c r="K40" s="16">
         <v>2.5898015980000002</v>
       </c>
-      <c r="J40" s="25">
+      <c r="L40" s="25">
         <v>0.32363425698713399</v>
       </c>
-      <c r="K40" s="25">
+      <c r="M40" s="25">
         <v>0.40080995901371302</v>
       </c>
-      <c r="L40" s="25">
+      <c r="N40" s="25">
         <v>0.50541955791413695</v>
       </c>
-      <c r="M40" s="25">
+      <c r="O40" s="25">
         <v>0.48882253793999503</v>
       </c>
-      <c r="N40" s="25">
+      <c r="P40" s="25">
         <v>0.64223923021927398</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="28"/>
+    <row r="41" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="29"/>
       <c r="B41" s="32"/>
       <c r="C41" s="23" t="s">
         <v>54</v>
@@ -3033,37 +3275,43 @@
       <c r="E41" s="17">
         <v>5.44996631890535</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F41" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G41" s="17">
         <v>6.9665359909995397</v>
       </c>
-      <c r="G41" s="17">
+      <c r="H41" s="17">
+        <v>5.4586888099999999</v>
+      </c>
+      <c r="I41" s="17">
         <v>5.0059210187755498</v>
       </c>
-      <c r="H41" s="17">
+      <c r="J41" s="17">
         <v>4.9661646480671999</v>
       </c>
-      <c r="I41" s="17">
+      <c r="K41" s="17">
         <v>4.3499941880000099</v>
       </c>
-      <c r="J41" s="24">
+      <c r="L41" s="24">
         <v>3.6357747169968202</v>
       </c>
-      <c r="K41" s="24">
+      <c r="M41" s="24">
         <v>3.7911167510028401</v>
       </c>
-      <c r="L41" s="24">
+      <c r="N41" s="24">
         <v>3.1097499579191199</v>
       </c>
-      <c r="M41" s="24">
+      <c r="O41" s="24">
         <v>3.9793555671349101</v>
       </c>
-      <c r="N41" s="24">
+      <c r="P41" s="24">
         <v>4.0341609502211204</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="28"/>
-      <c r="B42" s="40" t="s">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A42" s="29"/>
+      <c r="B42" s="36" t="s">
         <v>20</v>
       </c>
       <c r="C42" s="26" t="s">
@@ -3075,77 +3323,89 @@
       <c r="E42" s="16">
         <v>42.734444471076102</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F42" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G42" s="16">
         <v>62.125924630992799</v>
       </c>
-      <c r="G42" s="16">
+      <c r="H42" s="16">
+        <v>72.298181564000004</v>
+      </c>
+      <c r="I42" s="16">
         <v>39.198459480889099</v>
       </c>
-      <c r="H42" s="16">
+      <c r="J42" s="16">
         <v>22.099547667894502</v>
       </c>
-      <c r="I42" s="16">
+      <c r="K42" s="16">
         <v>33.976817592000003</v>
       </c>
-      <c r="J42" s="25">
+      <c r="L42" s="25">
         <v>36.857392473990302</v>
       </c>
-      <c r="K42" s="25">
+      <c r="M42" s="25">
         <v>20.253969917976001</v>
       </c>
-      <c r="L42" s="25">
+      <c r="N42" s="25">
         <v>16.575125847011801</v>
       </c>
-      <c r="M42" s="25">
+      <c r="O42" s="25">
         <v>10.5931354621425</v>
       </c>
-      <c r="N42" s="25">
+      <c r="P42" s="25">
         <v>5.8319269688799897</v>
       </c>
     </row>
-    <row r="43" spans="1:14" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="28"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="D43" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="E43" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="F43" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="G43" s="46">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A43" s="29"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="H43" s="16">
+        <v>36.681228564000001</v>
+      </c>
+      <c r="I43" s="16">
         <v>29.341815375722899</v>
       </c>
-      <c r="H43" s="46">
+      <c r="J43" s="16">
         <v>15.7044425089843</v>
       </c>
-      <c r="I43" s="46">
+      <c r="K43" s="16">
         <v>28.285379806999899</v>
       </c>
-      <c r="J43" s="47">
+      <c r="L43" s="25">
         <v>28.410903652984398</v>
       </c>
-      <c r="K43" s="47">
+      <c r="M43" s="25">
         <v>15.2793028439919</v>
       </c>
-      <c r="L43" s="47">
+      <c r="N43" s="25">
         <v>24.741927819326499</v>
       </c>
-      <c r="M43" s="47">
+      <c r="O43" s="25">
         <v>12.9752079010941</v>
       </c>
-      <c r="N43" s="47">
+      <c r="P43" s="25">
         <v>5.1526448610238704</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="28"/>
-      <c r="B44" s="39"/>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A44" s="29"/>
+      <c r="B44" s="37"/>
       <c r="C44" s="26" t="s">
         <v>13</v>
       </c>
@@ -3158,34 +3418,40 @@
       <c r="F44" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="G44" s="16">
+      <c r="G44" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H44" s="16">
+        <v>51.238377870999997</v>
+      </c>
+      <c r="I44" s="16">
         <v>41.665881626773597</v>
       </c>
-      <c r="H44" s="16">
+      <c r="J44" s="16">
         <v>18.820871174801098</v>
       </c>
-      <c r="I44" s="16">
+      <c r="K44" s="16">
         <v>39.318443496999997</v>
       </c>
-      <c r="J44" s="25">
+      <c r="L44" s="25">
         <v>39.802582204982102</v>
       </c>
-      <c r="K44" s="25">
+      <c r="M44" s="25">
         <v>18.204196125007002</v>
       </c>
-      <c r="L44" s="25">
+      <c r="N44" s="25">
         <v>35.144391817040699</v>
       </c>
-      <c r="M44" s="25">
+      <c r="O44" s="25">
         <v>14.9038841850124</v>
       </c>
-      <c r="N44" s="25">
+      <c r="P44" s="25">
         <v>4.4372280300594804</v>
       </c>
     </row>
-    <row r="45" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="28"/>
-      <c r="B45" s="39"/>
+    <row r="45" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="29"/>
+      <c r="B45" s="37"/>
       <c r="C45" s="27" t="s">
         <v>14</v>
       </c>
@@ -3198,34 +3464,40 @@
       <c r="F45" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G45" s="17">
+      <c r="G45" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H45" s="17">
+        <v>66.316363026999994</v>
+      </c>
+      <c r="I45" s="17">
         <v>65.217677915934402</v>
       </c>
-      <c r="H45" s="17">
+      <c r="J45" s="17">
         <v>52.023775223642502</v>
       </c>
-      <c r="I45" s="17">
+      <c r="K45" s="17">
         <v>42.003265999</v>
       </c>
-      <c r="J45" s="24">
+      <c r="L45" s="24">
         <v>48.866922488988997</v>
       </c>
-      <c r="K45" s="24">
+      <c r="M45" s="24">
         <v>27.922537649981599</v>
       </c>
-      <c r="L45" s="24">
+      <c r="N45" s="24">
         <v>43.576578847132602</v>
       </c>
-      <c r="M45" s="24">
+      <c r="O45" s="24">
         <v>24.685732924844999</v>
       </c>
-      <c r="N45" s="24">
+      <c r="P45" s="24">
         <v>13.8762322496622</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="28"/>
-      <c r="B46" s="36" t="s">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A46" s="29"/>
+      <c r="B46" s="35" t="s">
         <v>21</v>
       </c>
       <c r="C46" s="21" t="s">
@@ -3240,33 +3512,39 @@
       <c r="F46" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="G46" s="16">
+      <c r="G46" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H46" s="16">
+        <v>2.4051857600000002</v>
+      </c>
+      <c r="I46" s="16">
         <v>3.17040770314633</v>
       </c>
-      <c r="H46" s="16">
+      <c r="J46" s="16">
         <v>4.3525433158501903</v>
       </c>
-      <c r="I46" s="16">
+      <c r="K46" s="16">
         <v>2.0834922319999598</v>
       </c>
-      <c r="J46" s="25">
+      <c r="L46" s="25">
         <v>2.29383057699305</v>
       </c>
-      <c r="K46" s="25">
+      <c r="M46" s="25">
         <v>2.3635045140108502</v>
       </c>
-      <c r="L46" s="25">
+      <c r="N46" s="25">
         <v>2.3554833130910899</v>
       </c>
-      <c r="M46" s="25">
+      <c r="O46" s="25">
         <v>2.3636656110174901</v>
       </c>
-      <c r="N46" s="25">
+      <c r="P46" s="25">
         <v>2.2461534040048701</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="28"/>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A47" s="29"/>
       <c r="B47" s="31"/>
       <c r="C47" s="21" t="s">
         <v>55</v>
@@ -3280,33 +3558,39 @@
       <c r="F47" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="G47" s="16">
+      <c r="G47" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H47" s="16">
+        <v>1.8404828000000002E-2</v>
+      </c>
+      <c r="I47" s="16">
         <v>8.9637078344821895E-3</v>
       </c>
-      <c r="H47" s="16">
+      <c r="J47" s="16">
         <v>4.1490672156214697E-3</v>
       </c>
-      <c r="I47" s="16">
+      <c r="K47" s="16">
         <v>1.58119309999733E-2</v>
       </c>
-      <c r="J47" s="25">
+      <c r="L47" s="25">
         <v>6.8482829956337801E-3</v>
       </c>
-      <c r="K47" s="25">
+      <c r="M47" s="25">
         <v>6.2112669984344298E-3</v>
       </c>
-      <c r="L47" s="25">
+      <c r="N47" s="25">
         <v>1.0079315863549701E-2</v>
       </c>
-      <c r="M47" s="25">
+      <c r="O47" s="25">
         <v>9.1348132118582708E-3</v>
       </c>
-      <c r="N47" s="25">
+      <c r="P47" s="25">
         <v>1.1712969280779299E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="28"/>
+    <row r="48" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="29"/>
       <c r="B48" s="32"/>
       <c r="C48" s="23" t="s">
         <v>59</v>
@@ -3320,33 +3604,39 @@
       <c r="F48" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G48" s="17">
+      <c r="G48" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H48" s="17">
+        <v>5.0101102470000001</v>
+      </c>
+      <c r="I48" s="17">
         <v>3.5821724026463899</v>
       </c>
-      <c r="H48" s="17">
+      <c r="J48" s="17">
         <v>4.7167188781313598</v>
       </c>
-      <c r="I48" s="17">
+      <c r="K48" s="17">
         <v>4.0814938059999601</v>
       </c>
-      <c r="J48" s="24">
+      <c r="L48" s="24">
         <v>2.8744082780030999</v>
       </c>
-      <c r="K48" s="24">
+      <c r="M48" s="24">
         <v>2.97798476100433</v>
       </c>
-      <c r="L48" s="24">
+      <c r="N48" s="24">
         <v>4.1986377970315498</v>
       </c>
-      <c r="M48" s="24">
+      <c r="O48" s="24">
         <v>4.7865026001818398</v>
       </c>
-      <c r="N48" s="24">
+      <c r="P48" s="24">
         <v>4.7243544762022696</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="28"/>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A49" s="29"/>
       <c r="B49" s="31" t="s">
         <v>16</v>
       </c>
@@ -3362,33 +3652,39 @@
       <c r="F49" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="G49" s="16">
+      <c r="G49" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H49" s="16">
+        <v>244.25038384000001</v>
+      </c>
+      <c r="I49" s="16">
         <v>188.93581879418301</v>
       </c>
-      <c r="H49" s="16">
+      <c r="J49" s="16">
         <v>130.14035882521401</v>
       </c>
-      <c r="I49" s="16">
+      <c r="K49" s="16">
         <v>157.87777048999999</v>
       </c>
-      <c r="J49" s="25">
+      <c r="L49" s="25">
         <v>163.948905780009</v>
       </c>
-      <c r="K49" s="25">
+      <c r="M49" s="25">
         <v>96.640403512021294</v>
       </c>
-      <c r="L49" s="25">
+      <c r="N49" s="25">
         <v>131.12122976733301</v>
       </c>
-      <c r="M49" s="25">
+      <c r="O49" s="25">
         <v>79.189955803100005</v>
       </c>
-      <c r="N49" s="25">
+      <c r="P49" s="25">
         <v>46.331093179062002</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="28"/>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A50" s="29"/>
       <c r="B50" s="31"/>
       <c r="C50" s="21" t="s">
         <v>57</v>
@@ -3402,33 +3698,47 @@
       <c r="F50" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="G50" s="16">
+      <c r="G50" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H50" s="16">
+        <v>278</v>
+      </c>
+      <c r="I50" s="16">
         <v>212</v>
       </c>
-      <c r="H50" s="16">
+      <c r="J50" s="16">
         <v>158</v>
       </c>
-      <c r="I50" s="16">
+      <c r="K50" s="16">
         <v>186</v>
       </c>
-      <c r="J50" s="25">
+      <c r="L50" s="25">
         <v>183</v>
       </c>
-      <c r="K50" s="25">
+      <c r="M50" s="25">
         <v>120</v>
       </c>
-      <c r="L50" s="25">
+      <c r="N50" s="25">
         <v>156</v>
       </c>
-      <c r="M50" s="25">
+      <c r="O50" s="25">
         <v>109</v>
       </c>
-      <c r="N50" s="25">
+      <c r="P50" s="25">
         <v>96</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A22:B25"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A4:B7"/>
+    <mergeCell ref="A8:B14"/>
+    <mergeCell ref="A15:B21"/>
     <mergeCell ref="A39:A50"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B33"/>
@@ -3439,18 +3749,800 @@
     <mergeCell ref="B46:B48"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="A27:A38"/>
-    <mergeCell ref="A22:B25"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A4:B7"/>
-    <mergeCell ref="A8:B14"/>
-    <mergeCell ref="A15:B21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A16:XFD16 A9:XFD9">
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{14196676-A144-43A1-A7A4-3EF4D4E423B3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:XFD17 A10:XFD10">
+    <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3F5EDDE1-556F-4C3A-B908-6C709C91A635}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:XFD23">
+    <cfRule type="dataBar" priority="33">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{185488EA-EF2F-484D-9735-35F3064F04C6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:XFD31">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{592908BD-3F7F-48DA-BD89-CC3781B3D27C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39:XFD39 A27:XFD27">
+    <cfRule type="dataBar" priority="55">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0BDA52D8-3E7E-4C70-91EE-300C4C30AA93}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40:XFD40 A28:XFD28">
+    <cfRule type="dataBar" priority="54">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9E678109-7150-49BE-B221-A3CFAA416250}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:XFD41 A29:XFD29">
+    <cfRule type="dataBar" priority="53">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ED7249C0-7851-4FAB-A8B3-ECD1D8B07ED7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42:XFD42 A30:XFD30 A32:XFD32 A44:XFD44">
+    <cfRule type="dataBar" priority="24">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{58549C8B-D210-40C4-8ADE-22C497017E3B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="52">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{17182307-9233-4527-A092-39A2AC7598BF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42:XFD42 A30:XFD30">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{61538239-4463-49B8-9A29-C3B20DF09C8A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:XFD43">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6E85108F-E231-4C45-A2B9-C68A40F6A563}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44:XFD44 A32:XFD32">
+    <cfRule type="dataBar" priority="14">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5116F6CD-AA68-44F1-8493-873CEF528752}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45:XFD45 A33:XFD33">
+    <cfRule type="dataBar" priority="51">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7C48002B-3911-4813-A50C-7ECF9C19EF64}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46:XFD46 A34:XFD34">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BE90834B-BCE9-4D8B-94C3-8DF5CA7B319C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:XFD47 A35:XFD35">
+    <cfRule type="dataBar" priority="48">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{34C9D91D-6812-4B52-B085-D4926ED94F46}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48:XFD48 A36:XFD36">
+    <cfRule type="dataBar" priority="47">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C4B37561-E21A-469F-9264-28F346513E2D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49:XFD49 A37:XFD37">
+    <cfRule type="dataBar" priority="46">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A795A94A-D359-4C20-8F8C-4E6E44939444}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49:XFD50 A37:XFD38">
+    <cfRule type="dataBar" priority="23">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FD3B9AE4-86A2-4DD2-9FB2-590D37A1F1F3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="43">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BEB72EB6-2FCA-4E6B-A21F-E30D0356FAF7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50:XFD50 A38:XFD38">
+    <cfRule type="dataBar" priority="45">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ED0BF0BD-0D7F-4B28-A5CF-75980B2566B9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="dataBar" priority="30">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BE08D743-5C31-4682-92FD-D0ED74A6E081}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="dataBar" priority="29">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{99553375-C4C7-4A45-B837-00F75118B134}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="dataBar" priority="28">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7096564D-29E1-4746-9C3E-E960D69055F1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="dataBar" priority="27">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1A1BFC80-804B-4A95-BF78-1A64F9AB28A3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:I9 K9:L9">
+    <cfRule type="dataBar" priority="94">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8C3D98AE-45B3-E349-AD08-7A2D2F0788DE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:I12 K12">
+    <cfRule type="dataBar" priority="96">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{AA69FEEE-5CC1-B446-88AE-AA0DCEE32669}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:I14 K13:K14">
+    <cfRule type="dataBar" priority="97">
+      <dataBar>
+        <cfvo type="num" val="2"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0E5A907C-C8BB-3D4F-A865-FB20618C07B8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:I16 K16:L16">
+    <cfRule type="dataBar" priority="98">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7FA6673F-F21D-7945-B26F-B398F1E4F700}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:I17 K17:L17">
+    <cfRule type="dataBar" priority="99">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FDE0D191-AB43-2A4B-AAED-204602D73121}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19:I19 K19">
+    <cfRule type="dataBar" priority="100">
+      <dataBar>
+        <cfvo type="num" val="7"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E2DEF3AB-15D6-E248-822C-F35EA5D25BC2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:I20 K20">
+    <cfRule type="dataBar" priority="101">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{59D6ED6D-82BE-F743-9091-3995C19F06F3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21:I21 K21">
+    <cfRule type="dataBar" priority="102">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EB06A7EE-42B8-C447-B49D-30DC6AADD363}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24:I24 K24">
+    <cfRule type="dataBar" priority="103">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3C38937B-10AE-D641-91A1-2022AB2271C8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25:I25 K25">
+    <cfRule type="dataBar" priority="104">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{28EB4E0F-7C16-0E43-B1EE-C17DE9320A66}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10:L10 F10:I10">
+    <cfRule type="dataBar" priority="95">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A486E733-45FB-5745-BC12-5681A8C96E8B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9">
+    <cfRule type="dataBar" priority="19">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{25D22E7E-FE50-430C-BE55-2002B6040486}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N10">
+    <cfRule type="dataBar" priority="18">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7E50EB07-188B-47B3-99BF-ABD8255E3D2D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="20">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5536B3A9-DDE9-4327-987B-6ED6BC685C8A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N16">
+    <cfRule type="dataBar" priority="21">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FD3552A3-57BE-4D60-BC80-B4724F46B4D8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N17">
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EF1AFFEC-FFA2-48E4-BAAF-28CAEA92E399}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="22">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3F9D851B-CEA4-4226-A258-9FDCC56494E2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q9:XFD9 A9:D9 N9 K9:L9 F9:I9">
+    <cfRule type="dataBar" priority="42">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{55209318-E838-45D7-997A-AE33FDFF309F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q10:XFD10 A10:D10 N10 K10:L10 F10:I10">
+    <cfRule type="dataBar" priority="41">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FF35AB45-1B56-4C79-838D-8C6C45297D4C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q12:XFD12 A12:D12 G12:I12 N12 K12:L12">
+    <cfRule type="dataBar" priority="40">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5709ABDC-9BD0-48E9-A6AB-106C154A8CEB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q13:XFD14 A13:D14 G13:I14 N13:N14 K13:L14">
+    <cfRule type="dataBar" priority="39">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9786495F-8BC4-419E-9CB8-5224A93AE4AE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q16:XFD16 A9:D9 A16:D16 G16:I16 N9 N16 Q9:XFD9 K16:L16 K9:L9 F9:I9">
+    <cfRule type="dataBar" priority="38">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8F84E390-EA54-4044-A0D1-BD858D211D1C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q17:XFD17 A10:D10 A17:D17 Q10:XFD10 N10 N17 G17:I17 K17:L17 K10:L10 F10:I10">
+    <cfRule type="dataBar" priority="37">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2648E629-B128-40E0-9430-3910149B879A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q19:XFD19 A19:D19 G19:I19 N19 K19:L19">
+    <cfRule type="dataBar" priority="36">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9EC12AEF-9FE7-4A07-8127-10331FB9F457}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q20:XFD20 A20:D20 G20:I20 N20 K20:L20">
+    <cfRule type="dataBar" priority="35">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F8E4DB01-292B-4098-852F-53E74F090B09}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q21:XFD21 A21:D21 G21:I21 N21 K21:L21">
+    <cfRule type="dataBar" priority="34">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{610D2D63-4D68-49B7-8423-BF90A16E1825}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q24:XFD24 A24:D24 G24:I24 N24 K24:L24">
+    <cfRule type="dataBar" priority="32">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4D97FA75-76F6-4FF5-894D-D8F085836ADA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q25:XFD25 A25:D25 G25:I25 N25 K25:L25">
+    <cfRule type="dataBar" priority="31">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D52F8789-0951-42AE-89B8-918393A72370}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:XFD31 A43:XFD43">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{99C4F751-00F6-4A71-9859-221B8E3C3FB1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36:XFD36 A48:XFD48">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{62491FED-6080-4278-9025-1E46363761F0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:XFD35 A47:XFD47">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D9FDA116-4199-410B-B626-ED89A7E8898C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9C096FC4-A063-4251-B228-7E85E3512E0A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E9F3ECF0-CA6C-4A03-B683-7D90E2FE44B7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A9:XFD9 A16:XFD16">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3458,13 +4550,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{14196676-A144-43A1-A7A4-3EF4D4E423B3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:XFD17 A10:XFD10">
-    <cfRule type="dataBar" priority="7">
+          <x14:id>{ED8B34D3-A518-49EC-9F22-8B4C95C15304}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:XFD10 A17:XFD17">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3472,67 +4564,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3F5EDDE1-556F-4C3A-B908-6C709C91A635}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23:XFD23">
-    <cfRule type="dataBar" priority="24">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{185488EA-EF2F-484D-9735-35F3064F04C6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A39:XFD39 A27:XFD27">
-    <cfRule type="dataBar" priority="46">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0BDA52D8-3E7E-4C70-91EE-300C4C30AA93}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42:XFD42 A30:XFD30">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{61538239-4463-49B8-9A29-C3B20DF09C8A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42:XFD42 A30:XFD30 A32:XFD32 A44:XFD44">
-    <cfRule type="dataBar" priority="15">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{58549C8B-D210-40C4-8ADE-22C497017E3B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="43">
+          <x14:id>{E83836AB-F9FC-4A6D-A7BE-61631E97FE64}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:XFD19">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3540,631 +4578,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{17182307-9233-4527-A092-39A2AC7598BF}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:XFD44 A32:XFD32">
-    <cfRule type="dataBar" priority="5">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5116F6CD-AA68-44F1-8493-873CEF528752}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:XFD45 A33:XFD33">
-    <cfRule type="dataBar" priority="42">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7C48002B-3911-4813-A50C-7ECF9C19EF64}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46:XFD46 A34:XFD34">
-    <cfRule type="dataBar" priority="40">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BE90834B-BCE9-4D8B-94C3-8DF5CA7B319C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47:XFD47 A35:XFD35">
-    <cfRule type="dataBar" priority="39">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{34C9D91D-6812-4B52-B085-D4926ED94F46}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48:XFD48 A36:XFD36">
-    <cfRule type="dataBar" priority="38">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C4B37561-E21A-469F-9264-28F346513E2D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A49:XFD49 A37:XFD37">
-    <cfRule type="dataBar" priority="37">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A795A94A-D359-4C20-8F8C-4E6E44939444}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A49:XFD50 A37:XFD38">
-    <cfRule type="dataBar" priority="14">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFD6007B"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FD3B9AE4-86A2-4DD2-9FB2-590D37A1F1F3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="34">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BEB72EB6-2FCA-4E6B-A21F-E30D0356FAF7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50:XFD50 A38:XFD38">
-    <cfRule type="dataBar" priority="36">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFD6007B"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ED0BF0BD-0D7F-4B28-A5CF-75980B2566B9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40:XFD40 A28:XFD28">
-    <cfRule type="dataBar" priority="45">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9E678109-7150-49BE-B221-A3CFAA416250}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41:XFD41 A29:XFD29">
-    <cfRule type="dataBar" priority="44">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ED7249C0-7851-4FAB-A8B3-ECD1D8B07ED7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="dataBar" priority="21">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BE08D743-5C31-4682-92FD-D0ED74A6E081}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="dataBar" priority="20">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{99553375-C4C7-4A45-B837-00F75118B134}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="dataBar" priority="19">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7096564D-29E1-4746-9C3E-E960D69055F1}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="dataBar" priority="18">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1A1BFC80-804B-4A95-BF78-1A64F9AB28A3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9:G9 I9:J9">
-    <cfRule type="dataBar" priority="85">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8C3D98AE-45B3-E349-AD08-7A2D2F0788DE}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12:G12 I12">
-    <cfRule type="dataBar" priority="87">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AA69FEEE-5CC1-B446-88AE-AA0DCEE32669}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13:G14 I13:I14">
-    <cfRule type="dataBar" priority="88">
-      <dataBar>
-        <cfvo type="num" val="2"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0E5A907C-C8BB-3D4F-A865-FB20618C07B8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16:G16 I16:J16">
-    <cfRule type="dataBar" priority="89">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7FA6673F-F21D-7945-B26F-B398F1E4F700}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17:G17 I17:J17">
-    <cfRule type="dataBar" priority="90">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FDE0D191-AB43-2A4B-AAED-204602D73121}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19:G19 I19">
-    <cfRule type="dataBar" priority="91">
-      <dataBar>
-        <cfvo type="num" val="7"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E2DEF3AB-15D6-E248-822C-F35EA5D25BC2}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20:G20 I20">
-    <cfRule type="dataBar" priority="92">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{59D6ED6D-82BE-F743-9091-3995C19F06F3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21:G21 I21">
-    <cfRule type="dataBar" priority="93">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{EB06A7EE-42B8-C447-B49D-30DC6AADD363}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24:G24 I24">
-    <cfRule type="dataBar" priority="94">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3C38937B-10AE-D641-91A1-2022AB2271C8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25:G25 I25">
-    <cfRule type="dataBar" priority="95">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{28EB4E0F-7C16-0E43-B1EE-C17DE9320A66}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10:J10 F10:G10">
-    <cfRule type="dataBar" priority="86">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A486E733-45FB-5745-BC12-5681A8C96E8B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L9">
-    <cfRule type="dataBar" priority="10">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{25D22E7E-FE50-430C-BE55-2002B6040486}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L10">
-    <cfRule type="dataBar" priority="9">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7E50EB07-188B-47B3-99BF-ABD8255E3D2D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="11">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5536B3A9-DDE9-4327-987B-6ED6BC685C8A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L16">
-    <cfRule type="dataBar" priority="12">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FD3552A3-57BE-4D60-BC80-B4724F46B4D8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L17">
-    <cfRule type="dataBar" priority="8">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{EF1AFFEC-FFA2-48E4-BAAF-28CAEA92E399}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="13">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3F9D851B-CEA4-4226-A258-9FDCC56494E2}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O9:XFD9 A9:D9 F9:G9 L9 I9:J9">
-    <cfRule type="dataBar" priority="33">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{55209318-E838-45D7-997A-AE33FDFF309F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O10:XFD10 A10:D10 L10 I10:J10 F10:G10">
-    <cfRule type="dataBar" priority="32">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FF35AB45-1B56-4C79-838D-8C6C45297D4C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O12:XFD12 A12:D12 F12:G12 L12 I12:J12">
-    <cfRule type="dataBar" priority="31">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5709ABDC-9BD0-48E9-A6AB-106C154A8CEB}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O13:XFD14 A13:D14 F13:G14 L13:L14 I13:J14">
-    <cfRule type="dataBar" priority="30">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9786495F-8BC4-419E-9CB8-5224A93AE4AE}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O16:XFD16 A9:D9 A16:D16 F9:G9 F16:G16 L9 L16 O9:XFD9 I16:J16 I9:J9">
-    <cfRule type="dataBar" priority="29">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8F84E390-EA54-4044-A0D1-BD858D211D1C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O17:XFD17 A10:D10 A17:D17 O10:XFD10 L10 L17 F17:G17 I17:J17 I10:J10 F10:G10">
-    <cfRule type="dataBar" priority="28">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2648E629-B128-40E0-9430-3910149B879A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O19:XFD19 A19:D19 F19:G19 L19 I19:J19">
-    <cfRule type="dataBar" priority="27">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9EC12AEF-9FE7-4A07-8127-10331FB9F457}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O20:XFD20 A20:D20 F20:G20 L20 I20:J20">
-    <cfRule type="dataBar" priority="26">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F8E4DB01-292B-4098-852F-53E74F090B09}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O21:XFD21 A21:D21 F21:G21 L21 I21:J21">
-    <cfRule type="dataBar" priority="25">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{610D2D63-4D68-49B7-8423-BF90A16E1825}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O24:XFD24 A24:D24 F24:G24 L24 I24:J24">
-    <cfRule type="dataBar" priority="23">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4D97FA75-76F6-4FF5-894D-D8F085836ADA}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O25:XFD25 A25:D25 F25:G25 L25 I25:J25">
-    <cfRule type="dataBar" priority="22">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D52F8789-0951-42AE-89B8-918393A72370}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31:XFD31">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{592908BD-3F7F-48DA-BD89-CC3781B3D27C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A43:XFD43">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6E85108F-E231-4C45-A2B9-C68A40F6A563}</x14:id>
+          <x14:id>{20C106FF-EF30-49D9-A1CD-7DB85F77A815}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4184,7 +4598,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A9:XFD9 A16:XFD16</xm:sqref>
+          <xm:sqref>A16:XFD16 A9:XFD9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3F5EDDE1-556F-4C3A-B908-6C709C91A635}">
@@ -4213,6 +4627,19 @@
           <xm:sqref>A23:XFD23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{592908BD-3F7F-48DA-BD89-CC3781B3D27C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A31:XFD31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0BDA52D8-3E7E-4C70-91EE-300C4C30AA93}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
@@ -4226,6 +4653,55 @@
           <xm:sqref>A39:XFD39 A27:XFD27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9E678109-7150-49BE-B221-A3CFAA416250}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A40:XFD40 A28:XFD28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{ED7249C0-7851-4FAB-A8B3-ECD1D8B07ED7}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A41:XFD41 A29:XFD29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{58549C8B-D210-40C4-8ADE-22C497017E3B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{17182307-9233-4527-A092-39A2AC7598BF}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A42:XFD42 A30:XFD30 A32:XFD32 A44:XFD44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{61538239-4463-49B8-9A29-C3B20DF09C8A}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
@@ -4239,7 +4715,85 @@
           <xm:sqref>A42:XFD42 A30:XFD30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{58549C8B-D210-40C4-8ADE-22C497017E3B}">
+          <x14:cfRule type="dataBar" id="{6E85108F-E231-4C45-A2B9-C68A40F6A563}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A43:XFD43</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5116F6CD-AA68-44F1-8493-873CEF528752}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A44:XFD44 A32:XFD32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7C48002B-3911-4813-A50C-7ECF9C19EF64}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A45:XFD45 A33:XFD33</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BE90834B-BCE9-4D8B-94C3-8DF5CA7B319C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A46:XFD46 A34:XFD34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{34C9D91D-6812-4B52-B085-D4926ED94F46}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A47:XFD47 A35:XFD35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C4B37561-E21A-469F-9264-28F346513E2D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A48:XFD48 A36:XFD36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A795A94A-D359-4C20-8F8C-4E6E44939444}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4249,7 +4803,46 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{17182307-9233-4527-A092-39A2AC7598BF}">
+          <xm:sqref>A49:XFD49 A37:XFD37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FD3B9AE4-86A2-4DD2-9FB2-590D37A1F1F3}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFD6007B"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{BEB72EB6-2FCA-4E6B-A21F-E30D0356FAF7}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A49:XFD50 A37:XFD38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{ED0BF0BD-0D7F-4B28-A5CF-75980B2566B9}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFD6007B"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A50:XFD50 A38:XFD38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BE08D743-5C31-4682-92FD-D0ED74A6E081}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4259,10 +4852,23 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A42:XFD42 A30:XFD30 A32:XFD32 A44:XFD44</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5116F6CD-AA68-44F1-8493-873CEF528752}">
+          <xm:sqref>D9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{99553375-C4C7-4A45-B837-00F75118B134}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7096564D-29E1-4746-9C3E-E960D69055F1}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4272,10 +4878,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A44:XFD44 A32:XFD32</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7C48002B-3911-4813-A50C-7ECF9C19EF64}">
+          <xm:sqref>D16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1A1BFC80-804B-4A95-BF78-1A64F9AB28A3}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4285,23 +4891,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A45:XFD45 A33:XFD33</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BE90834B-BCE9-4D8B-94C3-8DF5CA7B319C}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A46:XFD46 A34:XFD34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{34C9D91D-6812-4B52-B085-D4926ED94F46}">
+          <xm:sqref>D17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8C3D98AE-45B3-E349-AD08-7A2D2F0788DE}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4311,72 +4904,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A47:XFD47 A35:XFD35</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C4B37561-E21A-469F-9264-28F346513E2D}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A48:XFD48 A36:XFD36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A795A94A-D359-4C20-8F8C-4E6E44939444}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFFF555A"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A49:XFD49 A37:XFD37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FD3B9AE4-86A2-4DD2-9FB2-590D37A1F1F3}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFD6007B"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{BEB72EB6-2FCA-4E6B-A21F-E30D0356FAF7}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFFF555A"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A49:XFD50 A37:XFD38</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ED0BF0BD-0D7F-4B28-A5CF-75980B2566B9}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFD6007B"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A50:XFD50 A38:XFD38</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9E678109-7150-49BE-B221-A3CFAA416250}">
+          <xm:sqref>G9:I9 K9:L9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AA69FEEE-5CC1-B446-88AE-AA0DCEE32669}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4386,98 +4917,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A40:XFD40 A28:XFD28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ED7249C0-7851-4FAB-A8B3-ECD1D8B07ED7}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A41:XFD41 A29:XFD29</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BE08D743-5C31-4682-92FD-D0ED74A6E081}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D9</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{99553375-C4C7-4A45-B837-00F75118B134}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D10</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7096564D-29E1-4746-9C3E-E960D69055F1}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1A1BFC80-804B-4A95-BF78-1A64F9AB28A3}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D17</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8C3D98AE-45B3-E349-AD08-7A2D2F0788DE}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F9:G9 I9:J9</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AA69FEEE-5CC1-B446-88AE-AA0DCEE32669}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F12:G12 I12</xm:sqref>
+          <xm:sqref>G12:I12 K12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0E5A907C-C8BB-3D4F-A865-FB20618C07B8}">
@@ -4492,7 +4932,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F13:G14 I13:I14</xm:sqref>
+          <xm:sqref>G13:I14 K13:K14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7FA6673F-F21D-7945-B26F-B398F1E4F700}">
@@ -4505,7 +4945,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F16:G16 I16:J16</xm:sqref>
+          <xm:sqref>G16:I16 K16:L16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FDE0D191-AB43-2A4B-AAED-204602D73121}">
@@ -4518,7 +4958,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F17:G17 I17:J17</xm:sqref>
+          <xm:sqref>G17:I17 K17:L17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E2DEF3AB-15D6-E248-822C-F35EA5D25BC2}">
@@ -4533,7 +4973,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F19:G19 I19</xm:sqref>
+          <xm:sqref>G19:I19 K19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{59D6ED6D-82BE-F743-9091-3995C19F06F3}">
@@ -4546,7 +4986,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F20:G20 I20</xm:sqref>
+          <xm:sqref>G20:I20 K20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EB06A7EE-42B8-C447-B49D-30DC6AADD363}">
@@ -4559,7 +4999,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F21:G21 I21</xm:sqref>
+          <xm:sqref>G21:I21 K21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3C38937B-10AE-D641-91A1-2022AB2271C8}">
@@ -4572,7 +5012,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F24:G24 I24</xm:sqref>
+          <xm:sqref>G24:I24 K24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{28EB4E0F-7C16-0E43-B1EE-C17DE9320A66}">
@@ -4585,7 +5025,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F25:G25 I25</xm:sqref>
+          <xm:sqref>G25:I25 K25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A486E733-45FB-5745-BC12-5681A8C96E8B}">
@@ -4598,7 +5038,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I10:J10 F10:G10</xm:sqref>
+          <xm:sqref>K10:L10 F10:I10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{25D22E7E-FE50-430C-BE55-2002B6040486}">
@@ -4611,7 +5051,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>L9</xm:sqref>
+          <xm:sqref>N9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7E50EB07-188B-47B3-99BF-ABD8255E3D2D}">
@@ -4634,7 +5074,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>L10</xm:sqref>
+          <xm:sqref>N10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FD3552A3-57BE-4D60-BC80-B4724F46B4D8}">
@@ -4647,7 +5087,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>L16</xm:sqref>
+          <xm:sqref>N16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EF1AFFEC-FFA2-48E4-BAAF-28CAEA92E399}">
@@ -4670,7 +5110,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>L17</xm:sqref>
+          <xm:sqref>N17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{55209318-E838-45D7-997A-AE33FDFF309F}">
@@ -4683,7 +5123,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>O9:XFD9 A9:D9 F9:G9 L9 I9:J9</xm:sqref>
+          <xm:sqref>Q9:XFD9 A9:D9 N9 K9:L9 F9:I9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FF35AB45-1B56-4C79-838D-8C6C45297D4C}">
@@ -4696,7 +5136,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>O10:XFD10 A10:D10 L10 I10:J10 F10:G10</xm:sqref>
+          <xm:sqref>Q10:XFD10 A10:D10 N10 K10:L10 F10:I10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5709ABDC-9BD0-48E9-A6AB-106C154A8CEB}">
@@ -4709,7 +5149,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>O12:XFD12 A12:D12 F12:G12 L12 I12:J12</xm:sqref>
+          <xm:sqref>Q12:XFD12 A12:D12 G12:I12 N12 K12:L12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9786495F-8BC4-419E-9CB8-5224A93AE4AE}">
@@ -4722,7 +5162,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>O13:XFD14 A13:D14 F13:G14 L13:L14 I13:J14</xm:sqref>
+          <xm:sqref>Q13:XFD14 A13:D14 G13:I14 N13:N14 K13:L14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8F84E390-EA54-4044-A0D1-BD858D211D1C}">
@@ -4735,7 +5175,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>O16:XFD16 A9:D9 A16:D16 F9:G9 F16:G16 L9 L16 O9:XFD9 I16:J16 I9:J9</xm:sqref>
+          <xm:sqref>Q16:XFD16 A9:D9 A16:D16 G16:I16 N9 N16 Q9:XFD9 K16:L16 K9:L9 F9:I9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2648E629-B128-40E0-9430-3910149B879A}">
@@ -4748,7 +5188,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>O17:XFD17 A10:D10 A17:D17 O10:XFD10 L10 L17 F17:G17 I17:J17 I10:J10 F10:G10</xm:sqref>
+          <xm:sqref>Q17:XFD17 A10:D10 A17:D17 Q10:XFD10 N10 N17 G17:I17 K17:L17 K10:L10 F10:I10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9EC12AEF-9FE7-4A07-8127-10331FB9F457}">
@@ -4761,7 +5201,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>O19:XFD19 A19:D19 F19:G19 L19 I19:J19</xm:sqref>
+          <xm:sqref>Q19:XFD19 A19:D19 G19:I19 N19 K19:L19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F8E4DB01-292B-4098-852F-53E74F090B09}">
@@ -4774,7 +5214,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>O20:XFD20 A20:D20 F20:G20 L20 I20:J20</xm:sqref>
+          <xm:sqref>Q20:XFD20 A20:D20 G20:I20 N20 K20:L20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{610D2D63-4D68-49B7-8423-BF90A16E1825}">
@@ -4787,7 +5227,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>O21:XFD21 A21:D21 F21:G21 L21 I21:J21</xm:sqref>
+          <xm:sqref>Q21:XFD21 A21:D21 G21:I21 N21 K21:L21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4D97FA75-76F6-4FF5-894D-D8F085836ADA}">
@@ -4800,7 +5240,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>O24:XFD24 A24:D24 F24:G24 L24 I24:J24</xm:sqref>
+          <xm:sqref>Q24:XFD24 A24:D24 G24:I24 N24 K24:L24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D52F8789-0951-42AE-89B8-918393A72370}">
@@ -4813,10 +5253,23 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>O25:XFD25 A25:D25 F25:G25 L25 I25:J25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{592908BD-3F7F-48DA-BD89-CC3781B3D27C}">
+          <xm:sqref>Q25:XFD25 A25:D25 G25:I25 N25 K25:L25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{99C4F751-00F6-4A71-9859-221B8E3C3FB1}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A31:XFD31 A43:XFD43</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{62491FED-6080-4278-9025-1E46363761F0}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4826,10 +5279,23 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A31:XFD31</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6E85108F-E231-4C45-A2B9-C68A40F6A563}">
+          <xm:sqref>A36:XFD36 A48:XFD48</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D9FDA116-4199-410B-B626-ED89A7E8898C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A35:XFD35 A47:XFD47</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9C096FC4-A063-4251-B228-7E85E3512E0A}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4839,7 +5305,59 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A43:XFD43</xm:sqref>
+          <xm:sqref>F9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E9F3ECF0-CA6C-4A03-B683-7D90E2FE44B7}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{ED8B34D3-A518-49EC-9F22-8B4C95C15304}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A9:XFD9 A16:XFD16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E83836AB-F9FC-4A6D-A7BE-61631E97FE64}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A10:XFD10 A17:XFD17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{20C106FF-EF30-49D9-A1CD-7DB85F77A815}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A19:XFD19</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/materials/ct81seg_runtime_stats.xlsx
+++ b/materials/ct81seg_runtime_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\projects\CT81SegApp\materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52078DC0-19BB-44BC-BFD6-49B8EE5A4F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F614FAF6-89B8-444A-8705-7F39B1BF351E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CC17635D-67C6-4E2B-BF5C-757E9F68CB22}"/>
   </bookViews>
@@ -1058,19 +1058,37 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1079,28 +1097,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1443,10 +1443,10 @@
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1458,9 +1458,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="31"/>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
       <c r="D1" s="20" t="s">
         <v>36</v>
       </c>
@@ -1502,11 +1502,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
       <c r="D2" s="20" t="s">
         <v>3</v>
       </c>
@@ -1548,11 +1548,11 @@
       </c>
     </row>
     <row r="3" spans="1:16" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -1562,10 +1562,10 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="22" t="s">
         <v>7</v>
       </c>
@@ -1610,8 +1610,8 @@
       </c>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="21" t="s">
         <v>0</v>
       </c>
@@ -1656,8 +1656,8 @@
       </c>
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="21" t="s">
         <v>27</v>
       </c>
@@ -1702,8 +1702,8 @@
       </c>
     </row>
     <row r="7" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="23" t="s">
         <v>37</v>
       </c>
@@ -1796,8 +1796,8 @@
       </c>
     </row>
     <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="21" t="s">
         <v>38</v>
       </c>
@@ -1842,8 +1842,8 @@
       </c>
     </row>
     <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="21" t="s">
         <v>39</v>
       </c>
@@ -1895,8 +1895,8 @@
       </c>
     </row>
     <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="21" t="s">
         <v>40</v>
       </c>
@@ -1941,8 +1941,8 @@
       </c>
     </row>
     <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="21" t="s">
         <v>41</v>
       </c>
@@ -1987,8 +1987,8 @@
       </c>
     </row>
     <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="21" t="s">
         <v>42</v>
       </c>
@@ -2033,8 +2033,8 @@
       </c>
     </row>
     <row r="14" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="23" t="s">
         <v>43</v>
       </c>
@@ -2127,8 +2127,8 @@
       </c>
     </row>
     <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="21" t="s">
         <v>44</v>
       </c>
@@ -2173,8 +2173,8 @@
       </c>
     </row>
     <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="21" t="s">
         <v>45</v>
       </c>
@@ -2224,8 +2224,8 @@
       </c>
     </row>
     <row r="18" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="21" t="s">
         <v>46</v>
       </c>
@@ -2270,8 +2270,8 @@
       </c>
     </row>
     <row r="19" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="21" t="s">
         <v>47</v>
       </c>
@@ -2316,8 +2316,8 @@
       </c>
     </row>
     <row r="20" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="21" t="s">
         <v>48</v>
       </c>
@@ -2362,8 +2362,8 @@
       </c>
     </row>
     <row r="21" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="23" t="s">
         <v>49</v>
       </c>
@@ -2408,10 +2408,10 @@
       </c>
     </row>
     <row r="22" spans="1:16" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="29"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="21" t="s">
         <v>6</v>
       </c>
@@ -2453,8 +2453,8 @@
       </c>
     </row>
     <row r="23" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="21" t="s">
         <v>50</v>
       </c>
@@ -2499,8 +2499,8 @@
       </c>
     </row>
     <row r="24" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="21" t="s">
         <v>51</v>
       </c>
@@ -2545,8 +2545,8 @@
       </c>
     </row>
     <row r="25" spans="1:16" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="21" t="s">
         <v>52</v>
       </c>
@@ -2591,11 +2591,11 @@
       </c>
     </row>
     <row r="26" spans="1:16" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
@@ -2606,10 +2606,10 @@
       <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="38" t="s">
         <v>19</v>
       </c>
       <c r="C27" s="22" t="s">
@@ -2656,8 +2656,8 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="29"/>
-      <c r="B28" s="31"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="21" t="s">
         <v>53</v>
       </c>
@@ -2702,8 +2702,8 @@
       </c>
     </row>
     <row r="29" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="29"/>
-      <c r="B29" s="32"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="23" t="s">
         <v>54</v>
       </c>
@@ -2748,8 +2748,8 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A30" s="29"/>
-      <c r="B30" s="33" t="s">
+      <c r="A30" s="28"/>
+      <c r="B30" s="39" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="26" t="s">
@@ -2796,8 +2796,8 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31" s="29"/>
-      <c r="B31" s="34"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="40"/>
       <c r="C31" s="26" t="s">
         <v>85</v>
       </c>
@@ -2842,8 +2842,8 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A32" s="29"/>
-      <c r="B32" s="34"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="40"/>
       <c r="C32" s="26" t="s">
         <v>13</v>
       </c>
@@ -2888,8 +2888,8 @@
       </c>
     </row>
     <row r="33" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="29"/>
-      <c r="B33" s="34"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="40"/>
       <c r="C33" s="27" t="s">
         <v>14</v>
       </c>
@@ -2934,7 +2934,7 @@
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34" s="29"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="35" t="s">
         <v>21</v>
       </c>
@@ -2982,8 +2982,8 @@
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A35" s="29"/>
-      <c r="B35" s="31"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="30"/>
       <c r="C35" s="21" t="s">
         <v>55</v>
       </c>
@@ -3028,8 +3028,8 @@
       </c>
     </row>
     <row r="36" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="29"/>
-      <c r="B36" s="32"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="23" t="s">
         <v>56</v>
       </c>
@@ -3074,8 +3074,8 @@
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A37" s="29"/>
-      <c r="B37" s="31" t="s">
+      <c r="A37" s="28"/>
+      <c r="B37" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C37" s="21" t="s">
@@ -3122,8 +3122,8 @@
       </c>
     </row>
     <row r="38" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="39"/>
-      <c r="B38" s="32"/>
+      <c r="A38" s="34"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="23" t="s">
         <v>57</v>
       </c>
@@ -3168,7 +3168,7 @@
       </c>
     </row>
     <row r="39" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="37" t="s">
         <v>18</v>
       </c>
       <c r="B39" s="35" t="s">
@@ -3218,8 +3218,8 @@
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A40" s="29"/>
-      <c r="B40" s="31"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="30"/>
       <c r="C40" s="21" t="s">
         <v>58</v>
       </c>
@@ -3264,8 +3264,8 @@
       </c>
     </row>
     <row r="41" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="29"/>
-      <c r="B41" s="32"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="36"/>
       <c r="C41" s="23" t="s">
         <v>54</v>
       </c>
@@ -3310,8 +3310,8 @@
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A42" s="29"/>
-      <c r="B42" s="36" t="s">
+      <c r="A42" s="28"/>
+      <c r="B42" s="41" t="s">
         <v>20</v>
       </c>
       <c r="C42" s="26" t="s">
@@ -3358,8 +3358,8 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A43" s="29"/>
-      <c r="B43" s="37"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="42"/>
       <c r="C43" s="26" t="s">
         <v>85</v>
       </c>
@@ -3404,8 +3404,8 @@
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A44" s="29"/>
-      <c r="B44" s="37"/>
+      <c r="A44" s="28"/>
+      <c r="B44" s="42"/>
       <c r="C44" s="26" t="s">
         <v>13</v>
       </c>
@@ -3450,8 +3450,8 @@
       </c>
     </row>
     <row r="45" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="29"/>
-      <c r="B45" s="37"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="42"/>
       <c r="C45" s="27" t="s">
         <v>14</v>
       </c>
@@ -3496,7 +3496,7 @@
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A46" s="29"/>
+      <c r="A46" s="28"/>
       <c r="B46" s="35" t="s">
         <v>21</v>
       </c>
@@ -3544,8 +3544,8 @@
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A47" s="29"/>
-      <c r="B47" s="31"/>
+      <c r="A47" s="28"/>
+      <c r="B47" s="30"/>
       <c r="C47" s="21" t="s">
         <v>55</v>
       </c>
@@ -3590,8 +3590,8 @@
       </c>
     </row>
     <row r="48" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="29"/>
-      <c r="B48" s="32"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="36"/>
       <c r="C48" s="23" t="s">
         <v>59</v>
       </c>
@@ -3636,8 +3636,8 @@
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A49" s="29"/>
-      <c r="B49" s="31" t="s">
+      <c r="A49" s="28"/>
+      <c r="B49" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C49" s="21" t="s">
@@ -3684,8 +3684,8 @@
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A50" s="29"/>
-      <c r="B50" s="31"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="30"/>
       <c r="C50" s="21" t="s">
         <v>57</v>
       </c>
@@ -3731,14 +3731,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A22:B25"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A4:B7"/>
-    <mergeCell ref="A8:B14"/>
-    <mergeCell ref="A15:B21"/>
     <mergeCell ref="A39:A50"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B33"/>
@@ -3749,9 +3741,253 @@
     <mergeCell ref="B46:B48"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="A27:A38"/>
+    <mergeCell ref="A22:B25"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A4:B7"/>
+    <mergeCell ref="A8:B14"/>
+    <mergeCell ref="A15:B21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A9:XFD9 A16:XFD16">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ED8B34D3-A518-49EC-9F22-8B4C95C15304}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:XFD10 A17:XFD17">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E83836AB-F9FC-4A6D-A7BE-61631E97FE64}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A16:XFD16 A9:XFD9">
+    <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{14196676-A144-43A1-A7A4-3EF4D4E423B3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:XFD17 A10:XFD10">
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3F5EDDE1-556F-4C3A-B908-6C709C91A635}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:XFD19">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{20C106FF-EF30-49D9-A1CD-7DB85F77A815}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:XFD23">
+    <cfRule type="dataBar" priority="34">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{185488EA-EF2F-484D-9735-35F3064F04C6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:XFD31 A43:XFD43">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{99C4F751-00F6-4A71-9859-221B8E3C3FB1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:XFD31">
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{592908BD-3F7F-48DA-BD89-CC3781B3D27C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:XFD35 A47:XFD47">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D9FDA116-4199-410B-B626-ED89A7E8898C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36:XFD36 A48:XFD48">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{62491FED-6080-4278-9025-1E46363761F0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39:XFD39 A27:XFD27">
+    <cfRule type="dataBar" priority="56">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0BDA52D8-3E7E-4C70-91EE-300C4C30AA93}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40:XFD40 A28:XFD28">
+    <cfRule type="dataBar" priority="55">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9E678109-7150-49BE-B221-A3CFAA416250}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:XFD41 A29:XFD29">
+    <cfRule type="dataBar" priority="54">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ED7249C0-7851-4FAB-A8B3-ECD1D8B07ED7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42:XFD42 A30:XFD30 A32:XFD32 A44:XFD44">
+    <cfRule type="dataBar" priority="25">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{58549C8B-D210-40C4-8ADE-22C497017E3B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="53">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{17182307-9233-4527-A092-39A2AC7598BF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42:XFD42 A30:XFD30">
+    <cfRule type="dataBar" priority="14">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{61538239-4463-49B8-9A29-C3B20DF09C8A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:XFD43">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6E85108F-E231-4C45-A2B9-C68A40F6A563}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44:XFD44 A32:XFD32">
     <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="min"/>
@@ -3760,13 +3996,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{14196676-A144-43A1-A7A4-3EF4D4E423B3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:XFD17 A10:XFD10">
-    <cfRule type="dataBar" priority="16">
+          <x14:id>{5116F6CD-AA68-44F1-8493-873CEF528752}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45:XFD45 A33:XFD33">
+    <cfRule type="dataBar" priority="52">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3774,41 +4010,581 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3F5EDDE1-556F-4C3A-B908-6C709C91A635}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23:XFD23">
+          <x14:id>{7C48002B-3911-4813-A50C-7ECF9C19EF64}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46:XFD46 A34:XFD34">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BE90834B-BCE9-4D8B-94C3-8DF5CA7B319C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:XFD47 A35:XFD35">
+    <cfRule type="dataBar" priority="49">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{34C9D91D-6812-4B52-B085-D4926ED94F46}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48:XFD48 A36:XFD36">
+    <cfRule type="dataBar" priority="48">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C4B37561-E21A-469F-9264-28F346513E2D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49:XFD49 A37:XFD37">
+    <cfRule type="dataBar" priority="47">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A795A94A-D359-4C20-8F8C-4E6E44939444}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49:XFD50 A37:XFD38">
+    <cfRule type="dataBar" priority="24">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FD3B9AE4-86A2-4DD2-9FB2-590D37A1F1F3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="44">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BEB72EB6-2FCA-4E6B-A21F-E30D0356FAF7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50:XFD50 A38:XFD38">
+    <cfRule type="dataBar" priority="46">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ED0BF0BD-0D7F-4B28-A5CF-75980B2566B9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="dataBar" priority="31">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BE08D743-5C31-4682-92FD-D0ED74A6E081}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="dataBar" priority="30">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{99553375-C4C7-4A45-B837-00F75118B134}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="dataBar" priority="29">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7096564D-29E1-4746-9C3E-E960D69055F1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="dataBar" priority="28">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1A1BFC80-804B-4A95-BF78-1A64F9AB28A3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9C096FC4-A063-4251-B228-7E85E3512E0A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E9F3ECF0-CA6C-4A03-B683-7D90E2FE44B7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:I9 K9:L9">
+    <cfRule type="dataBar" priority="95">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8C3D98AE-45B3-E349-AD08-7A2D2F0788DE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:I12 K12">
+    <cfRule type="dataBar" priority="97">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{AA69FEEE-5CC1-B446-88AE-AA0DCEE32669}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:I14 K13:K14">
+    <cfRule type="dataBar" priority="98">
+      <dataBar>
+        <cfvo type="num" val="2"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0E5A907C-C8BB-3D4F-A865-FB20618C07B8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:I16 K16:L16">
+    <cfRule type="dataBar" priority="99">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7FA6673F-F21D-7945-B26F-B398F1E4F700}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:I17 K17:L17">
+    <cfRule type="dataBar" priority="100">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FDE0D191-AB43-2A4B-AAED-204602D73121}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19:I19 K19">
+    <cfRule type="dataBar" priority="101">
+      <dataBar>
+        <cfvo type="num" val="7"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E2DEF3AB-15D6-E248-822C-F35EA5D25BC2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:I20 K20">
+    <cfRule type="dataBar" priority="102">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{59D6ED6D-82BE-F743-9091-3995C19F06F3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21:I21 K21">
+    <cfRule type="dataBar" priority="103">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EB06A7EE-42B8-C447-B49D-30DC6AADD363}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24:I24 K24">
+    <cfRule type="dataBar" priority="104">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3C38937B-10AE-D641-91A1-2022AB2271C8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25:I25 K25">
+    <cfRule type="dataBar" priority="105">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{28EB4E0F-7C16-0E43-B1EE-C17DE9320A66}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10:L10 F10:I10">
+    <cfRule type="dataBar" priority="96">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A486E733-45FB-5745-BC12-5681A8C96E8B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9">
+    <cfRule type="dataBar" priority="20">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{25D22E7E-FE50-430C-BE55-2002B6040486}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N10">
+    <cfRule type="dataBar" priority="21">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5536B3A9-DDE9-4327-987B-6ED6BC685C8A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="19">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7E50EB07-188B-47B3-99BF-ABD8255E3D2D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N16">
+    <cfRule type="dataBar" priority="22">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FD3552A3-57BE-4D60-BC80-B4724F46B4D8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N17">
+    <cfRule type="dataBar" priority="23">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3F9D851B-CEA4-4226-A258-9FDCC56494E2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="18">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EF1AFFEC-FFA2-48E4-BAAF-28CAEA92E399}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q9:XFD9 A9:D9 N9 K9:L9 F9:I9">
+    <cfRule type="dataBar" priority="43">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{55209318-E838-45D7-997A-AE33FDFF309F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q10:XFD10 A10:D10 N10 K10:L10 F10:I10">
+    <cfRule type="dataBar" priority="42">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FF35AB45-1B56-4C79-838D-8C6C45297D4C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q12:XFD12 A12:D12 G12:I12 N12 K12:L12">
+    <cfRule type="dataBar" priority="41">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5709ABDC-9BD0-48E9-A6AB-106C154A8CEB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q13:XFD14 A13:D14 G13:I14 N13:N14 K13:L14">
+    <cfRule type="dataBar" priority="40">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9786495F-8BC4-419E-9CB8-5224A93AE4AE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q16:XFD16 A9:D9 A16:D16 G16:I16 N9 N16 Q9:XFD9 K16:L16 K9:L9 F9:I9">
+    <cfRule type="dataBar" priority="39">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8F84E390-EA54-4044-A0D1-BD858D211D1C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q17:XFD17 A10:D10 A17:D17 Q10:XFD10 N10 N17 G17:I17 K17:L17 K10:L10 F10:I10">
+    <cfRule type="dataBar" priority="38">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2648E629-B128-40E0-9430-3910149B879A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q19:XFD19 A19:D19 G19:I19 N19 K19:L19">
+    <cfRule type="dataBar" priority="37">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9EC12AEF-9FE7-4A07-8127-10331FB9F457}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q20:XFD20 A20:D20 G20:I20 N20 K20:L20">
+    <cfRule type="dataBar" priority="36">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F8E4DB01-292B-4098-852F-53E74F090B09}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q21:XFD21 A21:D21 G21:I21 N21 K21:L21">
+    <cfRule type="dataBar" priority="35">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{610D2D63-4D68-49B7-8423-BF90A16E1825}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q24:XFD24 A24:D24 G24:I24 N24 K24:L24">
     <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4D97FA75-76F6-4FF5-894D-D8F085836ADA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q25:XFD25 A25:D25 G25:I25 N25 K25:L25">
+    <cfRule type="dataBar" priority="32">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{185488EA-EF2F-484D-9735-35F3064F04C6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31:XFD31">
-    <cfRule type="dataBar" priority="11">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{592908BD-3F7F-48DA-BD89-CC3781B3D27C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A39:XFD39 A27:XFD27">
-    <cfRule type="dataBar" priority="55">
+          <x14:id>{D52F8789-0951-42AE-89B8-918393A72370}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:XFD14">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3816,769 +4592,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0BDA52D8-3E7E-4C70-91EE-300C4C30AA93}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40:XFD40 A28:XFD28">
-    <cfRule type="dataBar" priority="54">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9E678109-7150-49BE-B221-A3CFAA416250}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41:XFD41 A29:XFD29">
-    <cfRule type="dataBar" priority="53">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ED7249C0-7851-4FAB-A8B3-ECD1D8B07ED7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42:XFD42 A30:XFD30 A32:XFD32 A44:XFD44">
-    <cfRule type="dataBar" priority="24">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{58549C8B-D210-40C4-8ADE-22C497017E3B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="52">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{17182307-9233-4527-A092-39A2AC7598BF}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42:XFD42 A30:XFD30">
-    <cfRule type="dataBar" priority="13">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{61538239-4463-49B8-9A29-C3B20DF09C8A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A43:XFD43">
-    <cfRule type="dataBar" priority="10">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6E85108F-E231-4C45-A2B9-C68A40F6A563}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:XFD44 A32:XFD32">
-    <cfRule type="dataBar" priority="14">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5116F6CD-AA68-44F1-8493-873CEF528752}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:XFD45 A33:XFD33">
-    <cfRule type="dataBar" priority="51">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7C48002B-3911-4813-A50C-7ECF9C19EF64}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46:XFD46 A34:XFD34">
-    <cfRule type="dataBar" priority="8">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BE90834B-BCE9-4D8B-94C3-8DF5CA7B319C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47:XFD47 A35:XFD35">
-    <cfRule type="dataBar" priority="48">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{34C9D91D-6812-4B52-B085-D4926ED94F46}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48:XFD48 A36:XFD36">
-    <cfRule type="dataBar" priority="47">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C4B37561-E21A-469F-9264-28F346513E2D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A49:XFD49 A37:XFD37">
-    <cfRule type="dataBar" priority="46">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A795A94A-D359-4C20-8F8C-4E6E44939444}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A49:XFD50 A37:XFD38">
-    <cfRule type="dataBar" priority="23">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFD6007B"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FD3B9AE4-86A2-4DD2-9FB2-590D37A1F1F3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="43">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BEB72EB6-2FCA-4E6B-A21F-E30D0356FAF7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50:XFD50 A38:XFD38">
-    <cfRule type="dataBar" priority="45">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFD6007B"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ED0BF0BD-0D7F-4B28-A5CF-75980B2566B9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="dataBar" priority="30">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BE08D743-5C31-4682-92FD-D0ED74A6E081}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="dataBar" priority="29">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{99553375-C4C7-4A45-B837-00F75118B134}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="dataBar" priority="28">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7096564D-29E1-4746-9C3E-E960D69055F1}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="dataBar" priority="27">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1A1BFC80-804B-4A95-BF78-1A64F9AB28A3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9:I9 K9:L9">
-    <cfRule type="dataBar" priority="94">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8C3D98AE-45B3-E349-AD08-7A2D2F0788DE}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12:I12 K12">
-    <cfRule type="dataBar" priority="96">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AA69FEEE-5CC1-B446-88AE-AA0DCEE32669}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13:I14 K13:K14">
-    <cfRule type="dataBar" priority="97">
-      <dataBar>
-        <cfvo type="num" val="2"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0E5A907C-C8BB-3D4F-A865-FB20618C07B8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16:I16 K16:L16">
-    <cfRule type="dataBar" priority="98">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7FA6673F-F21D-7945-B26F-B398F1E4F700}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17:I17 K17:L17">
-    <cfRule type="dataBar" priority="99">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FDE0D191-AB43-2A4B-AAED-204602D73121}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19:I19 K19">
-    <cfRule type="dataBar" priority="100">
-      <dataBar>
-        <cfvo type="num" val="7"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E2DEF3AB-15D6-E248-822C-F35EA5D25BC2}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20:I20 K20">
-    <cfRule type="dataBar" priority="101">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{59D6ED6D-82BE-F743-9091-3995C19F06F3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21:I21 K21">
-    <cfRule type="dataBar" priority="102">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{EB06A7EE-42B8-C447-B49D-30DC6AADD363}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24:I24 K24">
-    <cfRule type="dataBar" priority="103">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3C38937B-10AE-D641-91A1-2022AB2271C8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25:I25 K25">
-    <cfRule type="dataBar" priority="104">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{28EB4E0F-7C16-0E43-B1EE-C17DE9320A66}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K10:L10 F10:I10">
-    <cfRule type="dataBar" priority="95">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A486E733-45FB-5745-BC12-5681A8C96E8B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N9">
-    <cfRule type="dataBar" priority="19">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{25D22E7E-FE50-430C-BE55-2002B6040486}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N10">
-    <cfRule type="dataBar" priority="18">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7E50EB07-188B-47B3-99BF-ABD8255E3D2D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="20">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5536B3A9-DDE9-4327-987B-6ED6BC685C8A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N16">
-    <cfRule type="dataBar" priority="21">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FD3552A3-57BE-4D60-BC80-B4724F46B4D8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N17">
-    <cfRule type="dataBar" priority="17">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{EF1AFFEC-FFA2-48E4-BAAF-28CAEA92E399}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="22">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3F9D851B-CEA4-4226-A258-9FDCC56494E2}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q9:XFD9 A9:D9 N9 K9:L9 F9:I9">
-    <cfRule type="dataBar" priority="42">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{55209318-E838-45D7-997A-AE33FDFF309F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q10:XFD10 A10:D10 N10 K10:L10 F10:I10">
-    <cfRule type="dataBar" priority="41">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FF35AB45-1B56-4C79-838D-8C6C45297D4C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q12:XFD12 A12:D12 G12:I12 N12 K12:L12">
-    <cfRule type="dataBar" priority="40">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5709ABDC-9BD0-48E9-A6AB-106C154A8CEB}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q13:XFD14 A13:D14 G13:I14 N13:N14 K13:L14">
-    <cfRule type="dataBar" priority="39">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9786495F-8BC4-419E-9CB8-5224A93AE4AE}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q16:XFD16 A9:D9 A16:D16 G16:I16 N9 N16 Q9:XFD9 K16:L16 K9:L9 F9:I9">
-    <cfRule type="dataBar" priority="38">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8F84E390-EA54-4044-A0D1-BD858D211D1C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q17:XFD17 A10:D10 A17:D17 Q10:XFD10 N10 N17 G17:I17 K17:L17 K10:L10 F10:I10">
-    <cfRule type="dataBar" priority="37">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2648E629-B128-40E0-9430-3910149B879A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q19:XFD19 A19:D19 G19:I19 N19 K19:L19">
-    <cfRule type="dataBar" priority="36">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9EC12AEF-9FE7-4A07-8127-10331FB9F457}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q20:XFD20 A20:D20 G20:I20 N20 K20:L20">
-    <cfRule type="dataBar" priority="35">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F8E4DB01-292B-4098-852F-53E74F090B09}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q21:XFD21 A21:D21 G21:I21 N21 K21:L21">
-    <cfRule type="dataBar" priority="34">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{610D2D63-4D68-49B7-8423-BF90A16E1825}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q24:XFD24 A24:D24 G24:I24 N24 K24:L24">
-    <cfRule type="dataBar" priority="32">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4D97FA75-76F6-4FF5-894D-D8F085836ADA}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q25:XFD25 A25:D25 G25:I25 N25 K25:L25">
-    <cfRule type="dataBar" priority="31">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D52F8789-0951-42AE-89B8-918393A72370}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31:XFD31 A43:XFD43">
-    <cfRule type="dataBar" priority="9">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{99C4F751-00F6-4A71-9859-221B8E3C3FB1}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36:XFD36 A48:XFD48">
-    <cfRule type="dataBar" priority="7">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{62491FED-6080-4278-9025-1E46363761F0}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35:XFD35 A47:XFD47">
-    <cfRule type="dataBar" priority="6">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D9FDA116-4199-410B-B626-ED89A7E8898C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
-    <cfRule type="dataBar" priority="5">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9C096FC4-A063-4251-B228-7E85E3512E0A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E9F3ECF0-CA6C-4A03-B683-7D90E2FE44B7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:XFD9 A16:XFD16">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ED8B34D3-A518-49EC-9F22-8B4C95C15304}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10:XFD10 A17:XFD17">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E83836AB-F9FC-4A6D-A7BE-61631E97FE64}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:XFD19">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{20C106FF-EF30-49D9-A1CD-7DB85F77A815}</x14:id>
+          <x14:id>{28774D30-B9F6-40E8-B930-9BD8D8900F2C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4588,6 +4602,32 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{ED8B34D3-A518-49EC-9F22-8B4C95C15304}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A9:XFD9 A16:XFD16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E83836AB-F9FC-4A6D-A7BE-61631E97FE64}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A10:XFD10 A17:XFD17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{14196676-A144-43A1-A7A4-3EF4D4E423B3}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
@@ -4614,6 +4654,19 @@
           <xm:sqref>A17:XFD17 A10:XFD10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{20C106FF-EF30-49D9-A1CD-7DB85F77A815}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A19:XFD19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{185488EA-EF2F-484D-9735-35F3064F04C6}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
@@ -4627,6 +4680,19 @@
           <xm:sqref>A23:XFD23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{99C4F751-00F6-4A71-9859-221B8E3C3FB1}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A31:XFD31 A43:XFD43</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{592908BD-3F7F-48DA-BD89-CC3781B3D27C}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
@@ -4640,6 +4706,32 @@
           <xm:sqref>A31:XFD31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D9FDA116-4199-410B-B626-ED89A7E8898C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A35:XFD35 A47:XFD47</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{62491FED-6080-4278-9025-1E46363761F0}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A36:XFD36 A48:XFD48</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0BDA52D8-3E7E-4C70-91EE-300C4C30AA93}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
@@ -4892,6 +4984,32 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>D17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9C096FC4-A063-4251-B228-7E85E3512E0A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E9F3ECF0-CA6C-4A03-B683-7D90E2FE44B7}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8C3D98AE-45B3-E349-AD08-7A2D2F0788DE}">
@@ -5054,6 +5172,16 @@
           <xm:sqref>N9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5536B3A9-DDE9-4327-987B-6ED6BC685C8A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
           <x14:cfRule type="dataBar" id="{7E50EB07-188B-47B3-99BF-ABD8255E3D2D}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
@@ -5064,7 +5192,23 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{5536B3A9-DDE9-4327-987B-6ED6BC685C8A}">
+          <xm:sqref>N10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FD3552A3-57BE-4D60-BC80-B4724F46B4D8}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3F9D851B-CEA4-4226-A258-9FDCC56494E2}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5074,10 +5218,20 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N10</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FD3552A3-57BE-4D60-BC80-B4724F46B4D8}">
+          <x14:cfRule type="dataBar" id="{EF1AFFEC-FFA2-48E4-BAAF-28CAEA92E399}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{55209318-E838-45D7-997A-AE33FDFF309F}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5087,10 +5241,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{EF1AFFEC-FFA2-48E4-BAAF-28CAEA92E399}">
+          <xm:sqref>Q9:XFD9 A9:D9 N9 K9:L9 F9:I9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FF35AB45-1B56-4C79-838D-8C6C45297D4C}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5100,7 +5254,23 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{3F9D851B-CEA4-4226-A258-9FDCC56494E2}">
+          <xm:sqref>Q10:XFD10 A10:D10 N10 K10:L10 F10:I10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5709ABDC-9BD0-48E9-A6AB-106C154A8CEB}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Q12:XFD12 A12:D12 G12:I12 N12 K12:L12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9786495F-8BC4-419E-9CB8-5224A93AE4AE}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5110,10 +5280,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N17</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{55209318-E838-45D7-997A-AE33FDFF309F}">
+          <xm:sqref>Q13:XFD14 A13:D14 G13:I14 N13:N14 K13:L14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8F84E390-EA54-4044-A0D1-BD858D211D1C}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5123,10 +5293,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Q9:XFD9 A9:D9 N9 K9:L9 F9:I9</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FF35AB45-1B56-4C79-838D-8C6C45297D4C}">
+          <xm:sqref>Q16:XFD16 A9:D9 A16:D16 G16:I16 N9 N16 Q9:XFD9 K16:L16 K9:L9 F9:I9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2648E629-B128-40E0-9430-3910149B879A}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5136,10 +5306,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Q10:XFD10 A10:D10 N10 K10:L10 F10:I10</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5709ABDC-9BD0-48E9-A6AB-106C154A8CEB}">
+          <xm:sqref>Q17:XFD17 A10:D10 A17:D17 Q10:XFD10 N10 N17 G17:I17 K17:L17 K10:L10 F10:I10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9EC12AEF-9FE7-4A07-8127-10331FB9F457}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5149,10 +5319,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Q12:XFD12 A12:D12 G12:I12 N12 K12:L12</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9786495F-8BC4-419E-9CB8-5224A93AE4AE}">
+          <xm:sqref>Q19:XFD19 A19:D19 G19:I19 N19 K19:L19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F8E4DB01-292B-4098-852F-53E74F090B09}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5162,10 +5332,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Q13:XFD14 A13:D14 G13:I14 N13:N14 K13:L14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8F84E390-EA54-4044-A0D1-BD858D211D1C}">
+          <xm:sqref>Q20:XFD20 A20:D20 G20:I20 N20 K20:L20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{610D2D63-4D68-49B7-8423-BF90A16E1825}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5175,10 +5345,23 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Q16:XFD16 A9:D9 A16:D16 G16:I16 N9 N16 Q9:XFD9 K16:L16 K9:L9 F9:I9</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2648E629-B128-40E0-9430-3910149B879A}">
+          <xm:sqref>Q21:XFD21 A21:D21 G21:I21 N21 K21:L21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4D97FA75-76F6-4FF5-894D-D8F085836ADA}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Q24:XFD24 A24:D24 G24:I24 N24 K24:L24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D52F8789-0951-42AE-89B8-918393A72370}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5188,23 +5371,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Q17:XFD17 A10:D10 A17:D17 Q10:XFD10 N10 N17 G17:I17 K17:L17 K10:L10 F10:I10</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9EC12AEF-9FE7-4A07-8127-10331FB9F457}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>Q19:XFD19 A19:D19 G19:I19 N19 K19:L19</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F8E4DB01-292B-4098-852F-53E74F090B09}">
+          <xm:sqref>Q25:XFD25 A25:D25 G25:I25 N25 K25:L25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{28774D30-B9F6-40E8-B930-9BD8D8900F2C}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5214,150 +5384,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Q20:XFD20 A20:D20 G20:I20 N20 K20:L20</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{610D2D63-4D68-49B7-8423-BF90A16E1825}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>Q21:XFD21 A21:D21 G21:I21 N21 K21:L21</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4D97FA75-76F6-4FF5-894D-D8F085836ADA}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>Q24:XFD24 A24:D24 G24:I24 N24 K24:L24</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D52F8789-0951-42AE-89B8-918393A72370}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>Q25:XFD25 A25:D25 G25:I25 N25 K25:L25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{99C4F751-00F6-4A71-9859-221B8E3C3FB1}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A31:XFD31 A43:XFD43</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{62491FED-6080-4278-9025-1E46363761F0}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A36:XFD36 A48:XFD48</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D9FDA116-4199-410B-B626-ED89A7E8898C}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A35:XFD35 A47:XFD47</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9C096FC4-A063-4251-B228-7E85E3512E0A}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F9</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E9F3ECF0-CA6C-4A03-B683-7D90E2FE44B7}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F10</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ED8B34D3-A518-49EC-9F22-8B4C95C15304}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A9:XFD9 A16:XFD16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E83836AB-F9FC-4A6D-A7BE-61631E97FE64}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A10:XFD10 A17:XFD17</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{20C106FF-EF30-49D9-A1CD-7DB85F77A815}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A19:XFD19</xm:sqref>
+          <xm:sqref>A13:XFD14</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
